--- a/couplet/result-test.xlsx
+++ b/couplet/result-test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="524">
   <si>
     <t>上联</t>
   </si>
@@ -31,7 +31,7 @@
     <t>万里秋花从北起</t>
   </si>
   <si>
-    <t>万里云山隔北来</t>
+    <t>万里云帆到西来</t>
   </si>
   <si>
     <t>流水落花春去也</t>
@@ -40,7 +40,7 @@
     <t>落云飞月燕来兮</t>
   </si>
   <si>
-    <t>落霞飞燕夏来兮</t>
+    <t>飞鸿雁影月来乎</t>
   </si>
   <si>
     <t>落红不是无情物</t>
@@ -49,7 +49,7 @@
     <t>流绿何非有意人</t>
   </si>
   <si>
-    <t>流水难为有意人</t>
+    <t>流水当然有意人</t>
   </si>
   <si>
     <t>轩听小雨添愁绪</t>
@@ -58,7 +58,7 @@
     <t>酒看清风送旧思</t>
   </si>
   <si>
-    <t>秋赏秋风送爽风</t>
+    <t>雪落红梅妆绮席</t>
   </si>
   <si>
     <t>古今多少事，都付笑谈中</t>
@@ -67,7 +67,7 @@
     <t>天地几千情，尽说情道里</t>
   </si>
   <si>
-    <t>今古有今人，皆因果证真</t>
+    <t>天下有奇观，从来学问津</t>
   </si>
   <si>
     <t>乘风破浪会有时</t>
@@ -76,7 +76,7 @@
     <t>驾月凌云不无处</t>
   </si>
   <si>
-    <t>对月对联联无情</t>
+    <t>沐雨栉风沐雨晴</t>
   </si>
   <si>
     <t>大千世界，弥勒笑来闲放眼</t>
@@ -85,7 +85,7 @@
     <t>万二法门，佛人痛去正开心</t>
   </si>
   <si>
-    <t>普天人生，一生苦苦苦修身</t>
+    <t>无数风骚，闲愁寂寞少知音</t>
   </si>
   <si>
     <t>问观音为何倒坐</t>
@@ -94,7 +94,7 @@
     <t>说佛子不肯回来</t>
   </si>
   <si>
-    <t>答答答答答答答</t>
+    <t>恨对联对对联通</t>
   </si>
   <si>
     <t>大肚包容，了却人间多少事</t>
@@ -103,7 +103,7 @@
     <t>小心变笑，不来世上几千人</t>
   </si>
   <si>
-    <t>小心笑语，无非天下有余生</t>
+    <t>小心空调，弘扬世界大文明</t>
   </si>
   <si>
     <t>一粒米中藏世界</t>
@@ -112,7 +112,7 @@
     <t>半瓶茶里煮乾华</t>
   </si>
   <si>
-    <t>三餐桌上品人生</t>
+    <t>半边锅内煮乾坤</t>
   </si>
   <si>
     <t>万法一心，空不异色</t>
@@ -121,7 +121,7 @@
     <t>三方三法，实是如光</t>
   </si>
   <si>
-    <t>千秋千古，尽是无穷</t>
+    <t>千姿百态，独秀才华</t>
   </si>
   <si>
     <t>水向石边流出冷</t>
@@ -130,7 +130,7 @@
     <t>人从山上舞来红</t>
   </si>
   <si>
-    <t>山从山上画成诗</t>
+    <t>风从月下梦成真</t>
   </si>
   <si>
     <t>红花红豆红娘子</t>
@@ -139,7 +139,7 @@
     <t>白水绿天白子翁</t>
   </si>
   <si>
-    <t>白雪白衣白头翁</t>
+    <t>白雪白山白白头</t>
   </si>
   <si>
     <t>疆国分封唯禹迹</t>
@@ -148,13 +148,13 @@
     <t>江人绍作是春人</t>
   </si>
   <si>
-    <t>江山统返有神州</t>
+    <t>梁朝可佐佐文章</t>
   </si>
   <si>
     <t>一江明月在南来</t>
   </si>
   <si>
-    <t>一轮明月照南来</t>
+    <t>一轮明月在西来</t>
   </si>
   <si>
     <t>处处逢归路</t>
@@ -163,7 +163,7 @@
     <t>时时送旧人</t>
   </si>
   <si>
-    <t>年年到此门</t>
+    <t>何人遇故人</t>
   </si>
   <si>
     <t>三十年来寻剑客</t>
@@ -172,7 +172,7 @@
     <t>万千里外看花人</t>
   </si>
   <si>
-    <t>一千世上觅诗人</t>
+    <t>九千里外觅桃源</t>
   </si>
   <si>
     <t>山前一片闲田地</t>
@@ -181,7 +181,7 @@
     <t>水上几分古水天</t>
   </si>
   <si>
-    <t>水上千条绿水湾</t>
+    <t>门外满堂富贵人</t>
   </si>
   <si>
     <t>空门不肯出</t>
@@ -190,7 +190,7 @@
     <t>大道何能入</t>
   </si>
   <si>
-    <t>大道有方来</t>
+    <t>大道即能通</t>
   </si>
   <si>
     <t>南去北来休便休</t>
@@ -199,7 +199,7 @@
     <t>东来西去何思莫</t>
   </si>
   <si>
-    <t>东来西去不相逢</t>
+    <t>东来西去不需多</t>
   </si>
   <si>
     <t>道人不是悲秋客</t>
@@ -208,7 +208,7 @@
     <t>游者何非醉酒人</t>
   </si>
   <si>
-    <t>心事无非寂寞人</t>
+    <t>鬓角犹为落魄魂</t>
   </si>
   <si>
     <t>吾心似秋月</t>
@@ -217,7 +217,7 @@
     <t>此意如春风</t>
   </si>
   <si>
-    <t>君子如春风</t>
+    <t>如梦如春风</t>
   </si>
   <si>
     <t>南台静坐一炉香</t>
@@ -226,7 +226,7 @@
     <t>北海遥游几里韵</t>
   </si>
   <si>
-    <t>西子归来半夜情</t>
+    <t>北苑闲斟满室香</t>
   </si>
   <si>
     <t>一树春风有两般，南枝身暧北枝寒。</t>
@@ -235,7 +235,7 @@
     <t>千年秋月无几点，北国人开南海长声</t>
   </si>
   <si>
-    <t>满天秋雨无一点，东海潮汐南海潮汐</t>
+    <t>千秋月影千秋，万里人生花萼红</t>
   </si>
   <si>
     <t>独坐清谈久亦劳</t>
@@ -244,7 +244,7 @@
     <t>闲吟好话常然得</t>
   </si>
   <si>
-    <t>闲斟浊酒自相宜</t>
+    <t>一杯浊酒更难闲</t>
   </si>
   <si>
     <t>苍苍竹林寺</t>
@@ -253,7 +253,7 @@
     <t>滚白柳山村</t>
   </si>
   <si>
-    <t>绿野水山山</t>
+    <t>暮暮鸟游林</t>
   </si>
   <si>
     <t>亭亭菊一枝</t>
@@ -262,7 +262,7 @@
     <t>郁落梅几朵</t>
   </si>
   <si>
-    <t>云路月无边</t>
+    <t>江月影孤舟</t>
   </si>
   <si>
     <t>采菊东篱下</t>
@@ -271,7 +271,7 @@
     <t>吟梅北海中</t>
   </si>
   <si>
-    <t>探花北海边</t>
+    <t>种竹青山西</t>
   </si>
   <si>
     <t>岭上白云舒复卷</t>
@@ -280,7 +280,7 @@
     <t>江中红水舞来飞</t>
   </si>
   <si>
-    <t>江边绿水涌流波</t>
+    <t>湖中绿水映红霞</t>
   </si>
   <si>
     <t>岁月人间促</t>
@@ -289,7 +289,7 @@
     <t>春生世里生</t>
   </si>
   <si>
-    <t>江山画里新</t>
+    <t>春秋笔底收</t>
   </si>
   <si>
     <t>花开花落非僧事</t>
@@ -298,7 +298,7 @@
     <t>云去人来是佛人</t>
   </si>
   <si>
-    <t>月缺月圆缺月光</t>
+    <t>云卷云舒有鹤心</t>
   </si>
   <si>
     <t>尽日寻春不见春，芒鞋踏遍陇头云。</t>
@@ -307,7 +307,7 @@
     <t>一时问月常知月，玉盏飞开山上月观</t>
   </si>
   <si>
-    <t>今宵有月无眠月，梦想回圆梦里烟霞</t>
+    <t>如今待客赏人，绿水连环玉臂摇</t>
   </si>
   <si>
     <t>君不见，三界之中纷扰，只为天明不了绝</t>
@@ -316,7 +316,7 @@
     <t>我难来，一生以外悠流，但是人静难然一</t>
   </si>
   <si>
-    <t>我亦思，一身而后生死，何须地狱有无穷</t>
+    <t>我是空，无非无非所以，无非大悲以无常</t>
   </si>
   <si>
     <t>自笑老夫筯力败</t>
@@ -325,7 +325,7 @@
     <t>莫知少者笑心多</t>
   </si>
   <si>
-    <t>不知小子少年狂</t>
+    <t>原来赵子上河流</t>
   </si>
   <si>
     <t>不是风幡不是心</t>
@@ -334,7 +334,7 @@
     <t>何非世幻何非人</t>
   </si>
   <si>
-    <t>无非云水也为天</t>
+    <t>难得宠辱亦无鱼</t>
   </si>
   <si>
     <t>千尺丝纶直下垂</t>
@@ -343,7 +343,7 @@
     <t>一生烟水顿来带</t>
   </si>
   <si>
-    <t>一轮明月照中流</t>
+    <t>一轮辕发阖家风</t>
   </si>
   <si>
     <t>夜静水寒鱼不食，满船空载月明归。</t>
@@ -352,7 +352,7 @@
     <t>天高山暖鸟难来，一日尽飞风暗去情</t>
   </si>
   <si>
-    <t>日曛风暖花无恙，一点春秋风暖暖花</t>
+    <t>天高人好春风一路，一路春风化作诗</t>
   </si>
   <si>
     <t>几树寒梅带雪红</t>
@@ -361,7 +361,7 @@
     <t>一池翠柳含烟绿</t>
   </si>
   <si>
-    <t>一枝春雨润花香</t>
+    <t>一江春水梳柳青</t>
   </si>
   <si>
     <t>鸟舍凌波肌似雪</t>
@@ -370,7 +370,7 @@
     <t>花风落水貌如云</t>
   </si>
   <si>
-    <t>山川满目水如花</t>
+    <t>花衫傲骨气如霜</t>
   </si>
   <si>
     <t>年老心闲无外事</t>
@@ -379,7 +379,7 @@
     <t>春高意不有余人</t>
   </si>
   <si>
-    <t>月圆梦幻有中情</t>
+    <t>身闲气息有前程</t>
   </si>
   <si>
     <t>山头禅室挂僧衣</t>
@@ -388,7 +388,7 @@
     <t>水上梵门横佛杖</t>
   </si>
   <si>
-    <t>门外佛门掩寺僧</t>
+    <t>门上厅堂开佛门</t>
   </si>
   <si>
     <t>空门寂寂淡吾身</t>
@@ -397,7 +397,7 @@
     <t>大道切茫茫我世</t>
   </si>
   <si>
-    <t>野径幽幽幽径云</t>
+    <t>幽径悠悠远是尘</t>
   </si>
   <si>
     <t>六根清静方为道</t>
@@ -406,7 +406,7 @@
     <t>一界清明便是佛</t>
   </si>
   <si>
-    <t>一世尘嚣始是禅</t>
+    <t>一竿逍遥自是禅</t>
   </si>
   <si>
     <t>退步原来是向前</t>
@@ -415,7 +415,7 @@
     <t>问心不去非从后</t>
   </si>
   <si>
-    <t>回眸自在自然凉</t>
+    <t>攀登绝顶自超然</t>
   </si>
   <si>
     <t>低头便见水中天</t>
@@ -424,7 +424,7 @@
     <t>俯首不闻山里地</t>
   </si>
   <si>
-    <t>俯首甘为孺子牛</t>
+    <t>上下常观海外财</t>
   </si>
   <si>
     <t>梦里不知身是客</t>
@@ -433,7 +433,7 @@
     <t>心中何有我为人</t>
   </si>
   <si>
-    <t>心中无奈梦成仙</t>
+    <t>眼前方见水为家</t>
   </si>
   <si>
     <t>有约不来过夜半</t>
@@ -442,7 +442,7 @@
     <t>无人无是此人一</t>
   </si>
   <si>
-    <t>无人无奈何时中</t>
+    <t>无钱的爱在人间</t>
   </si>
   <si>
     <t>闲敲棋子落灯花</t>
@@ -451,7 +451,7 @@
     <t>醉把诗人吹月月</t>
   </si>
   <si>
-    <t>漫漫楼台对酒歌</t>
+    <t>醉咏诗词咏月弦</t>
   </si>
   <si>
     <t>天南海北双飞客</t>
@@ -460,7 +460,7 @@
     <t>山东花东一蒂人</t>
   </si>
   <si>
-    <t>古邑春秋一画图</t>
+    <t>古今古今各异人</t>
   </si>
   <si>
     <t>两三竿竹皆秋色</t>
@@ -469,7 +469,7 @@
     <t>十万声花尽春香</t>
   </si>
   <si>
-    <t>一点梅花尽雪香</t>
+    <t>一夜莺声尽柳弦</t>
   </si>
   <si>
     <t>风云三尺剑</t>
@@ -478,7 +478,7 @@
     <t>日月一轮剑</t>
   </si>
   <si>
-    <t>烟雨一帘花</t>
+    <t>日月一轮车</t>
   </si>
   <si>
     <t>白马西风塞上</t>
@@ -487,7 +487,7 @@
     <t>黄牛南水江中</t>
   </si>
   <si>
-    <t>黄牛黄土坡头</t>
+    <t>青衫冷雨中斜</t>
   </si>
   <si>
     <t>门前莫约频来客</t>
@@ -496,7 +496,7 @@
     <t>柜里休求一去人</t>
   </si>
   <si>
-    <t>路上常思不见人</t>
+    <t>室内常思不见人</t>
   </si>
   <si>
     <t>东墙倒，西墙倒，窥见室家之好</t>
@@ -505,7 +505,7 @@
     <t>西子来，左海来，喜知文子者多</t>
   </si>
   <si>
-    <t>西子来，东北南，望穿杨柳的归</t>
+    <t>南国兴，高歌齐，同歌国脉同欢</t>
   </si>
   <si>
     <t>荷风送香气</t>
@@ -514,7 +514,7 @@
     <t>柳月邀春光</t>
   </si>
   <si>
-    <t>柳色染绿衣</t>
+    <t>月色含清辉</t>
   </si>
   <si>
     <t>斗酒纵观廿四史</t>
@@ -523,7 +523,7 @@
     <t>凭杯共读十千年</t>
   </si>
   <si>
-    <t>飞花放放万千年</t>
+    <t>瓣香独占一千秋</t>
   </si>
   <si>
     <t>隐影相去，独一人</t>
@@ -532,7 +532,7 @@
     <t>清情不来，共二个</t>
   </si>
   <si>
-    <t>明月共圆，共同心</t>
+    <t>知音容我，各有双</t>
   </si>
   <si>
     <t>一竹一兰一石</t>
@@ -541,7 +541,7 @@
     <t>半山万月几山</t>
   </si>
   <si>
-    <t>半山半月半山</t>
+    <t>三杯半盏半壶</t>
   </si>
   <si>
     <t>爽气西来，云雾扫开天地憾</t>
@@ -550,7 +550,7 @@
     <t>清江东去，烟霞吹尽古今惊</t>
   </si>
   <si>
-    <t>清风东去，风云起起古今愁</t>
+    <t>清风古往，风流畅咏古今情</t>
   </si>
   <si>
     <t>春风阆苑三千客</t>
@@ -559,7 +559,7 @@
     <t>瑞雨南楼十万年</t>
   </si>
   <si>
-    <t>秋雨江山十万家</t>
+    <t>绿水青山十万家</t>
   </si>
   <si>
     <t>托钵而来，不为钟鸣鼓响</t>
@@ -568,7 +568,7 @@
     <t>修香以去，但因鼓起花开</t>
   </si>
   <si>
-    <t>闻香以后，无因果断肠香</t>
+    <t>做人无忌，何妨对酒风调</t>
   </si>
   <si>
     <t>长空有月明两岸</t>
@@ -577,7 +577,7 @@
     <t>大海无风暖九江</t>
   </si>
   <si>
-    <t>大地无人扫一尘</t>
+    <t>大海无边落九天</t>
   </si>
   <si>
     <t>海纳百川，有容乃大</t>
@@ -586,7 +586,7 @@
     <t>税通万仞，无畏为小</t>
   </si>
   <si>
-    <t>山登万仞，无欲则刚</t>
+    <t>天长万里，无欲则刚</t>
   </si>
   <si>
     <t>放不开眼底乾坤，何必登斯楼把酒。</t>
@@ -595,7 +595,7 @@
     <t>看来置心中日月，且然凭此地寻诗人</t>
   </si>
   <si>
-    <t>俯瞰握胸中日月，不妨把此月作诗仙</t>
+    <t>吞得吞吴山此，且将中国梦熊腰</t>
   </si>
   <si>
     <t>四面湖山归眼底</t>
@@ -604,7 +604,7 @@
     <t>一方风月在心中</t>
   </si>
   <si>
-    <t>一亭风月在心头</t>
+    <t>一江春水到心头</t>
   </si>
   <si>
     <t>南极潇湘千里月</t>
@@ -613,7 +613,7 @@
     <t>北朝秦水一家云</t>
   </si>
   <si>
-    <t>西湖湘水一湖春</t>
+    <t>北堂萱花满堂春</t>
   </si>
   <si>
     <t>岭边树色含风冷</t>
@@ -622,7 +622,7 @@
     <t>山里花光带月寒</t>
   </si>
   <si>
-    <t>山上花香入梦寒</t>
+    <t>湖上清波带月明</t>
   </si>
   <si>
     <t>怕人询问，咽泪装欢</t>
@@ -631,7 +631,7 @@
     <t>如我皈来，清心作切</t>
   </si>
   <si>
-    <t>忧国忧患，死心伤悲</t>
+    <t>嫌里帮贫，乖乖乖乖</t>
   </si>
   <si>
     <t>青山不墨千秋画</t>
@@ -649,7 +649,7 @@
     <t>鸟清云涌入诗风</t>
   </si>
   <si>
-    <t>风和日丽丽诗篇</t>
+    <t>鸢飞鱼跃涌诗情</t>
   </si>
   <si>
     <t>问青牛何人骑去</t>
@@ -658,7 +658,7 @@
     <t>看白虎哪我咬来</t>
   </si>
   <si>
-    <t>答黄鹤此地回归</t>
+    <t>祈宝地来我来来</t>
   </si>
   <si>
     <t>临水开轩，四面云山皆入画</t>
@@ -667,7 +667,7 @@
     <t>凭栏入月，一方风月尽成诗</t>
   </si>
   <si>
-    <t>登楼望月，一楼风月尽成诗</t>
+    <t>登台览胜，千秋事业尽成文</t>
   </si>
   <si>
     <t>古今奇观属岩壑</t>
@@ -676,7 +676,7 @@
     <t>天外名气在山山</t>
   </si>
   <si>
-    <t>天地灵气在人间</t>
+    <t>天地人物蕴风流</t>
   </si>
   <si>
     <t>云影波光天上下</t>
@@ -685,7 +685,7 @@
     <t>花光月影水中西</t>
   </si>
   <si>
-    <t>山光水色月中央</t>
+    <t>龙腾虎吼海中央</t>
   </si>
   <si>
     <t>雨过林霏清石气</t>
@@ -694,7 +694,7 @@
     <t>风来水淡白花风</t>
   </si>
   <si>
-    <t>云开水静谧天风</t>
+    <t>云浮云淡淡风光</t>
   </si>
   <si>
     <t>留此湖山得此佳趣</t>
@@ -703,7 +703,7 @@
     <t>问之风月有其清情</t>
   </si>
   <si>
-    <t>聚斯人物换新天真</t>
+    <t>于斯楼阁有余音</t>
   </si>
   <si>
     <t>掬水月在手</t>
@@ -712,7 +712,7 @@
     <t>问云花于心</t>
   </si>
   <si>
-    <t>弄风云为衣</t>
+    <t>弄花香满衣</t>
   </si>
   <si>
     <t>风旌不动真乘义</t>
@@ -721,7 +721,7 @@
     <t>水水难生大作人</t>
   </si>
   <si>
-    <t>水木长流忒厚情</t>
+    <t>水印维新亦是非</t>
   </si>
   <si>
     <t>开张天岸马</t>
@@ -730,7 +730,7 @@
     <t>建孔楚江龙</t>
   </si>
   <si>
-    <t>闭目水云山</t>
+    <t>放起海陆风</t>
   </si>
   <si>
     <t>佛法无边，静里常观自在</t>
@@ -739,7 +739,7 @@
     <t>禅心有限，空来不觉如来</t>
   </si>
   <si>
-    <t>慈航普渡，普天时度众生</t>
+    <t>道德有道，人间总是空灵</t>
   </si>
   <si>
     <t>笔底江山助磅礴</t>
@@ -748,7 +748,7 @@
     <t>胸中风月存峥荡</t>
   </si>
   <si>
-    <t>胸中丘壑蕴清幽</t>
+    <t>风中日月忆蹉跎</t>
   </si>
   <si>
     <t>铁石梅花气概</t>
@@ -757,7 +757,7 @@
     <t>金风竹水风神</t>
   </si>
   <si>
-    <t>金山玉树精神</t>
+    <t>高山流水文章</t>
   </si>
   <si>
     <t>清风明月自来往</t>
@@ -766,7 +766,7 @@
     <t>明水清山从古今</t>
   </si>
   <si>
-    <t>野鹤闲云闲去来</t>
+    <t>古道今人今古今</t>
   </si>
   <si>
     <t>月光千里白</t>
@@ -775,7 +775,7 @@
     <t>花影万年红</t>
   </si>
   <si>
-    <t>花影一瓯春</t>
+    <t>花色一壶春</t>
   </si>
   <si>
     <t>几点梅花归笛孔</t>
@@ -784,7 +784,7 @@
     <t>一声柳水醉诗烟</t>
   </si>
   <si>
-    <t>一帘月色入诗中</t>
+    <t>一声竹笛入琴弦</t>
   </si>
   <si>
     <t>开轩敫朗月</t>
@@ -793,7 +793,7 @@
     <t>借江为清风</t>
   </si>
   <si>
-    <t>闭户卧松风</t>
+    <t>墨水蔚蓝天</t>
   </si>
   <si>
     <t>偶呼明月问千古</t>
@@ -802,7 +802,7 @@
     <t>且伴清风看一年</t>
   </si>
   <si>
-    <t>不负春风待一时</t>
+    <t>独坐青山听百年</t>
   </si>
   <si>
     <t>睡至二三更时，凡功名都成幻境</t>
@@ -811,7 +811,7 @@
     <t>归来十百年处，古世贵都是神人</t>
   </si>
   <si>
-    <t>行来一百年后，有志士尽是天天</t>
+    <t>人在六十年，从来风尽是神仙</t>
   </si>
   <si>
     <t>天上何曾有山水</t>
@@ -820,7 +820,7 @@
     <t>人间不是是春花</t>
   </si>
   <si>
-    <t>人间岂可无人伦</t>
+    <t>人间岂可是蓬莱</t>
   </si>
   <si>
     <t>提笔四顾天地窄</t>
@@ -829,7 +829,7 @@
     <t>挥书一对古今高</t>
   </si>
   <si>
-    <t>开心一笑古今同</t>
+    <t>开口一腔山水长</t>
   </si>
   <si>
     <t>瑞气降寰宇</t>
@@ -838,7 +838,7 @@
     <t>春光照大间</t>
   </si>
   <si>
-    <t>祥云绕海天</t>
+    <t>春风度众生</t>
   </si>
   <si>
     <t>有山皆图画</t>
@@ -847,7 +847,7 @@
     <t>无水不文诗</t>
   </si>
   <si>
-    <t>无水不知音</t>
+    <t>无水不诗文</t>
   </si>
   <si>
     <t>水清石出鱼无数</t>
@@ -856,7 +856,7 @@
     <t>山高花来鸟几多</t>
   </si>
   <si>
-    <t>山静松间鹤有声</t>
+    <t>花落花开花有谁</t>
   </si>
   <si>
     <t>拈花一问，无人会笑</t>
@@ -865,7 +865,7 @@
     <t>把酒三思，有我同愁</t>
   </si>
   <si>
-    <t>对月三分，有意为媒</t>
+    <t>对月双飞，有梦皆空</t>
   </si>
   <si>
     <t>清风有意难留我</t>
@@ -874,7 +874,7 @@
     <t>明月无情不待人</t>
   </si>
   <si>
-    <t>明月无心不照人</t>
+    <t>明月无情自照人</t>
   </si>
   <si>
     <t>得好友来如对月</t>
@@ -883,7 +883,7 @@
     <t>不佳人去是随风</t>
   </si>
   <si>
-    <t>有闲情醉且吟诗</t>
+    <t>有奇书读好读书</t>
   </si>
   <si>
     <t>德从宽处积</t>
@@ -892,7 +892,7 @@
     <t>福自大时求</t>
   </si>
   <si>
-    <t>道在大中行</t>
+    <t>福自俭中求</t>
   </si>
   <si>
     <t>受人以虚，求是以实</t>
@@ -901,7 +901,7 @@
     <t>有法而道，有为唯真</t>
   </si>
   <si>
-    <t>处世而事，得其所真</t>
+    <t>毋事而死，毋须而为</t>
   </si>
   <si>
     <t>好书不厌看还读</t>
@@ -910,7 +910,7 @@
     <t>佳事何妨不不作</t>
   </si>
   <si>
-    <t>明月无非惜未圆</t>
+    <t>恶语无言说是非</t>
   </si>
   <si>
     <t>江山澄气象</t>
@@ -919,7 +919,7 @@
     <t>风月尽风神</t>
   </si>
   <si>
-    <t>社会和风云</t>
+    <t>风雨顺人情</t>
   </si>
   <si>
     <t>好书悟后三更月</t>
@@ -928,7 +928,7 @@
     <t>佳酒来来一里风</t>
   </si>
   <si>
-    <t>善恶修来一世缘</t>
+    <t>妙笔生来一字珠</t>
   </si>
   <si>
     <t>发上等愿，享下等福</t>
@@ -937,7 +937,7 @@
     <t>心西处心，想上处意</t>
   </si>
   <si>
-    <t>择高自在，为出平安</t>
+    <t>择高处处，为中外人</t>
   </si>
   <si>
     <t>精神到处文章老</t>
@@ -946,7 +946,7 @@
     <t>气想无间风水新</t>
   </si>
   <si>
-    <t>巧手回家幸福多</t>
+    <t>学问源头学子深</t>
   </si>
   <si>
     <t>真理学从五伦做起</t>
@@ -955,7 +955,7 @@
     <t>好文人与六辈而来</t>
   </si>
   <si>
-    <t>大名著就一世传承</t>
+    <t>好先生自在先生</t>
   </si>
   <si>
     <t>庭有余闲，竹露松风蕉雨</t>
@@ -964,7 +964,7 @@
     <t>窗无幽趣，松烟竹韵炊烟</t>
   </si>
   <si>
-    <t>心无旁骛，兰舟兰水兰舟</t>
+    <t>苑无杂储，花开桃李枝头</t>
   </si>
   <si>
     <t>立志不随流俗转</t>
@@ -973,7 +973,7 @@
     <t>有心莫与清人与</t>
   </si>
   <si>
-    <t>为人无尽孝贤愚</t>
+    <t>求知难得到人来</t>
   </si>
   <si>
     <t>四面江山来眼底</t>
@@ -982,13 +982,16 @@
     <t>一方风月到心中</t>
   </si>
   <si>
+    <t>一弯月色入心头</t>
+  </si>
+  <si>
     <t>尽交天下贤豪长者</t>
   </si>
   <si>
     <t>不作世间贤杰与之</t>
   </si>
   <si>
-    <t>不负人间大圣贤人</t>
+    <t>博览人间大有为师</t>
   </si>
   <si>
     <t>喜有两眼泪，多交益友</t>
@@ -997,7 +1000,7 @@
     <t>乐无一年情，不负良人</t>
   </si>
   <si>
-    <t>笑看一心花，好读书香</t>
+    <t>乐无一个人，尽是春风</t>
   </si>
   <si>
     <t>不除庭草留生意</t>
@@ -1006,7 +1009,7 @@
     <t>但有春花送老心</t>
   </si>
   <si>
-    <t>但有山泉洗俗尘</t>
+    <t>但愿清风伴酒资</t>
   </si>
   <si>
     <t>烟锁池塘柳</t>
@@ -1015,7 +1018,7 @@
     <t>风封天岸花</t>
   </si>
   <si>
-    <t>烽开海角云</t>
+    <t>枫燃镇海霞</t>
   </si>
   <si>
     <t>寂寞寒窗空守寡</t>
@@ -1024,7 +1027,7 @@
     <t>相遥热海漫逍零</t>
   </si>
   <si>
-    <t>相思故事莫相思</t>
+    <t>彷徨微雨徒彷徨</t>
   </si>
   <si>
     <t>闲人免进贤人进</t>
@@ -1033,7 +1036,7 @@
     <t>骚者不来雅者来</t>
   </si>
   <si>
-    <t>老子常思父子归</t>
+    <t>智者无常假客来</t>
   </si>
   <si>
     <t>狗啃河上骨</t>
@@ -1042,7 +1045,7 @@
     <t>牛爬花中心</t>
   </si>
   <si>
-    <t>牛织女中牛</t>
+    <t>鸡啼日中天</t>
   </si>
   <si>
     <t>佛印水边寻蚌吃</t>
@@ -1051,7 +1054,7 @@
     <t>禅花山上觅龙引</t>
   </si>
   <si>
-    <t>仙山山上有云来</t>
+    <t>龙潭苇上听蛙鸣</t>
   </si>
   <si>
     <t>空中一朵白莲花，风捧奉佛</t>
@@ -1060,7 +1063,7 @@
     <t>岭上几枝红柳叶，雨流来禅</t>
   </si>
   <si>
-    <t>地下千秋黄土地，雨洗涤尘</t>
+    <t>天下双双紫竹林，月照扶桑</t>
   </si>
   <si>
     <t>进退一身关社稷</t>
@@ -1069,7 +1072,7 @@
     <t>沉亡两古系江山</t>
   </si>
   <si>
-    <t>输赢四面做人家</t>
+    <t>英雄万古阅春秋</t>
   </si>
   <si>
     <t>一弹流水一弹月</t>
@@ -1078,7 +1081,7 @@
     <t>半许落花半卷云</t>
   </si>
   <si>
-    <t>半卷清风两袖风</t>
+    <t>半点梅花半点香</t>
   </si>
   <si>
     <t>坐南朝北吃西瓜，皮向东扔；</t>
@@ -1087,7 +1090,7 @@
     <t>望北向东游左海，腹从西吞；</t>
   </si>
   <si>
-    <t>行东海外游北海，海望北伐来</t>
+    <t>关怀纳谏臣心，左右左右，右穆</t>
   </si>
   <si>
     <t>北斗七星，水底连天十四点；</t>
@@ -1096,7 +1099,7 @@
     <t>南山一月，山中遍月一千年；</t>
   </si>
   <si>
-    <t>南山五岳，山中叠翠三千重重</t>
+    <t>南山北海，气吞万里江山</t>
   </si>
   <si>
     <t>日出东方照万家</t>
@@ -1105,7 +1108,7 @@
     <t>春来北海来千载</t>
   </si>
   <si>
-    <t>月明西子照千山</t>
+    <t>春来西部第一人</t>
   </si>
   <si>
     <t>不如不说</t>
@@ -1114,7 +1117,7 @@
     <t>何若只知</t>
   </si>
   <si>
-    <t>无奈何求</t>
+    <t>无我即生</t>
   </si>
   <si>
     <t>福无双至今朝至</t>
@@ -1123,7 +1126,7 @@
     <t>寿有一来来日同</t>
   </si>
   <si>
-    <t>寿有一生一世缘</t>
+    <t>缘有一根基地来</t>
   </si>
   <si>
     <t>纸窗竹屋深自暖</t>
@@ -1132,7 +1135,7 @@
     <t>灯径梅帘静从寒</t>
   </si>
   <si>
-    <t>松榻松风静不闲</t>
+    <t>石径苔痕欲更幽</t>
   </si>
   <si>
     <t>厚地高天，堪叹古今情不尽</t>
@@ -1141,7 +1144,7 @@
     <t>清山大地，且看天外意无穷</t>
   </si>
   <si>
-    <t>薄云大地，无期天地意无穷</t>
+    <t>痴男怨女，谁知此地怨难忘</t>
   </si>
   <si>
     <t>痴男怨女，可怜风月债难酬</t>
@@ -1150,7 +1153,7 @@
     <t>老女清人，且恨江花情不伴</t>
   </si>
   <si>
-    <t>苦辣酸甜，堪叹岁年年未终</t>
+    <t>醉客观花，笑看花灯照满堂</t>
   </si>
   <si>
     <t>世事洞明皆学问</t>
@@ -1159,7 +1162,7 @@
     <t>人生不定是文怀</t>
   </si>
   <si>
-    <t>人生情练不知音</t>
+    <t>人生苦短是人生</t>
   </si>
   <si>
     <t>日出江花红胜火</t>
@@ -1168,7 +1171,7 @@
     <t>春来海叶绿如金</t>
   </si>
   <si>
-    <t>春来秋月白如霜</t>
+    <t>春来秋水绿如蓝</t>
   </si>
   <si>
     <t>旧岁又添几个喜</t>
@@ -1186,7 +1189,7 @@
     <t>却为诗迷醉古人</t>
   </si>
   <si>
-    <t>不为春风笔点睛</t>
+    <t>品味香醺泡瘦茶</t>
   </si>
   <si>
     <t>常未饮酒而醉</t>
@@ -1195,7 +1198,7 @@
     <t>总能知诗以来</t>
   </si>
   <si>
-    <t>不欲买花且闲</t>
+    <t>不可以身则明</t>
   </si>
   <si>
     <t>桃花褪艳，血痕岂化胭脂</t>
@@ -1204,7 +1207,7 @@
     <t>燕叶生春，春影长随翡翠</t>
   </si>
   <si>
-    <t>春雨催春，心迹长存红颜</t>
+    <t>柳絮飞红，人间更比甜甜</t>
   </si>
   <si>
     <t>蝉噪林愈静</t>
@@ -1213,7 +1216,7 @@
     <t>燕鸣鸟更幽</t>
   </si>
   <si>
-    <t>鸟鸣鸟不飞</t>
+    <t>鸟鸣山更幽</t>
   </si>
   <si>
     <t>缘何邀月问天，想是平生知己少</t>
@@ -1222,7 +1225,7 @@
     <t>只不与风入地，不为此世故人多</t>
   </si>
   <si>
-    <t>梦此寻花寻梦，依稀故事故人多</t>
+    <t>只为思亲祭酒，且将相识故人多</t>
   </si>
   <si>
     <t>人心无算处</t>
@@ -1231,7 +1234,7 @@
     <t>世事有情时</t>
   </si>
   <si>
-    <t>世事不言中</t>
+    <t>花信徒有时</t>
   </si>
   <si>
     <t>欲除烦恼须无我</t>
@@ -1240,7 +1243,7 @@
     <t>不得菩缘莫有人</t>
   </si>
   <si>
-    <t>各有艰辛不问谁</t>
+    <t>难得糊涂莫笑人</t>
   </si>
   <si>
     <t>偏多热血偏多骨</t>
@@ -1249,7 +1252,7 @@
     <t>不有真心不有心</t>
   </si>
   <si>
-    <t>不少春风不少年</t>
+    <t>却有情怀不悔肠</t>
   </si>
   <si>
     <t>山光扑面经宵雨</t>
@@ -1258,7 +1261,7 @@
     <t>月影随窗一晚风</t>
   </si>
   <si>
-    <t>水色无心照晚霞</t>
+    <t>水色盈眸望月光</t>
   </si>
   <si>
     <t>沽酒欲来风已醉</t>
@@ -1267,7 +1270,7 @@
     <t>沽花将去月犹迷</t>
   </si>
   <si>
-    <t>踏歌未去月还寒</t>
+    <t>狂歌乍落月犹寒</t>
   </si>
   <si>
     <t>但得夕阳无限好</t>
@@ -1276,7 +1279,7 @@
     <t>且将明月有时多</t>
   </si>
   <si>
-    <t>何须明月一时圆</t>
+    <t>谁知何处不知名</t>
   </si>
   <si>
     <t>旧书细谈犹多味</t>
@@ -1285,7 +1288,7 @@
     <t>新酒小说更少情</t>
   </si>
   <si>
-    <t>新词新词更更新</t>
+    <t>新曲新知更有情</t>
   </si>
   <si>
     <t>松间明月长如此</t>
@@ -1294,7 +1297,7 @@
     <t>竹外清风不似般</t>
   </si>
   <si>
-    <t>竹外清风不了尘</t>
+    <t>塞外春风不似初</t>
   </si>
   <si>
     <t>弹指声中千偈了</t>
@@ -1303,7 +1306,7 @@
     <t>醉头梦上一盏着</t>
   </si>
   <si>
-    <t>拈花香里一枝来</t>
+    <t>拈花笑后笑眉开</t>
   </si>
   <si>
     <t>老拳博古道</t>
@@ -1312,7 +1315,7 @@
     <t>新气溯新天</t>
   </si>
   <si>
-    <t>新手绘新图</t>
+    <t>新板荡新篇</t>
   </si>
   <si>
     <t>穹达尽为身外事</t>
@@ -1321,7 +1324,7 @@
     <t>滚来不是眼中人</t>
   </si>
   <si>
-    <t>山河皆是镜中花</t>
+    <t>园林皆是世间情</t>
   </si>
   <si>
     <t>遗世慕庄周，睡去能为蝴蝶梦</t>
@@ -1330,7 +1333,7 @@
     <t>遗人弘故汉，归来不作凤子心</t>
   </si>
   <si>
-    <t>名山埋姓氏，看今不作凤凰俦</t>
+    <t>名山留名士，名山犹有杜鹃声</t>
   </si>
   <si>
     <t>四十九年穷不死</t>
@@ -1339,7 +1342,7 @@
     <t>三千三里苦难生</t>
   </si>
   <si>
-    <t>三千万里正相亲</t>
+    <t>三千万里已无常</t>
   </si>
   <si>
     <t>天为补贫偏与健</t>
@@ -1348,7 +1351,7 @@
     <t>人作养富不同清</t>
   </si>
   <si>
-    <t>人因不死不成仙</t>
+    <t>人因识事渐生财</t>
   </si>
   <si>
     <t>我已家风负梅鹤</t>
@@ -1357,7 +1360,7 @@
     <t>谁如此月为竹云</t>
   </si>
   <si>
-    <t>君将春色到江湖</t>
+    <t>天将地道作石人</t>
   </si>
   <si>
     <t>晴绿乍添垂柳色</t>
@@ -1366,7 +1369,7 @@
     <t>春红初向落花花</t>
   </si>
   <si>
-    <t>春红初绽绣花香</t>
+    <t>春红又染青春光</t>
   </si>
   <si>
     <t>雨洗杏花浓如许</t>
@@ -1375,7 +1378,7 @@
     <t>风吹柳叶暖似多</t>
   </si>
   <si>
-    <t>云遮秋色淡若烟</t>
+    <t>雪笼竹叶淡若烟</t>
   </si>
   <si>
     <t>解趣黄鹂频送韵</t>
@@ -1384,7 +1387,7 @@
     <t>含情白燕总生春</t>
   </si>
   <si>
-    <t>如花紫燕总含情</t>
+    <t>知音白鹿不知秋</t>
   </si>
   <si>
     <t>柳眼才舒芳草地</t>
@@ -1393,7 +1396,7 @@
     <t>桃腮又绕艳阳天</t>
   </si>
   <si>
-    <t>桃腮又绽艳阳天</t>
+    <t>桃腮正染艳阳天</t>
   </si>
   <si>
     <t>白鹭忘机，看天外云舒云卷</t>
@@ -1402,7 +1405,7 @@
     <t>青花如意，喜人中花落月飞</t>
   </si>
   <si>
-    <t>青山作画，听雨中风韵律扬</t>
+    <t>青山在水，听雨中中听鼓鸣</t>
   </si>
   <si>
     <t>一心守道道无穷，穷中有乐</t>
@@ -1411,7 +1414,7 @@
     <t>万手为灵生不限，此里无忧</t>
   </si>
   <si>
-    <t>百事求真经有味，大大皆空</t>
+    <t>万里求真求善，善善无边</t>
   </si>
   <si>
     <t>雨滋春树碧连天</t>
@@ -1420,7 +1423,7 @@
     <t>风送秋花红遍地</t>
   </si>
   <si>
-    <t>云涌秋波绿满江</t>
+    <t>风送暖风花满楼</t>
   </si>
   <si>
     <t>雾锁山头山锁雾</t>
@@ -1429,7 +1432,7 @@
     <t>云遮水面水流云</t>
   </si>
   <si>
-    <t>云开寺顶寺生烟</t>
+    <t>人在人间水上天</t>
   </si>
   <si>
     <t>二人土上坐</t>
@@ -1438,7 +1441,7 @@
     <t>一里水中曝</t>
   </si>
   <si>
-    <t>一世镜中行</t>
+    <t>一月月旁投</t>
   </si>
   <si>
     <t>能者多劳，恐断四条腿骨</t>
@@ -1447,7 +1450,7 @@
     <t>好人不定，不开一片心心</t>
   </si>
   <si>
-    <t>有人有幸，无辜五丈夫人</t>
+    <t>难熬不老，愁煞十年心</t>
   </si>
   <si>
     <t>绿水本无忧， 因风皱面</t>
@@ -1456,7 +1459,7 @@
     <t>青山原有惧，为为雨开心</t>
   </si>
   <si>
-    <t>青山原有道，道为道通途</t>
+    <t>青山原有寄，不负青春心</t>
   </si>
   <si>
     <t>鸡犬过霜桥 一路梅花竹叶</t>
@@ -1465,7 +1468,7 @@
     <t>鹤蛇穿雪舍看千分杨叶梅声</t>
   </si>
   <si>
-    <t>山山开画屏画千重山水画图</t>
+    <t>犬鸡跟班门前门蜡灯花</t>
   </si>
   <si>
     <t>欲知千古事</t>
@@ -1474,7 +1477,7 @@
     <t>且解一年人</t>
   </si>
   <si>
-    <t>不负一年情</t>
+    <t>曾识向人间</t>
   </si>
   <si>
     <t>风竹绿竹，风翻绿竹竹翻风</t>
@@ -1483,7 +1486,7 @@
     <t>雪水红梅，雪映红梅花映雨</t>
   </si>
   <si>
-    <t>水鸭碧波，浪荡红楼月满楼</t>
+    <t>雨露黄叶，叶落黄花凋落红</t>
   </si>
   <si>
     <t>笔架山高虹气现</t>
@@ -1492,7 +1495,7 @@
     <t>琴流水阔月光流</t>
   </si>
   <si>
-    <t>人文物美景光新</t>
+    <t>砚池墨淡墨香浓</t>
   </si>
   <si>
     <t>好将妙手夸针巧</t>
@@ -1501,7 +1504,7 @@
     <t>且把佳心作酒高</t>
   </si>
   <si>
-    <t>不用良机遇事难</t>
+    <t>暂把良心把酒筹</t>
   </si>
   <si>
     <t>笑到几时方合口</t>
@@ -1510,7 +1513,7 @@
     <t>喜于何处便随心</t>
   </si>
   <si>
-    <t>愁于一处不离人</t>
+    <t>思来一处不知心</t>
   </si>
   <si>
     <t>金山挂月窥禅径</t>
@@ -1519,7 +1522,7 @@
     <t>玉海流云送佛坪</t>
   </si>
   <si>
-    <t>玉宇悬空照佛门</t>
+    <t>玉树临风扫地球</t>
   </si>
   <si>
     <t>山静尘清，水参如是观</t>
@@ -1528,7 +1531,7 @@
     <t>人清月静，人语若然听</t>
   </si>
   <si>
-    <t>水平淡淡，风静自然游</t>
+    <t>渊明渊薮，月明即圆时</t>
   </si>
   <si>
     <t>看花临水心无事</t>
@@ -1537,7 +1540,7 @@
     <t>听月凭天意有情</t>
   </si>
   <si>
-    <t>听雨洗尘世有情</t>
+    <t>对月吟诗意有情</t>
   </si>
   <si>
     <t>春随香草前年绝</t>
@@ -1546,7 +1549,7 @@
     <t>月伴金花今日长</t>
   </si>
   <si>
-    <t>雨润红花后世新</t>
+    <t>花绽红花处处新</t>
   </si>
   <si>
     <t>诗赋于光风霁月</t>
@@ -1555,7 +1558,7 @@
     <t>诗怀在古水流天</t>
   </si>
   <si>
-    <t>琴弦弹韵水流云</t>
+    <t>文章在手水云天</t>
   </si>
   <si>
     <t>笔下留有余地步</t>
@@ -1564,7 +1567,7 @@
     <t>胸中看无故天人</t>
   </si>
   <si>
-    <t>胸中藏无限风情</t>
+    <t>心中无愧无私情</t>
   </si>
   <si>
     <t>清机发妙理</t>
@@ -1573,7 +1576,7 @@
     <t>妙质品奇心</t>
   </si>
   <si>
-    <t>正气度苍生</t>
+    <t>妙手出凡心</t>
   </si>
   <si>
     <t>清水出芙蓉，天然去雕饰</t>
@@ -1582,7 +1585,7 @@
     <t>白山生玉子，自自来风游</t>
   </si>
   <si>
-    <t>翠屏开画卷，人类见真情</t>
+    <t>白云绕山间，风来自有情</t>
   </si>
 </sst>
 </file>
@@ -1615,12 +1618,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1628,6 +1631,74 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1650,7 +1721,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1664,22 +1742,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1688,68 +1750,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1772,7 +1775,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1784,127 +1901,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1922,13 +1919,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1940,19 +1937,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1981,26 +1984,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2029,6 +2032,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -2036,21 +2063,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2069,160 +2081,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2579,15 +2582,15 @@
   <sheetPr/>
   <dimension ref="A1:C175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="F175" sqref="F175"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="26.5" customWidth="1"/>
-    <col min="2" max="2" width="28.5" customWidth="1"/>
-    <col min="3" max="3" width="45" customWidth="1"/>
+    <col min="1" max="1" width="41.25" customWidth="1"/>
+    <col min="2" max="2" width="43.75" customWidth="1"/>
+    <col min="3" max="3" width="33.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3775,744 +3778,744 @@
         <v>321</v>
       </c>
       <c r="C108" t="s">
-        <v>196</v>
+        <v>322</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B109" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C109" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B110" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C110" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B111" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C111" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B112" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C112" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B113" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C113" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B114" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C114" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B115" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C115" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B116" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C116" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B117" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C117" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B118" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C118" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B119" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C119" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B120" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C120" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B121" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C121" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B122" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C122" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B123" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C123" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B124" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C124" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B125" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C125" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B126" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C126" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B127" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C127" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B128" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C128" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B129" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C129" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B130" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C130" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B131" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C131" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B132" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C132" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B133" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C133" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B134" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C134" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B135" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C135" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B136" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C136" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B137" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C137" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B138" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C138" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B139" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C139" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B140" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C140" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B141" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C141" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B142" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C142" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B143" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C143" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B144" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C144" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B145" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C145" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B146" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C146" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B147" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C147" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B148" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C148" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B149" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C149" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B150" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C150" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B151" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C151" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B152" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C152" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B153" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C153" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B154" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C154" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B155" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C155" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B156" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C156" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B157" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C157" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B158" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C158" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B159" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C159" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B160" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C160" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B161" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C161" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B162" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C162" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B163" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C163" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B164" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C164" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B165" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C165" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B166" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C166" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B167" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C167" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B168" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C168" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B169" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C169" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B170" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C170" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B171" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C171" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B172" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C172" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B173" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C173" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B174" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C174" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B175" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C175" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
   </sheetData>

--- a/couplet/result-test.xlsx
+++ b/couplet/result-test.xlsx
@@ -1,14 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\git_pros\CoupletAI\couplet\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0868FDF2-F72E-480F-B4B6-087E4F99EF5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="12540"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$175</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -1591,14 +1600,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1615,158 +1618,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1775,192 +1633,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1983,313 +1661,32 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2574,1952 +1971,1953 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C175"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="B145" sqref="B145"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.25" customWidth="1"/>
-    <col min="2" max="2" width="43.75" customWidth="1"/>
-    <col min="3" max="3" width="33.625" customWidth="1"/>
+    <col min="1" max="1" width="41.26953125" customWidth="1"/>
+    <col min="2" max="2" width="43.7265625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="33.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>39</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>42</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>47</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C17" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>56</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="4" t="s">
         <v>57</v>
       </c>
       <c r="C20" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>59</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C21" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>62</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C22" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>65</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="4" t="s">
         <v>66</v>
       </c>
       <c r="C23" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>71</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="4" t="s">
         <v>72</v>
       </c>
       <c r="C25" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>74</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="4" t="s">
         <v>75</v>
       </c>
       <c r="C26" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>80</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="4" t="s">
         <v>81</v>
       </c>
       <c r="C28" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>95</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="4" t="s">
         <v>96</v>
       </c>
       <c r="C33" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>98</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="4" t="s">
         <v>99</v>
       </c>
       <c r="C34" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>101</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="4" t="s">
         <v>102</v>
       </c>
       <c r="C35" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>104</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="4" t="s">
         <v>105</v>
       </c>
       <c r="C36" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>107</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C37" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>110</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="4" t="s">
         <v>111</v>
       </c>
       <c r="C38" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>119</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C41" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>122</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="4" t="s">
         <v>123</v>
       </c>
       <c r="C42" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>125</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="4" t="s">
         <v>126</v>
       </c>
       <c r="C43" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>131</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="4" t="s">
         <v>132</v>
       </c>
       <c r="C45" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>134</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C46" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>137</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="4" t="s">
         <v>138</v>
       </c>
       <c r="C47" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>140</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="4" t="s">
         <v>141</v>
       </c>
       <c r="C48" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>143</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="4" t="s">
         <v>144</v>
       </c>
       <c r="C49" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>146</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="4" t="s">
         <v>147</v>
       </c>
       <c r="C50" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>149</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="4" t="s">
         <v>150</v>
       </c>
       <c r="C51" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>152</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="4" t="s">
         <v>153</v>
       </c>
       <c r="C52" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>161</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="4" t="s">
         <v>162</v>
       </c>
       <c r="C55" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>173</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="4" t="s">
         <v>174</v>
       </c>
       <c r="C59" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>182</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="4" t="s">
         <v>183</v>
       </c>
       <c r="C62" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="2" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>191</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="4" t="s">
         <v>192</v>
       </c>
       <c r="C65" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="2" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="2" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>203</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="4" t="s">
         <v>204</v>
       </c>
       <c r="C69" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="2" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="2" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>212</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="4" t="s">
         <v>213</v>
       </c>
       <c r="C72" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
-      <c r="A73" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="2" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>221</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="4" t="s">
         <v>222</v>
       </c>
       <c r="C75" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>224</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="4" t="s">
         <v>225</v>
       </c>
       <c r="C76" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>227</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="4" t="s">
         <v>228</v>
       </c>
       <c r="C77" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
-      <c r="A78" t="s">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="2" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>233</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C79" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>236</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="4" t="s">
         <v>237</v>
       </c>
       <c r="C80" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>239</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="4" t="s">
         <v>240</v>
       </c>
       <c r="C81" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>242</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="4" t="s">
         <v>243</v>
       </c>
       <c r="C82" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
-      <c r="A83" t="s">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="2" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>248</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="4" t="s">
         <v>249</v>
       </c>
       <c r="C84" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
-      <c r="A85" t="s">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="2" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>254</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="4" t="s">
         <v>255</v>
       </c>
       <c r="C86" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>257</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="4" t="s">
         <v>258</v>
       </c>
       <c r="C87" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
-      <c r="A88" t="s">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="2" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>263</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="4" t="s">
         <v>264</v>
       </c>
       <c r="C89" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>266</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="4" t="s">
         <v>267</v>
       </c>
       <c r="C90" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
-      <c r="A91" t="s">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="2" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
-      <c r="A92" t="s">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="2" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
-      <c r="A93" t="s">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="2" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>278</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="4" t="s">
         <v>279</v>
       </c>
       <c r="C94" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
-      <c r="A95" t="s">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
-      <c r="A96" t="s">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="2" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>287</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="4" t="s">
         <v>288</v>
       </c>
       <c r="C97" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
-      <c r="A98" t="s">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="2" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>293</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="4" t="s">
         <v>294</v>
       </c>
       <c r="C99" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>296</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="4" t="s">
         <v>297</v>
       </c>
       <c r="C100" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
-      <c r="A101" t="s">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="2" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
-      <c r="A102" t="s">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="2" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>305</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="4" t="s">
         <v>306</v>
       </c>
       <c r="C103" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>308</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="4" t="s">
         <v>309</v>
       </c>
       <c r="C104" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>311</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="4" t="s">
         <v>312</v>
       </c>
       <c r="C105" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>314</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="4" t="s">
         <v>315</v>
       </c>
       <c r="C106" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>317</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="4" t="s">
         <v>318</v>
       </c>
       <c r="C107" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
-      <c r="A108" t="s">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="2" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>323</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="4" t="s">
         <v>324</v>
       </c>
       <c r="C109" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>326</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="4" t="s">
         <v>327</v>
       </c>
       <c r="C110" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
-      <c r="A111" t="s">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="2" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
-      <c r="A112" t="s">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="2" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>335</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="4" t="s">
         <v>336</v>
       </c>
       <c r="C113" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>338</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="4" t="s">
         <v>339</v>
       </c>
       <c r="C114" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
-      <c r="A115" t="s">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="2" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>344</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="4" t="s">
         <v>345</v>
       </c>
       <c r="C116" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>347</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="4" t="s">
         <v>348</v>
       </c>
       <c r="C117" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>350</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="4" t="s">
         <v>351</v>
       </c>
       <c r="C118" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
-      <c r="A119" t="s">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C119" s="2" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>356</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="4" t="s">
         <v>357</v>
       </c>
       <c r="C120" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>359</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="4" t="s">
         <v>360</v>
       </c>
       <c r="C121" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>362</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="4" t="s">
         <v>363</v>
       </c>
       <c r="C122" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>365</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="4" t="s">
         <v>366</v>
       </c>
       <c r="C123" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>368</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="4" t="s">
         <v>369</v>
       </c>
       <c r="C124" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>371</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="4" t="s">
         <v>372</v>
       </c>
       <c r="C125" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>374</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="4" t="s">
         <v>375</v>
       </c>
       <c r="C126" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>377</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="4" t="s">
         <v>378</v>
       </c>
       <c r="C127" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>380</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="4" t="s">
         <v>381</v>
       </c>
       <c r="C128" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>383</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="4" t="s">
         <v>384</v>
       </c>
       <c r="C129" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>386</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="4" t="s">
         <v>387</v>
       </c>
       <c r="C130" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>389</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="4" t="s">
         <v>390</v>
       </c>
       <c r="C131" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>392</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="4" t="s">
         <v>393</v>
       </c>
       <c r="C132" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>395</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="4" t="s">
         <v>396</v>
       </c>
       <c r="C133" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>398</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="4" t="s">
         <v>399</v>
       </c>
       <c r="C134" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>401</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="4" t="s">
         <v>402</v>
       </c>
       <c r="C135" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>404</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="4" t="s">
         <v>405</v>
       </c>
       <c r="C136" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
-      <c r="A137" t="s">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C137" s="2" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>410</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" s="4" t="s">
         <v>411</v>
       </c>
       <c r="C138" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
-      <c r="A139" t="s">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C139" s="2" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
-      <c r="A140" t="s">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C140" s="2" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>419</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="4" t="s">
         <v>420</v>
       </c>
       <c r="C141" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>422</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="4" t="s">
         <v>423</v>
       </c>
       <c r="C142" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
-      <c r="A143" t="s">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C143" s="2" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>428</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144" s="4" t="s">
         <v>429</v>
       </c>
       <c r="C144" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>431</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145" s="4" t="s">
         <v>432</v>
       </c>
       <c r="C145" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>434</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" s="4" t="s">
         <v>435</v>
       </c>
       <c r="C146" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>437</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" s="4" t="s">
         <v>438</v>
       </c>
       <c r="C147" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>440</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B148" s="4" t="s">
         <v>441</v>
       </c>
       <c r="C148" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>443</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149" s="4" t="s">
         <v>444</v>
       </c>
       <c r="C149" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>446</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150" s="4" t="s">
         <v>447</v>
       </c>
       <c r="C150" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>449</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151" s="4" t="s">
         <v>450</v>
       </c>
       <c r="C151" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
-      <c r="A152" t="s">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B152" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C152" s="2" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>455</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B153" s="4" t="s">
         <v>456</v>
       </c>
       <c r="C153" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
-      <c r="A154" t="s">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B154" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C154" s="2" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>461</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B155" s="4" t="s">
         <v>462</v>
       </c>
       <c r="C155" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>464</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B156" s="4" t="s">
         <v>465</v>
       </c>
       <c r="C156" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>467</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B157" s="4" t="s">
         <v>468</v>
       </c>
       <c r="C157" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>470</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B158" s="4" t="s">
         <v>471</v>
       </c>
       <c r="C158" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>473</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B159" s="4" t="s">
         <v>474</v>
       </c>
       <c r="C159" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>476</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B160" s="4" t="s">
         <v>477</v>
       </c>
       <c r="C160" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>479</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B161" s="4" t="s">
         <v>480</v>
       </c>
       <c r="C161" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>482</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B162" s="4" t="s">
         <v>483</v>
       </c>
       <c r="C162" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>485</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B163" s="4" t="s">
         <v>486</v>
       </c>
       <c r="C163" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>488</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B164" s="4" t="s">
         <v>489</v>
       </c>
       <c r="C164" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>491</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B165" s="4" t="s">
         <v>492</v>
       </c>
       <c r="C165" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>494</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B166" s="4" t="s">
         <v>495</v>
       </c>
       <c r="C166" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
-      <c r="A167" t="s">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B167" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C167" s="2" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>500</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B168" s="4" t="s">
         <v>501</v>
       </c>
       <c r="C168" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>503</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B169" s="4" t="s">
         <v>504</v>
       </c>
       <c r="C169" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
-      <c r="A170" t="s">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B170" s="4" t="s">
         <v>507</v>
       </c>
-      <c r="C170" t="s">
+      <c r="C170" s="2" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>509</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B171" s="4" t="s">
         <v>510</v>
       </c>
       <c r="C171" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>512</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B172" s="4" t="s">
         <v>513</v>
       </c>
       <c r="C172" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>515</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B173" s="4" t="s">
         <v>516</v>
       </c>
       <c r="C173" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>518</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B174" s="4" t="s">
         <v>519</v>
       </c>
       <c r="C174" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
-      <c r="A175" t="s">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B175" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="C175" t="s">
+      <c r="C175" s="2" t="s">
         <v>523</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C175" xr:uid="{DF93177F-7377-4FE4-8F56-9FD585306A7E}"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/couplet/result-test.xlsx
+++ b/couplet/result-test.xlsx
@@ -1,23 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\git_pros\CoupletAI\couplet\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0868FDF2-F72E-480F-B4B6-087E4F99EF5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28245" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$175</definedName>
-  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -1600,8 +1591,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1618,13 +1615,158 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1633,12 +1775,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1661,32 +1983,313 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1971,1953 +2574,1947 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="B145" sqref="B145"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="41.26953125" customWidth="1"/>
-    <col min="2" max="2" width="43.7265625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="33.6328125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" t="s">
         <v>16</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" t="s">
         <v>19</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" t="s">
         <v>25</v>
       </c>
       <c r="C9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" t="s">
         <v>28</v>
       </c>
       <c r="C10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" t="s">
         <v>34</v>
       </c>
       <c r="C12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" t="s">
         <v>40</v>
       </c>
       <c r="C14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" t="s">
         <v>43</v>
       </c>
       <c r="C15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" t="s">
         <v>48</v>
       </c>
       <c r="C17" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" t="s">
         <v>57</v>
       </c>
       <c r="C20" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" t="s">
         <v>60</v>
       </c>
       <c r="C21" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" t="s">
         <v>63</v>
       </c>
       <c r="C22" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>65</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" t="s">
         <v>66</v>
       </c>
       <c r="C23" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>71</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" t="s">
         <v>72</v>
       </c>
       <c r="C25" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>74</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" t="s">
         <v>75</v>
       </c>
       <c r="C26" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
         <v>77</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>80</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" t="s">
         <v>81</v>
       </c>
       <c r="C28" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
         <v>83</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
         <v>86</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" t="s">
         <v>87</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
         <v>89</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" t="s">
         <v>90</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
         <v>92</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" t="s">
         <v>93</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>95</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" t="s">
         <v>96</v>
       </c>
       <c r="C33" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>98</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" t="s">
         <v>99</v>
       </c>
       <c r="C34" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>101</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" t="s">
         <v>102</v>
       </c>
       <c r="C35" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>104</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" t="s">
         <v>105</v>
       </c>
       <c r="C36" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>107</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" t="s">
         <v>108</v>
       </c>
       <c r="C37" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>110</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" t="s">
         <v>111</v>
       </c>
       <c r="C38" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
         <v>113</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" t="s">
         <v>114</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
         <v>116</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" t="s">
         <v>117</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>119</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" t="s">
         <v>120</v>
       </c>
       <c r="C41" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>122</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" t="s">
         <v>123</v>
       </c>
       <c r="C42" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>125</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" t="s">
         <v>126</v>
       </c>
       <c r="C43" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
         <v>128</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" t="s">
         <v>129</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>131</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" t="s">
         <v>132</v>
       </c>
       <c r="C45" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>134</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" t="s">
         <v>135</v>
       </c>
       <c r="C46" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>137</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" t="s">
         <v>138</v>
       </c>
       <c r="C47" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>140</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" t="s">
         <v>141</v>
       </c>
       <c r="C48" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>143</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" t="s">
         <v>144</v>
       </c>
       <c r="C49" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>146</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" t="s">
         <v>147</v>
       </c>
       <c r="C50" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>149</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" t="s">
         <v>150</v>
       </c>
       <c r="C51" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>152</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" t="s">
         <v>153</v>
       </c>
       <c r="C52" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
         <v>155</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" t="s">
         <v>156</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
         <v>158</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" t="s">
         <v>159</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>161</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" t="s">
         <v>162</v>
       </c>
       <c r="C55" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
         <v>164</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" t="s">
         <v>165</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
         <v>167</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" t="s">
         <v>168</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
         <v>170</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" t="s">
         <v>171</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>173</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" t="s">
         <v>174</v>
       </c>
       <c r="C59" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
         <v>176</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" t="s">
         <v>177</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
         <v>179</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" t="s">
         <v>180</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>182</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" t="s">
         <v>183</v>
       </c>
       <c r="C62" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
         <v>185</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" t="s">
         <v>186</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
         <v>188</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" t="s">
         <v>189</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>191</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" t="s">
         <v>192</v>
       </c>
       <c r="C65" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
         <v>194</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" t="s">
         <v>195</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
         <v>197</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" t="s">
         <v>198</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
         <v>200</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" t="s">
         <v>201</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>203</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" t="s">
         <v>204</v>
       </c>
       <c r="C69" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
         <v>206</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" t="s">
         <v>207</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
         <v>209</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" t="s">
         <v>210</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
         <v>212</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B72" t="s">
         <v>213</v>
       </c>
       <c r="C72" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
         <v>215</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B73" t="s">
         <v>216</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
         <v>218</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B74" t="s">
         <v>219</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
         <v>221</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B75" t="s">
         <v>222</v>
       </c>
       <c r="C75" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>224</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B76" t="s">
         <v>225</v>
       </c>
       <c r="C76" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>227</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B77" t="s">
         <v>228</v>
       </c>
       <c r="C77" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
         <v>230</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B78" t="s">
         <v>231</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
         <v>233</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B79" t="s">
         <v>234</v>
       </c>
       <c r="C79" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
         <v>236</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B80" t="s">
         <v>237</v>
       </c>
       <c r="C80" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
         <v>239</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B81" t="s">
         <v>240</v>
       </c>
       <c r="C81" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
         <v>242</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B82" t="s">
         <v>243</v>
       </c>
       <c r="C82" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
         <v>245</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B83" t="s">
         <v>246</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
         <v>248</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B84" t="s">
         <v>249</v>
       </c>
       <c r="C84" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
         <v>251</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B85" t="s">
         <v>252</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
         <v>254</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B86" t="s">
         <v>255</v>
       </c>
       <c r="C86" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
         <v>257</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B87" t="s">
         <v>258</v>
       </c>
       <c r="C87" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
         <v>260</v>
       </c>
-      <c r="B88" s="4" t="s">
+      <c r="B88" t="s">
         <v>261</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C88" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
         <v>263</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="B89" t="s">
         <v>264</v>
       </c>
       <c r="C89" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
         <v>266</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="B90" t="s">
         <v>267</v>
       </c>
       <c r="C90" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
         <v>269</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="B91" t="s">
         <v>270</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C91" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
         <v>272</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="B92" t="s">
         <v>273</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C92" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
         <v>275</v>
       </c>
-      <c r="B93" s="4" t="s">
+      <c r="B93" t="s">
         <v>276</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C93" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3">
       <c r="A94" t="s">
         <v>278</v>
       </c>
-      <c r="B94" s="4" t="s">
+      <c r="B94" t="s">
         <v>279</v>
       </c>
       <c r="C94" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
         <v>281</v>
       </c>
-      <c r="B95" s="4" t="s">
+      <c r="B95" t="s">
         <v>282</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C95" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
         <v>284</v>
       </c>
-      <c r="B96" s="4" t="s">
+      <c r="B96" t="s">
         <v>285</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C96" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3">
       <c r="A97" t="s">
         <v>287</v>
       </c>
-      <c r="B97" s="4" t="s">
+      <c r="B97" t="s">
         <v>288</v>
       </c>
       <c r="C97" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
         <v>290</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="B98" t="s">
         <v>291</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C98" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3">
       <c r="A99" t="s">
         <v>293</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="B99" t="s">
         <v>294</v>
       </c>
       <c r="C99" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3">
       <c r="A100" t="s">
         <v>296</v>
       </c>
-      <c r="B100" s="4" t="s">
+      <c r="B100" t="s">
         <v>297</v>
       </c>
       <c r="C100" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
         <v>299</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="B101" t="s">
         <v>300</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C101" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
         <v>302</v>
       </c>
-      <c r="B102" s="4" t="s">
+      <c r="B102" t="s">
         <v>303</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C102" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3">
       <c r="A103" t="s">
         <v>305</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="B103" t="s">
         <v>306</v>
       </c>
       <c r="C103" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3">
       <c r="A104" t="s">
         <v>308</v>
       </c>
-      <c r="B104" s="4" t="s">
+      <c r="B104" t="s">
         <v>309</v>
       </c>
       <c r="C104" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3">
       <c r="A105" t="s">
         <v>311</v>
       </c>
-      <c r="B105" s="4" t="s">
+      <c r="B105" t="s">
         <v>312</v>
       </c>
       <c r="C105" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3">
       <c r="A106" t="s">
         <v>314</v>
       </c>
-      <c r="B106" s="4" t="s">
+      <c r="B106" t="s">
         <v>315</v>
       </c>
       <c r="C106" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3">
       <c r="A107" t="s">
         <v>317</v>
       </c>
-      <c r="B107" s="4" t="s">
+      <c r="B107" t="s">
         <v>318</v>
       </c>
       <c r="C107" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
         <v>320</v>
       </c>
-      <c r="B108" s="4" t="s">
+      <c r="B108" t="s">
         <v>321</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="C108" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3">
       <c r="A109" t="s">
         <v>323</v>
       </c>
-      <c r="B109" s="4" t="s">
+      <c r="B109" t="s">
         <v>324</v>
       </c>
       <c r="C109" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3">
       <c r="A110" t="s">
         <v>326</v>
       </c>
-      <c r="B110" s="4" t="s">
+      <c r="B110" t="s">
         <v>327</v>
       </c>
       <c r="C110" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
         <v>329</v>
       </c>
-      <c r="B111" s="4" t="s">
+      <c r="B111" t="s">
         <v>330</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="C111" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
         <v>332</v>
       </c>
-      <c r="B112" s="4" t="s">
+      <c r="B112" t="s">
         <v>333</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="C112" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3">
       <c r="A113" t="s">
         <v>335</v>
       </c>
-      <c r="B113" s="4" t="s">
+      <c r="B113" t="s">
         <v>336</v>
       </c>
       <c r="C113" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3">
       <c r="A114" t="s">
         <v>338</v>
       </c>
-      <c r="B114" s="4" t="s">
+      <c r="B114" t="s">
         <v>339</v>
       </c>
       <c r="C114" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
+    <row r="115" spans="1:3">
+      <c r="A115" t="s">
         <v>341</v>
       </c>
-      <c r="B115" s="4" t="s">
+      <c r="B115" t="s">
         <v>342</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="C115" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3">
       <c r="A116" t="s">
         <v>344</v>
       </c>
-      <c r="B116" s="4" t="s">
+      <c r="B116" t="s">
         <v>345</v>
       </c>
       <c r="C116" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3">
       <c r="A117" t="s">
         <v>347</v>
       </c>
-      <c r="B117" s="4" t="s">
+      <c r="B117" t="s">
         <v>348</v>
       </c>
       <c r="C117" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3">
       <c r="A118" t="s">
         <v>350</v>
       </c>
-      <c r="B118" s="4" t="s">
+      <c r="B118" t="s">
         <v>351</v>
       </c>
       <c r="C118" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
+    <row r="119" spans="1:3">
+      <c r="A119" t="s">
         <v>353</v>
       </c>
-      <c r="B119" s="4" t="s">
+      <c r="B119" t="s">
         <v>354</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="C119" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3">
       <c r="A120" t="s">
         <v>356</v>
       </c>
-      <c r="B120" s="4" t="s">
+      <c r="B120" t="s">
         <v>357</v>
       </c>
       <c r="C120" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3">
       <c r="A121" t="s">
         <v>359</v>
       </c>
-      <c r="B121" s="4" t="s">
+      <c r="B121" t="s">
         <v>360</v>
       </c>
       <c r="C121" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3">
       <c r="A122" t="s">
         <v>362</v>
       </c>
-      <c r="B122" s="4" t="s">
+      <c r="B122" t="s">
         <v>363</v>
       </c>
       <c r="C122" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3">
       <c r="A123" t="s">
         <v>365</v>
       </c>
-      <c r="B123" s="4" t="s">
+      <c r="B123" t="s">
         <v>366</v>
       </c>
       <c r="C123" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3">
       <c r="A124" t="s">
         <v>368</v>
       </c>
-      <c r="B124" s="4" t="s">
+      <c r="B124" t="s">
         <v>369</v>
       </c>
       <c r="C124" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3">
       <c r="A125" t="s">
         <v>371</v>
       </c>
-      <c r="B125" s="4" t="s">
+      <c r="B125" t="s">
         <v>372</v>
       </c>
       <c r="C125" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3">
       <c r="A126" t="s">
         <v>374</v>
       </c>
-      <c r="B126" s="4" t="s">
+      <c r="B126" t="s">
         <v>375</v>
       </c>
       <c r="C126" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3">
       <c r="A127" t="s">
         <v>377</v>
       </c>
-      <c r="B127" s="4" t="s">
+      <c r="B127" t="s">
         <v>378</v>
       </c>
       <c r="C127" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3">
       <c r="A128" t="s">
         <v>380</v>
       </c>
-      <c r="B128" s="4" t="s">
+      <c r="B128" t="s">
         <v>381</v>
       </c>
       <c r="C128" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3">
       <c r="A129" t="s">
         <v>383</v>
       </c>
-      <c r="B129" s="4" t="s">
+      <c r="B129" t="s">
         <v>384</v>
       </c>
       <c r="C129" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3">
       <c r="A130" t="s">
         <v>386</v>
       </c>
-      <c r="B130" s="4" t="s">
+      <c r="B130" t="s">
         <v>387</v>
       </c>
       <c r="C130" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3">
       <c r="A131" t="s">
         <v>389</v>
       </c>
-      <c r="B131" s="4" t="s">
+      <c r="B131" t="s">
         <v>390</v>
       </c>
       <c r="C131" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3">
       <c r="A132" t="s">
         <v>392</v>
       </c>
-      <c r="B132" s="4" t="s">
+      <c r="B132" t="s">
         <v>393</v>
       </c>
       <c r="C132" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3">
       <c r="A133" t="s">
         <v>395</v>
       </c>
-      <c r="B133" s="4" t="s">
+      <c r="B133" t="s">
         <v>396</v>
       </c>
       <c r="C133" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3">
       <c r="A134" t="s">
         <v>398</v>
       </c>
-      <c r="B134" s="4" t="s">
+      <c r="B134" t="s">
         <v>399</v>
       </c>
       <c r="C134" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3">
       <c r="A135" t="s">
         <v>401</v>
       </c>
-      <c r="B135" s="4" t="s">
+      <c r="B135" t="s">
         <v>402</v>
       </c>
       <c r="C135" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3">
       <c r="A136" t="s">
         <v>404</v>
       </c>
-      <c r="B136" s="4" t="s">
+      <c r="B136" t="s">
         <v>405</v>
       </c>
       <c r="C136" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="2" t="s">
+    <row r="137" spans="1:3">
+      <c r="A137" t="s">
         <v>407</v>
       </c>
-      <c r="B137" s="4" t="s">
+      <c r="B137" t="s">
         <v>408</v>
       </c>
-      <c r="C137" s="2" t="s">
+      <c r="C137" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3">
       <c r="A138" t="s">
         <v>410</v>
       </c>
-      <c r="B138" s="4" t="s">
+      <c r="B138" t="s">
         <v>411</v>
       </c>
       <c r="C138" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="2" t="s">
+    <row r="139" spans="1:3">
+      <c r="A139" t="s">
         <v>413</v>
       </c>
-      <c r="B139" s="4" t="s">
+      <c r="B139" t="s">
         <v>414</v>
       </c>
-      <c r="C139" s="2" t="s">
+      <c r="C139" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="2" t="s">
+    <row r="140" spans="1:3">
+      <c r="A140" t="s">
         <v>416</v>
       </c>
-      <c r="B140" s="4" t="s">
+      <c r="B140" t="s">
         <v>417</v>
       </c>
-      <c r="C140" s="2" t="s">
+      <c r="C140" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3">
       <c r="A141" t="s">
         <v>419</v>
       </c>
-      <c r="B141" s="4" t="s">
+      <c r="B141" t="s">
         <v>420</v>
       </c>
       <c r="C141" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3">
       <c r="A142" t="s">
         <v>422</v>
       </c>
-      <c r="B142" s="4" t="s">
+      <c r="B142" t="s">
         <v>423</v>
       </c>
       <c r="C142" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="2" t="s">
+    <row r="143" spans="1:3">
+      <c r="A143" t="s">
         <v>425</v>
       </c>
-      <c r="B143" s="4" t="s">
+      <c r="B143" t="s">
         <v>426</v>
       </c>
-      <c r="C143" s="2" t="s">
+      <c r="C143" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3">
       <c r="A144" t="s">
         <v>428</v>
       </c>
-      <c r="B144" s="4" t="s">
+      <c r="B144" t="s">
         <v>429</v>
       </c>
       <c r="C144" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3">
       <c r="A145" t="s">
         <v>431</v>
       </c>
-      <c r="B145" s="4" t="s">
+      <c r="B145" t="s">
         <v>432</v>
       </c>
       <c r="C145" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3">
       <c r="A146" t="s">
         <v>434</v>
       </c>
-      <c r="B146" s="4" t="s">
+      <c r="B146" t="s">
         <v>435</v>
       </c>
       <c r="C146" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3">
       <c r="A147" t="s">
         <v>437</v>
       </c>
-      <c r="B147" s="4" t="s">
+      <c r="B147" t="s">
         <v>438</v>
       </c>
       <c r="C147" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3">
       <c r="A148" t="s">
         <v>440</v>
       </c>
-      <c r="B148" s="4" t="s">
+      <c r="B148" t="s">
         <v>441</v>
       </c>
       <c r="C148" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3">
       <c r="A149" t="s">
         <v>443</v>
       </c>
-      <c r="B149" s="4" t="s">
+      <c r="B149" t="s">
         <v>444</v>
       </c>
       <c r="C149" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3">
       <c r="A150" t="s">
         <v>446</v>
       </c>
-      <c r="B150" s="4" t="s">
+      <c r="B150" t="s">
         <v>447</v>
       </c>
       <c r="C150" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3">
       <c r="A151" t="s">
         <v>449</v>
       </c>
-      <c r="B151" s="4" t="s">
+      <c r="B151" t="s">
         <v>450</v>
       </c>
       <c r="C151" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="2" t="s">
+    <row r="152" spans="1:3">
+      <c r="A152" t="s">
         <v>452</v>
       </c>
-      <c r="B152" s="4" t="s">
+      <c r="B152" t="s">
         <v>453</v>
       </c>
-      <c r="C152" s="2" t="s">
+      <c r="C152" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3">
       <c r="A153" t="s">
         <v>455</v>
       </c>
-      <c r="B153" s="4" t="s">
+      <c r="B153" t="s">
         <v>456</v>
       </c>
       <c r="C153" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="2" t="s">
+    <row r="154" spans="1:3">
+      <c r="A154" t="s">
         <v>458</v>
       </c>
-      <c r="B154" s="4" t="s">
+      <c r="B154" t="s">
         <v>459</v>
       </c>
-      <c r="C154" s="2" t="s">
+      <c r="C154" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3">
       <c r="A155" t="s">
         <v>461</v>
       </c>
-      <c r="B155" s="4" t="s">
+      <c r="B155" t="s">
         <v>462</v>
       </c>
       <c r="C155" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3">
       <c r="A156" t="s">
         <v>464</v>
       </c>
-      <c r="B156" s="4" t="s">
+      <c r="B156" t="s">
         <v>465</v>
       </c>
       <c r="C156" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3">
       <c r="A157" t="s">
         <v>467</v>
       </c>
-      <c r="B157" s="4" t="s">
+      <c r="B157" t="s">
         <v>468</v>
       </c>
       <c r="C157" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3">
       <c r="A158" t="s">
         <v>470</v>
       </c>
-      <c r="B158" s="4" t="s">
+      <c r="B158" t="s">
         <v>471</v>
       </c>
       <c r="C158" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3">
       <c r="A159" t="s">
         <v>473</v>
       </c>
-      <c r="B159" s="4" t="s">
+      <c r="B159" t="s">
         <v>474</v>
       </c>
       <c r="C159" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3">
       <c r="A160" t="s">
         <v>476</v>
       </c>
-      <c r="B160" s="4" t="s">
+      <c r="B160" t="s">
         <v>477</v>
       </c>
       <c r="C160" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3">
       <c r="A161" t="s">
         <v>479</v>
       </c>
-      <c r="B161" s="4" t="s">
+      <c r="B161" t="s">
         <v>480</v>
       </c>
       <c r="C161" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3">
       <c r="A162" t="s">
         <v>482</v>
       </c>
-      <c r="B162" s="4" t="s">
+      <c r="B162" t="s">
         <v>483</v>
       </c>
       <c r="C162" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3">
       <c r="A163" t="s">
         <v>485</v>
       </c>
-      <c r="B163" s="4" t="s">
+      <c r="B163" t="s">
         <v>486</v>
       </c>
       <c r="C163" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3">
       <c r="A164" t="s">
         <v>488</v>
       </c>
-      <c r="B164" s="4" t="s">
+      <c r="B164" t="s">
         <v>489</v>
       </c>
       <c r="C164" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3">
       <c r="A165" t="s">
         <v>491</v>
       </c>
-      <c r="B165" s="4" t="s">
+      <c r="B165" t="s">
         <v>492</v>
       </c>
       <c r="C165" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3">
       <c r="A166" t="s">
         <v>494</v>
       </c>
-      <c r="B166" s="4" t="s">
+      <c r="B166" t="s">
         <v>495</v>
       </c>
       <c r="C166" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" s="2" t="s">
+    <row r="167" spans="1:3">
+      <c r="A167" t="s">
         <v>497</v>
       </c>
-      <c r="B167" s="4" t="s">
+      <c r="B167" t="s">
         <v>498</v>
       </c>
-      <c r="C167" s="2" t="s">
+      <c r="C167" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3">
       <c r="A168" t="s">
         <v>500</v>
       </c>
-      <c r="B168" s="4" t="s">
+      <c r="B168" t="s">
         <v>501</v>
       </c>
       <c r="C168" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3">
       <c r="A169" t="s">
         <v>503</v>
       </c>
-      <c r="B169" s="4" t="s">
+      <c r="B169" t="s">
         <v>504</v>
       </c>
       <c r="C169" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" s="2" t="s">
+    <row r="170" spans="1:3">
+      <c r="A170" t="s">
         <v>506</v>
       </c>
-      <c r="B170" s="4" t="s">
+      <c r="B170" t="s">
         <v>507</v>
       </c>
-      <c r="C170" s="2" t="s">
+      <c r="C170" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3">
       <c r="A171" t="s">
         <v>509</v>
       </c>
-      <c r="B171" s="4" t="s">
+      <c r="B171" t="s">
         <v>510</v>
       </c>
       <c r="C171" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3">
       <c r="A172" t="s">
         <v>512</v>
       </c>
-      <c r="B172" s="4" t="s">
+      <c r="B172" t="s">
         <v>513</v>
       </c>
       <c r="C172" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3">
       <c r="A173" t="s">
         <v>515</v>
       </c>
-      <c r="B173" s="4" t="s">
+      <c r="B173" t="s">
         <v>516</v>
       </c>
       <c r="C173" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3">
       <c r="A174" t="s">
         <v>518</v>
       </c>
-      <c r="B174" s="4" t="s">
+      <c r="B174" t="s">
         <v>519</v>
       </c>
       <c r="C174" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175" s="2" t="s">
+    <row r="175" spans="1:3">
+      <c r="A175" t="s">
         <v>521</v>
       </c>
-      <c r="B175" s="4" t="s">
+      <c r="B175" t="s">
         <v>522</v>
       </c>
-      <c r="C175" s="2" t="s">
+      <c r="C175" t="s">
         <v>523</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C175" xr:uid="{DF93177F-7377-4FE4-8F56-9FD585306A7E}"/>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/couplet/result-test.xlsx
+++ b/couplet/result-test.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E175"/>
+  <dimension ref="A1:F175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -392,6 +392,11 @@
           <t>transformer</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>transformer_beam</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -416,7 +421,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>几树秋风月色明</t>
+          <t>万里云山朝北望</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>两岸桃花朝北放</t>
         </is>
       </c>
     </row>
@@ -443,7 +453,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>风来柳岸燕归来</t>
+          <t>清风明月夜来乎</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>清风明月夜来兮</t>
         </is>
       </c>
     </row>
@@ -470,7 +485,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>心如无欲有清心</t>
+          <t>飞白何曾有意人</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>飞白何曾有意人</t>
         </is>
       </c>
     </row>
@@ -497,7 +517,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>风吹柳絮乱飞花</t>
+          <t>窗望长风送故人</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>窗望长风送故人</t>
         </is>
       </c>
     </row>
@@ -524,7 +549,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>人生无所愿，不知世上难</t>
+          <t>天地几何人？尽随风雨里</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>天地几多情？只为</t>
         </is>
       </c>
     </row>
@@ -551,7 +581,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>春来花气自无情</t>
+          <t>踏雪寻梅不知春</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>踏雪寻梅能无处</t>
         </is>
       </c>
     </row>
@@ -578,7 +613,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>人心一片，一片冰心在玉壶</t>
+          <t>小二人间，诸葛飞去不回头</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>小二人间，小桥流去不开</t>
         </is>
       </c>
     </row>
@@ -605,7 +645,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>不因风雨不沾尘</t>
+          <t>看菩萨即是真如</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>观菩萨即是真如</t>
         </is>
       </c>
     </row>
@@ -632,7 +677,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>天下无私，心里无私少小心</t>
+          <t>小心放胆，不知世上几何愁</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>小心放胆，但求天下几多情</t>
         </is>
       </c>
     </row>
@@ -659,7 +709,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>两行联句对联联</t>
+          <t>半生心底蕴乾坤</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>半壶酒里醉乾坤</t>
         </is>
       </c>
     </row>
@@ -686,7 +741,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>无非无奈，不必无求</t>
+          <t>千秋百代，实在其中</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>千秋百代，自有余香</t>
         </is>
       </c>
     </row>
@@ -713,7 +773,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>山上云开月下花</t>
+          <t>风从云外悟来闲</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>风从云外悟来真</t>
         </is>
       </c>
     </row>
@@ -740,7 +805,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>杨柳枝头燕子矶</t>
+          <t>绿豆绿豆绿豆芽</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>绿豆绿豆绿豆芽</t>
         </is>
       </c>
     </row>
@@ -767,7 +837,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>人民共建好家园</t>
+          <t>江山共仰有灵踪</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>江山共仰有灵踪</t>
         </is>
       </c>
     </row>
@@ -794,7 +869,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>一帘春色入诗中</t>
+          <t>一轮明月自南来</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>一轮明月自南来</t>
         </is>
       </c>
     </row>
@@ -821,7 +901,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>人人不见人</t>
+          <t>年年遇故人</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>年年遇故知</t>
         </is>
       </c>
     </row>
@@ -848,7 +933,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>一日东风入画廊</t>
+          <t>一千里去访仙人</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>九万里去访仙人</t>
         </is>
       </c>
     </row>
@@ -875,7 +965,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>月下三分明月明</t>
+          <t>月下三分醉酒诗</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>月下千竿钓水天</t>
         </is>
       </c>
     </row>
@@ -902,7 +997,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>大道自无穷</t>
+          <t>大道岂能行</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>大道岂能行</t>
         </is>
       </c>
     </row>
@@ -929,7 +1029,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>东来西去不回头</t>
+          <t>东升西落莫迟迟</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>东升西落自然然</t>
         </is>
       </c>
     </row>
@@ -956,7 +1061,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>月色无非寂寞人</t>
+          <t>知己无非怨夜郎</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>知己无非泣晚风</t>
         </is>
       </c>
     </row>
@@ -983,7 +1093,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>意如意气浓</t>
+          <t>我意如春风</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>我意如春风</t>
         </is>
       </c>
     </row>
@@ -1010,7 +1125,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>北海千帆北海潮</t>
+          <t>北海闲游万里春</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>北牖闲吟半亩诗</t>
         </is>
       </c>
     </row>
@@ -1037,7 +1157,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>一片冰心无私语，一片冰心玉骨，无愧无双</t>
+          <t>千山秋水无双树，东岭影斜西岭苍茫</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>满园秋色无数点，北岭</t>
         </is>
       </c>
     </row>
@@ -1064,7 +1189,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>人情不必不知愁</t>
+          <t>闲游明月自相思</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>闲斟明月自相思</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1221,12 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>花香鸟语幽</t>
+          <t>淡淡柳岸风</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>淡淡梅岭山</t>
         </is>
       </c>
     </row>
@@ -1118,7 +1253,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>花开两岸春</t>
+          <t>处处月半弯</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>处处月半弯</t>
         </is>
       </c>
     </row>
@@ -1145,7 +1285,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>南海纳东西</t>
+          <t>寻梅北岭南</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>寻梅北岭南</t>
         </is>
       </c>
     </row>
@@ -1172,7 +1317,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>山中水秀水中央</t>
+          <t>江边明月照重来</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>江边明月照重圆</t>
         </is>
       </c>
     </row>
@@ -1199,7 +1349,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>年年酒后香</t>
+          <t>春秋天下传</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>春秋天地新</t>
         </is>
       </c>
     </row>
@@ -1226,7 +1381,12 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>人生坎坷是非常</t>
+          <t>月缺月圆是佛心</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>月缺月圆是佛缘</t>
         </is>
       </c>
     </row>
@@ -1253,7 +1413,12 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>看今朝，看今日，看今朝再起，再展宏图</t>
+          <t>何时问月何须月？玉笛吹来江上渔歌</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>何时问月何须月？玉笛吟出</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1445,12 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>人为本，为民为本，为民为本，为国为民</t>
+          <t>我无言，一生以外清凉，不妨风雨无关情</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>我无言，千年以后</t>
         </is>
       </c>
     </row>
@@ -1307,7 +1477,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>新年新事新风新</t>
+          <t>不知小子有心难</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>不知小子有心难</t>
         </is>
       </c>
     </row>
@@ -1334,7 +1509,12 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>心如止水自然清</t>
+          <t>无非俗累无非俗</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>无非俗累无非尘</t>
         </is>
       </c>
     </row>
@@ -1361,7 +1541,12 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>一片冰心在玉壶</t>
+          <t>一声欸乃不惊飞</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>万家灯火欲燃烧</t>
         </is>
       </c>
     </row>
@@ -1388,7 +1573,12 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>一朝风雨雨无声，更有情怀故人</t>
+          <t>风和日暖鸟能鸣，一径空余云淡浮云</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>风和日丽鸟能鸣，百鸟尽</t>
         </is>
       </c>
     </row>
@@ -1415,7 +1605,12 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>一帘绿柳绿成荫</t>
+          <t>一帘幽梦随风白</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>一帘幽梦随风白</t>
         </is>
       </c>
     </row>
@@ -1442,7 +1637,12 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>花如春雨润如花</t>
+          <t>花溪流水面如云</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>花溪流水面如花</t>
         </is>
       </c>
     </row>
@@ -1469,7 +1669,12 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>人间有意有余香</t>
+          <t>春深意淡有余情</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>春深意淡有余香</t>
         </is>
       </c>
     </row>
@@ -1496,7 +1701,12 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>水面芙蓉出水花</t>
+          <t>水面佛门悬佛灯</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>水面佛灯照佛门</t>
         </is>
       </c>
     </row>
@@ -1523,7 +1733,12 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>闲斟浊酒醉清风</t>
+          <t>陋室悠悠闲我心</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>陋室悠悠清我心</t>
         </is>
       </c>
     </row>
@@ -1550,7 +1765,12 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>一身正是可修身</t>
+          <t>一点清凉始是禅</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>万物峥嵘总是春</t>
         </is>
       </c>
     </row>
@@ -1577,7 +1797,12 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>后生不死不能言</t>
+          <t>回头不必不知年</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>回头何必又逢时</t>
         </is>
       </c>
     </row>
@@ -1604,7 +1829,12 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>不知世上有高低</t>
+          <t>俯首甘为山上人</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>俯首甘为天下人</t>
         </is>
       </c>
     </row>
@@ -1631,7 +1861,12 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>心中无愧水云闲</t>
+          <t>心中难忘我为邻</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>心中只觉月为邻</t>
         </is>
       </c>
     </row>
@@ -1658,7 +1893,12 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>无情无意自然生</t>
+          <t>无聊未必待时多</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>无情难免到天涯</t>
         </is>
       </c>
     </row>
@@ -1685,7 +1925,12 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>对月吟诗醉酒歌</t>
+          <t>醉卧渔翁钓月舟</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>醉卧渔翁钓月钩</t>
         </is>
       </c>
     </row>
@@ -1712,7 +1957,12 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>地震人间万里春</t>
+          <t>月下花前一品香</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>月下花前独占鳌</t>
         </is>
       </c>
     </row>
@@ -1739,7 +1989,12 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>一片冰心在玉壶</t>
+          <t>一万年华尽曙光</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>十二楼台尽月光</t>
         </is>
       </c>
     </row>
@@ -1766,7 +2021,12 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>雨润万山青</t>
+          <t>日月一轮秋</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>日月九重天</t>
         </is>
       </c>
     </row>
@@ -1793,7 +2053,12 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>羊毫东海迎春</t>
+          <t>黄牛北海江南</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>黄牛北海江南</t>
         </is>
       </c>
     </row>
@@ -1820,7 +2085,12 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>不知世上是非人</t>
+          <t>窗外常思不见人</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>窗下常思独立人</t>
         </is>
       </c>
     </row>
@@ -1847,7 +2117,12 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>南北以南北北极，北京北极，北极星辰</t>
+          <t>南海观，北海观，观观海岳而观</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>南海观，北海观</t>
         </is>
       </c>
     </row>
@@ -1874,7 +2149,12 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>雨润柳丝垂</t>
+          <t>柳絮随春潮</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>柳絮舞春光</t>
         </is>
       </c>
     </row>
@@ -1901,7 +2181,12 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>一生一梦醉三春</t>
+          <t>飞花遥看万千秋</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>飞花遥看万千秋</t>
         </is>
       </c>
     </row>
@@ -1928,7 +2213,12 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>风流不息，自然自有情来</t>
+          <t>浮云共渡，共千秋</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>浮名不朽，共千秋</t>
         </is>
       </c>
     </row>
@@ -1955,7 +2245,12 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>三江月色朦胧</t>
+          <t>半山半水半山</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>半山半水半山</t>
         </is>
       </c>
     </row>
@@ -1982,7 +2277,12 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>风和日丽，东风吹起舞东风</t>
+          <t>清风北至，烟霞染就古今愁</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>清风北至，云霞染出</t>
         </is>
       </c>
     </row>
@@ -2009,7 +2309,12 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>秋雨催开一片花</t>
+          <t>旭日东山第一楼</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>旭日东山第一峰</t>
         </is>
       </c>
     </row>
@@ -2036,7 +2341,12 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>以人为善，无以无为无为</t>
+          <t>焚香以去，只因月照花香</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>焚香以去，但凭佛</t>
         </is>
       </c>
     </row>
@@ -2063,7 +2373,12 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>春风无意暖千家</t>
+          <t>大漠无风过一关</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>大漠无烟锁一江</t>
         </is>
       </c>
     </row>
@@ -2090,7 +2405,12 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>天生地利，无欲无求</t>
+          <t>天生万象，无欲则刚</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>天生万象，无欲则刚</t>
         </is>
       </c>
     </row>
@@ -2117,7 +2437,12 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>不堪寂寞心无愧，何妨诗酒醉人</t>
+          <t>看得到心头日月，何须问此地问天涯</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>看得到心头日月，不妨问</t>
         </is>
       </c>
     </row>
@@ -2144,7 +2469,12 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>一身正气贯胸中</t>
+          <t>一身风月在胸中</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>一江风月入心头</t>
         </is>
       </c>
     </row>
@@ -2171,7 +2501,12 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>东风吹拂万山春</t>
+          <t>北来风雨一江春</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>东篱菊圃一枝秋</t>
         </is>
       </c>
     </row>
@@ -2198,7 +2533,12 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>花香鸟语醉花香</t>
+          <t>岭上梅花带雪香</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>岭上梅花带雪香</t>
         </is>
       </c>
     </row>
@@ -2225,7 +2565,12 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>心怀叵测，心事无忧</t>
+          <t>随意往来，痴心寄情</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>随意往来，痴心寄情</t>
         </is>
       </c>
     </row>
@@ -2252,7 +2597,12 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>风月无边万里霜</t>
+          <t>绿水无弦万古琴</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>绿水无弦万古琴</t>
         </is>
       </c>
     </row>
@@ -2279,7 +2629,12 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>水流花落月光明</t>
+          <t>月明风静醉诗情</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>月明星朗照诗情</t>
         </is>
       </c>
     </row>
@@ -2306,7 +2661,12 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>虎啸龙吟虎啸来</t>
+          <t>看黄鹤几个归来</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>看黄鹤几个归来</t>
         </is>
       </c>
     </row>
@@ -2333,7 +2693,12 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>风和日丽，千山秀水秀山青</t>
+          <t>临风把盏，一帘风月尽成诗</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>临风把盏，一帘风月尽成诗</t>
         </is>
       </c>
     </row>
@@ -2360,7 +2725,12 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>山花烂漫醉花荫</t>
+          <t>天地奇观有洞天</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>天地灵光入画图</t>
         </is>
       </c>
     </row>
@@ -2387,7 +2757,12 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>月色朦胧水色中</t>
+          <t>月光风影水中央</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>月光风影水中央</t>
         </is>
       </c>
     </row>
@@ -2414,7 +2789,12 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>风吹柳岸柳垂青</t>
+          <t>风来竹影翠竹声</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>风摇竹影翠竹声</t>
         </is>
       </c>
     </row>
@@ -2441,7 +2821,12 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>今朝古、今古人文</t>
+          <t>有余风月无余雅香</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>有余风月无余雅香</t>
         </is>
       </c>
     </row>
@@ -2468,7 +2853,12 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>风清气自清</t>
+          <t>观花月当头</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>观山云在肩</t>
         </is>
       </c>
     </row>
@@ -2495,7 +2885,12 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>明月无非是非常</t>
+          <t>水墨无痕不染尘</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>水墨无痕不染尘</t>
         </is>
       </c>
     </row>
@@ -2522,7 +2917,12 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>羊角挂春风</t>
+          <t>放下海边鱼</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>放下海边鱼</t>
         </is>
       </c>
     </row>
@@ -2549,7 +2949,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>有情有意，不堪不负人生</t>
+          <t>禅心有道，静中不觉无常</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>禅心有道，静中自见</t>
         </is>
       </c>
     </row>
@@ -2576,7 +2981,12 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>人间岁月酒中仙</t>
+          <t>胸中丘壑蕴峥嵘</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>胸中丘壑自峥嵘</t>
         </is>
       </c>
     </row>
@@ -2603,7 +3013,12 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>竹林竹叶青青</t>
+          <t>金戈铁马精神</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>金戈铁马精神</t>
         </is>
       </c>
     </row>
@@ -2630,7 +3045,12 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>明月清风不可追</t>
+          <t>明月清风不是非</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>明月清风独往来</t>
         </is>
       </c>
     </row>
@@ -2657,7 +3077,12 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>风中白雪红</t>
+          <t>花影一帘香</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>花影一帘香</t>
         </is>
       </c>
     </row>
@@ -2684,7 +3109,12 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>一帘柳絮醉春风</t>
+          <t>一帘月色入诗心</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>一轮明月入诗心</t>
         </is>
       </c>
     </row>
@@ -2711,7 +3141,12 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>花香入酒樽</t>
+          <t>闭户纳清风</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>闭户纳清风</t>
         </is>
       </c>
     </row>
@@ -2738,7 +3173,12 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>一缕清风入梦乡</t>
+          <t>常伴清风吟万年</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>常伴清风吟万篇</t>
         </is>
       </c>
     </row>
@@ -2765,7 +3205,12 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>一世界，一生，不负春秋</t>
+          <t>读成百万卷地，大智慧本是真经</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>读成百万卷地，古人</t>
         </is>
       </c>
     </row>
@@ -2792,7 +3237,12 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>不知世事不知情</t>
+          <t>人间不必是春秋</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>人间岂肯定乾坤</t>
         </is>
       </c>
     </row>
@@ -2819,7 +3269,12 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>人心一片地生金</t>
+          <t>挥毫一挥水云闲</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>挥毫一抹水云深</t>
         </is>
       </c>
     </row>
@@ -2846,7 +3301,12 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>春风暖人间</t>
+          <t>祥光耀乾坤</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>祥光耀乾坤</t>
         </is>
       </c>
     </row>
@@ -2873,7 +3333,12 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>无酒不知年</t>
+          <t>无水不吟诗</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>无处不春秋</t>
         </is>
       </c>
     </row>
@@ -2900,7 +3365,12 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>山有一枝鸟有声</t>
+          <t>山静云深鹤有声</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>山静云深鹤有声</t>
         </is>
       </c>
     </row>
@@ -2927,7 +3397,12 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>月圆三更，月色相思</t>
+          <t>对月三分，有客无言</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>对月三分，对酒当歌</t>
         </is>
       </c>
     </row>
@@ -2954,7 +3429,12 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>人无无意可为朋</t>
+          <t>明月无心不染尘</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>明月无心不染尘</t>
         </is>
       </c>
     </row>
@@ -2981,7 +3461,12 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>不觉春风似水流</t>
+          <t>有佳人去似临风</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>有佳人去似临江</t>
         </is>
       </c>
     </row>
@@ -3008,7 +3493,12 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>人自在人间</t>
+          <t>道在静中行</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>道在静中行</t>
         </is>
       </c>
     </row>
@@ -3035,7 +3525,12 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>为民为本，为国为民</t>
+          <t>为民为本，为本为根</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>为民为本，为本为根</t>
         </is>
       </c>
     </row>
@@ -3062,7 +3557,12 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>心事难为大丈夫</t>
+          <t>好事无妨任去留</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>好事须知理莫为</t>
         </is>
       </c>
     </row>
@@ -3089,7 +3589,12 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>风雨润花香</t>
+          <t>岁月壮胸襟</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>岁月壮胸襟</t>
         </is>
       </c>
     </row>
@@ -3116,7 +3621,12 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>风流柳岸一江春</t>
+          <t>妙笔生前一段情</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>妙笔生前一段情</t>
         </is>
       </c>
     </row>
@@ -3143,7 +3653,12 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>人间正道，道德为先</t>
+          <t>持久安康，保久安康</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>持久安康，保久安康</t>
         </is>
       </c>
     </row>
@@ -3170,7 +3685,12 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>人人不负武陵春</t>
+          <t>风雨来时岁月新</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>风雨来时岁月新</t>
         </is>
       </c>
     </row>
@@ -3197,7 +3717,12 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>一生缘</t>
+          <t>大文章在三字为师</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>大文章在四海为家</t>
         </is>
       </c>
     </row>
@@ -3224,7 +3749,12 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>无私无畏，不知风雨无痕</t>
+          <t>室无俗雅，兰舟竹影梅花</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>室无俗雅，梅花竹叶梅花</t>
         </is>
       </c>
     </row>
@@ -3251,7 +3781,12 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>心情难与月同圆</t>
+          <t>修身常与古人争</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>修身常与古人争</t>
         </is>
       </c>
     </row>
@@ -3278,7 +3813,12 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>一轮明月照禅心</t>
+          <t>一身风雨到心头</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>一江风月到心头</t>
         </is>
       </c>
     </row>
@@ -3305,7 +3845,12 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>人间正道，人间人</t>
+          <t>不负人间名士名人</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>不负人间富贵贵乎</t>
         </is>
       </c>
     </row>
@@ -3332,7 +3877,12 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>无私无畏惧，无畏无私</t>
+          <t>愧无一颗心，不负良辰</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>愧无一颗心，不昧良言</t>
         </is>
       </c>
     </row>
@@ -3359,7 +3909,12 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>无须放胆做人民</t>
+          <t>难得春风送暖情</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>难得春风送暖风</t>
         </is>
       </c>
     </row>
@@ -3386,7 +3941,12 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>风吹柳岸风</t>
+          <t>雾笼岭上松</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>雾笼岭上松</t>
         </is>
       </c>
     </row>
@@ -3413,7 +3973,12 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>闲斟浊酒醉吟诗</t>
+          <t>逍遥野渡自逍遥</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>逍遥野渡自逍遥逍遥逍遥逍遥逍遥逍遥</t>
         </is>
       </c>
     </row>
@@ -3440,7 +4005,12 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>文章不朽我无为</t>
+          <t>老鬼当先老鬼先</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>老鬼当先老鬼出</t>
         </is>
       </c>
     </row>
@@ -3467,7 +4037,12 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>人间日月长</t>
+          <t>牛耕田间田</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>牛耕田间田</t>
         </is>
       </c>
     </row>
@@ -3494,7 +4069,12 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>山上云开见月明</t>
+          <t>仙踪石上觅鱼游</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>仙踪石上觅鱼游</t>
         </is>
       </c>
     </row>
@@ -3521,7 +4101,12 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>半夜风流红叶上，月下清凉</t>
+          <t>海上千层黄鹤影，月照迷人</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>海上无边明月色，雨洒</t>
         </is>
       </c>
     </row>
@@ -3548,7 +4133,12 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>文章两字值千金</t>
+          <t>沉浮万里系民生</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>沉浮万里镇乾坤</t>
         </is>
       </c>
     </row>
@@ -3575,7 +4165,12 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>花香满院满庭芳</t>
+          <t>半卷残云半卷诗</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>几缕清风几缕烟</t>
         </is>
       </c>
     </row>
@@ -3602,7 +4197,12 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>东海潮，西北海，东西南北，东西南北东西南北东西</t>
+          <t>吃苦吃甘吃苦菜，口如甘苦；</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>吃苦吃甘吃苦菜，味因甘苦；</t>
         </is>
       </c>
     </row>
@@ -3629,7 +4229,12 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>一心一片，一片冰心在玉壶中</t>
+          <t>东风万里，山中有月一轮回；</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>东风万里，人间遍地万万</t>
         </is>
       </c>
     </row>
@@ -3656,7 +4261,12 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>东风一路马蹄轻</t>
+          <t>春来西部暖千家</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>春来南国暖千家</t>
         </is>
       </c>
     </row>
@@ -3683,7 +4293,12 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>无欲则刚</t>
+          <t>无欲无求</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>无欲无求</t>
         </is>
       </c>
     </row>
@@ -3710,7 +4325,12 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>一生有幸有余生</t>
+          <t>寿有一年明日年</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>寿有余年明日年</t>
         </is>
       </c>
     </row>
@@ -3737,7 +4357,12 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>花香鸟语醉花香</t>
+          <t>玉簟秋池淡相香</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>玉簟秋池淡相宜</t>
         </is>
       </c>
     </row>
@@ -3764,7 +4389,12 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>人生有幸，何妨一笑不能言</t>
+          <t>清风明月，可怜天地梦难圆</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>清风明月，可怜天地梦难圆</t>
         </is>
       </c>
     </row>
@@ -3791,7 +4421,12 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>心无旁骛，无非无非不可欺</t>
+          <t>醉鬼迷人，不怕水云情不了</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>醉鬼迷人，何惧江山情</t>
         </is>
       </c>
     </row>
@@ -3818,7 +4453,12 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>清风明月是清心</t>
+          <t>人情淡泊尽文章</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>人情淡泊即文章</t>
         </is>
       </c>
     </row>
@@ -3845,7 +4485,12 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>月色朦胧白发生</t>
+          <t>春来柳叶绿如蓝</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>春来柳叶绿如茵</t>
         </is>
       </c>
     </row>
@@ -3872,7 +4517,12 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>新年再续新年年</t>
+          <t>新年再续一生缘</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>新年更上一层楼</t>
         </is>
       </c>
     </row>
@@ -3899,7 +4549,12 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>羊毫不可写春秋</t>
+          <t>不为人痴恋故人</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>不觉茶香醉美人</t>
         </is>
       </c>
     </row>
@@ -3926,7 +4581,12 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>不知酒以沽名</t>
+          <t>不能弹琴且听</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>不能弹琴且听</t>
         </is>
       </c>
     </row>
@@ -3953,7 +4613,12 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>人生不死，不知名利名家</t>
+          <t>柳絮飞扬，心绪犹存碧血</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>柳絮飘香，春色犹存</t>
         </is>
       </c>
     </row>
@@ -3980,7 +4645,12 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>花开月色明</t>
+          <t>鸟鸣树更幽</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>鸟鸣树更幽</t>
         </is>
       </c>
     </row>
@@ -4007,7 +4677,12 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>此地风云不老，不知何处？不知</t>
+          <t>何必随风入座？只为一世故人多</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>何必随风入座？何妨明月故人多</t>
         </is>
       </c>
     </row>
@@ -4034,7 +4709,12 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>天意有真情</t>
+          <t>世事有缘时</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>世事有缘时</t>
         </is>
       </c>
     </row>
@@ -4061,7 +4741,12 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>不知有意不知人</t>
+          <t>不得糊涂不用心</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>不染尘埃不染尘</t>
         </is>
       </c>
     </row>
@@ -4088,7 +4773,12 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>心中有意不须眉</t>
+          <t>不少清风不少情</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>不少清风不少尘</t>
         </is>
       </c>
     </row>
@@ -4115,7 +4805,12 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>风吹绿柳醉春心</t>
+          <t>月色盈眸入夜风</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>月色盈眸入夜霜</t>
         </is>
       </c>
     </row>
@@ -4142,7 +4837,12 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>月圆月缺月无眠</t>
+          <t>寻诗思去月初明</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>寻诗思去月初明</t>
         </is>
       </c>
     </row>
@@ -4169,7 +4869,12 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>不知明月有清心</t>
+          <t>不堪明月几时圆</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>不堪明月几时圆</t>
         </is>
       </c>
     </row>
@@ -4196,7 +4901,12 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>新词不必少新词</t>
+          <t>新诗细品更无香</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>新月闲谈不少年</t>
         </is>
       </c>
     </row>
@@ -4223,7 +4933,12 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>月下无情不似花</t>
+          <t>竹外清风不染尘</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>竹外清风不染尘</t>
         </is>
       </c>
     </row>
@@ -4250,7 +4965,12 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>笔下风流万里情</t>
+          <t>回头梦里一僧归</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>回头梦里一身轻</t>
         </is>
       </c>
     </row>
@@ -4277,7 +4997,12 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>新人新月新</t>
+          <t>新颖育新人</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>新颖育新人</t>
         </is>
       </c>
     </row>
@@ -4304,7 +5029,12 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>心中寂寞梦中人</t>
+          <t>风流不负世间情</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>风流不负世间人</t>
         </is>
       </c>
     </row>
@@ -4331,7 +5061,12 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>春风吹绿柳，春风又绿柳摇来</t>
+          <t>遗言传孟母，归来不负杜鹃声</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>遗言传孟母，吟来不负杜鹃</t>
         </is>
       </c>
     </row>
@@ -4358,7 +5093,12 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>一生无奈梦难圆</t>
+          <t>三千万里富无穷</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>三千万劫死难生</t>
         </is>
       </c>
     </row>
@@ -4385,7 +5125,12 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>是非是非是非非</t>
+          <t>人因致富不同贫</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>人因致富且和贫</t>
         </is>
       </c>
     </row>
@@ -4412,7 +5157,12 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>谁将明月寄君心</t>
+          <t>谁能明月照江湖</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>谁堪夜雨打芭蕉</t>
         </is>
       </c>
     </row>
@@ -4439,7 +5189,12 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>花香入室醉红颜</t>
+          <t>残红时动落花声</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>残红初绽落梅花</t>
         </is>
       </c>
     </row>
@@ -4466,7 +5221,12 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>不堪寂寞泪沾襟</t>
+          <t>风吹杨柳翠依然</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>风吹杨柳翠依稀</t>
         </is>
       </c>
     </row>
@@ -4493,7 +5253,12 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>风吹绿柳绿成荫</t>
+          <t>寻幽紫燕总迎春</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>寻幽紫燕早衔泥</t>
         </is>
       </c>
     </row>
@@ -4520,7 +5285,12 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>花心不染蝶花心</t>
+          <t>桃腮正映艳阳天</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>桃腮正映艳阳天</t>
         </is>
       </c>
     </row>
@@ -4547,7 +5317,12 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>风吹柳絮，花间蝶影舞清风</t>
+          <t>青山入画，听溪边月落日飞</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>青山入画，喜江中</t>
         </is>
       </c>
     </row>
@@ -4574,7 +5349,12 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>无私无畏无私欲，无畏无私</t>
+          <t>两眼看人人不事，事后无忧</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>两眼观光光不尽，尽处皆春</t>
         </is>
       </c>
     </row>
@@ -4601,7 +5381,12 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>风吹柳絮舞红霞</t>
+          <t>风送秋波红遍地</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>风送秋波红遍地</t>
         </is>
       </c>
     </row>
@@ -4628,7 +5413,12 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>风吹柳岸柳摇风</t>
+          <t>云遮岭上岭遮云</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>云遮岭上岭遮云罩云岭罩云</t>
         </is>
       </c>
     </row>
@@ -4655,7 +5445,12 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>一世不知名</t>
+          <t>一日水中游</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>一日水中游</t>
         </is>
       </c>
     </row>
@@ -4682,7 +5477,12 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>一生不死，一生不死一生</t>
+          <t>恶人不死，不知一点心情</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>恶人不死，难得一片心肝</t>
         </is>
       </c>
     </row>
@@ -4709,7 +5509,12 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>青山有意趣，青山有情怀</t>
+          <t>青山原有幸，只为月当头</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>青山原有幸，甘为日</t>
         </is>
       </c>
     </row>
@@ -4736,7 +5541,12 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>三更月色影摇窗</t>
+          <t>鱼虾戏水浪淘满湖烟雨荷风</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>鱼虾戏水浪淘千顷稻米粮川</t>
         </is>
       </c>
     </row>
@@ -4763,7 +5573,12 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>心情一片心</t>
+          <t>不负一生缘</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>不负一生缘</t>
         </is>
       </c>
     </row>
@@ -4790,7 +5605,12 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>红梅映雪，红梅映雪映红梅</t>
+          <t>雨花红花，雨落红花花落雨</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>雨花红花，雨落红花花落雨</t>
         </is>
       </c>
     </row>
@@ -4817,7 +5637,12 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>风吹柳絮柳摇风</t>
+          <t>文通海阔浪潮生</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>文通海阔浪潮平</t>
         </is>
       </c>
     </row>
@@ -4844,7 +5669,12 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>心怀叵测耍滑头</t>
+          <t>不把真情作画工</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>不见高怀抱月眠</t>
         </is>
       </c>
     </row>
@@ -4871,7 +5701,12 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>一日一竿不钓鱼</t>
+          <t>愁于一夜始知心</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>愁于一夜始知音</t>
         </is>
       </c>
     </row>
@@ -4898,7 +5733,12 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>风吹柳岸柳摇烟</t>
+          <t>玉树临风悟佛心</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>玉树临风悟佛经</t>
         </is>
       </c>
     </row>
@@ -4925,7 +5765,12 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>风清月朗，似水似清波</t>
+          <t>风和日丽，云散自然游</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>风和日丽，云起自然</t>
         </is>
       </c>
     </row>
@@ -4952,7 +5797,12 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>月色有情意有情</t>
+          <t>听雨听风梦有情</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>听雨听风梦有声</t>
         </is>
       </c>
     </row>
@@ -4979,7 +5829,12 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>月下无眠夜夜寒</t>
+          <t>月伴清风后夜明</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>月伴清风后夜明</t>
         </is>
       </c>
     </row>
@@ -5006,7 +5861,12 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>不觉春风入梦寒</t>
+          <t>琴书在水水云天</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>琴书在水水云天</t>
         </is>
       </c>
     </row>
@@ -5033,7 +5893,12 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>心中无愧对联联</t>
+          <t>心中自有大江流</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>心中自有故人情</t>
         </is>
       </c>
     </row>
@@ -5060,7 +5925,12 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>大道贯长虹</t>
+          <t>正气树高风</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>正气树高风</t>
         </is>
       </c>
     </row>
@@ -5087,7 +5957,12 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>山河清海晏，风和日丽人</t>
+          <t>春风吹杨柳，自在来梳妆</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>春风吹杨柳！</t>
         </is>
       </c>
     </row>

--- a/couplet/result-test.xlsx
+++ b/couplet/result-test.xlsx
@@ -421,12 +421,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>万里云山朝北望</t>
+          <t>万里东风向北来</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>两岸桃花朝北放</t>
+          <t>万里东风向北来</t>
         </is>
       </c>
     </row>
@@ -453,12 +453,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>清风明月夜来乎</t>
+          <t>清风明月夜来兮</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>清风明月夜来兮</t>
+          <t>清风明月夜来哉</t>
         </is>
       </c>
     </row>
@@ -485,12 +485,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>飞白何曾有意人</t>
+          <t>落叶何妨有意人</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>飞白何曾有意人</t>
+          <t>落叶何曾有爱人</t>
         </is>
       </c>
     </row>
@@ -517,12 +517,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>窗望长风送故人</t>
+          <t>梦想清风入梦怀</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>窗望长风送故人</t>
+          <t>梦想清风入梦怀</t>
         </is>
       </c>
     </row>
@@ -549,12 +549,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>天地几何人？尽随风雨里</t>
+          <t>天地几番情，尽随风雨里</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>天地几多情？只为</t>
+          <t>天地几多情？总关</t>
         </is>
       </c>
     </row>
@@ -581,12 +581,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>踏雪寻梅不知春</t>
+          <t>借酒浇愁不胜情</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>踏雪寻梅能无处</t>
+          <t>借酒浇愁难过时</t>
         </is>
       </c>
     </row>
@@ -613,12 +613,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>小二人间，诸葛飞去不回头</t>
+          <t>小二法门，诸葛亮出自开心</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>小二人间，小桥流去不开</t>
+          <t>小二法门，菩提悟去不</t>
         </is>
       </c>
     </row>
@@ -645,12 +645,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>看菩萨即是真如</t>
+          <t>看大众即是回头</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>观菩萨即是真如</t>
+          <t>看大地即是回头</t>
         </is>
       </c>
     </row>
@@ -677,12 +677,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>小心放胆，不知世上几何愁</t>
+          <t>小心照亮，不知世上几多情</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>小心放胆，但求天下几多情</t>
+          <t>小心照亮，不谙世上几多情</t>
         </is>
       </c>
     </row>
@@ -709,7 +709,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>半生心底蕴乾坤</t>
+          <t>半壶酒里醉乾坤</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -741,12 +741,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>千秋百代，实在其中</t>
+          <t>三严五戒，实在无边</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>千秋百代，自有余香</t>
+          <t>千秋万法，实在无边</t>
         </is>
       </c>
     </row>
@@ -773,12 +773,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>风从云外悟来闲</t>
+          <t>山从云外悟来闲</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>风从云外悟来真</t>
+          <t>山从云外悟来闲</t>
         </is>
       </c>
     </row>
@@ -805,12 +805,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>绿豆绿豆绿豆芽</t>
+          <t>白水白山白帝城</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>绿豆绿豆绿豆芽</t>
+          <t>白水白山白老人</t>
         </is>
       </c>
     </row>
@@ -837,12 +837,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>江山共仰有灵踪</t>
+          <t>江山不改是尧天</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>江山共仰有灵踪</t>
+          <t>江山不改是尧天</t>
         </is>
       </c>
     </row>
@@ -901,12 +901,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
+          <t>年年过大关</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>年年遇故人</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>年年遇故知</t>
         </is>
       </c>
     </row>
@@ -933,12 +933,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>一千里去访仙人</t>
+          <t>一千里去访梅花</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>九万里去访仙人</t>
+          <t>万千里去觅诗魂</t>
         </is>
       </c>
     </row>
@@ -965,12 +965,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>月下三分醉酒诗</t>
+          <t>月下三分醉酒杯</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>月下千竿钓水天</t>
+          <t>月下半弯钓水天</t>
         </is>
       </c>
     </row>
@@ -997,12 +997,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>大道岂能行</t>
+          <t>大道不能行</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>大道岂能行</t>
+          <t>大道不能行</t>
         </is>
       </c>
     </row>
@@ -1029,12 +1029,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>东升西落莫迟迟</t>
+          <t>东来西往莫轻轻</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>东升西落自然然</t>
+          <t>东来西往自然然</t>
         </is>
       </c>
     </row>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>知己无非怨夜郎</t>
+          <t>知己无非泣晚风</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1125,12 +1125,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>北海闲游万里春</t>
+          <t>北海闲观万里春</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>北牖闲吟半亩诗</t>
+          <t>北海闲观万卷诗</t>
         </is>
       </c>
     </row>
@@ -1157,12 +1157,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>千山秋水无双树，东岭影斜西岭苍茫</t>
+          <t>三江秋水无双桨，东海浪翻西海浪涛</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>满园秋色无数点，北岭</t>
+          <t>满园秋色无几度，东土</t>
         </is>
       </c>
     </row>
@@ -1189,12 +1189,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>闲游明月自相思</t>
+          <t>闲居陋室常能安</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>闲斟明月自相思</t>
+          <t>闲居陋室不妨闲</t>
         </is>
       </c>
     </row>
@@ -1221,12 +1221,12 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
+          <t>淡淡水云天</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
           <t>淡淡柳岸风</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>淡淡梅岭山</t>
         </is>
       </c>
     </row>
@@ -1253,12 +1253,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>处处月半弯</t>
+          <t>漠漠柳千条</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>处处月半弯</t>
+          <t>漠漠柳千条</t>
         </is>
       </c>
     </row>
@@ -1285,12 +1285,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>寻梅北岭南</t>
+          <t>采菊北岭中</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>寻梅北岭南</t>
+          <t>采菊北岭中</t>
         </is>
       </c>
     </row>
@@ -1317,12 +1317,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>江边明月照重来</t>
+          <t>江边碧水荡轻舟</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>江边明月照重圆</t>
+          <t>江边碧水荡轻舟</t>
         </is>
       </c>
     </row>
@@ -1349,12 +1349,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>春秋天下传</t>
+          <t>江山天下春</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>春秋天地新</t>
+          <t>江山天下春</t>
         </is>
       </c>
     </row>
@@ -1381,12 +1381,12 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>月缺月圆是佛心</t>
+          <t>月缺月圆是我心</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>月缺月圆是佛缘</t>
+          <t>月缺月圆是我心</t>
         </is>
       </c>
     </row>
@@ -1413,12 +1413,12 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>何时问月何须月？玉笛吹来江上渔歌</t>
+          <t>今朝望月难知月，玉笛吹来天上云霄</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>何时问月何须月？玉笛吟出</t>
+          <t>今宵赏月常思月，玉笛飞</t>
         </is>
       </c>
     </row>
@@ -1445,12 +1445,12 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>我无言，一生以外清凉，不妨风雨无关情</t>
+          <t>我无言，一生以外清凉，不妨风月无边来</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>我无言，千年以后</t>
+          <t>我无言，千年以外</t>
         </is>
       </c>
     </row>
@@ -1477,12 +1477,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>不知小子有心难</t>
+          <t>不知老子有心难</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>不知小子有心难</t>
+          <t>不知老子有心难</t>
         </is>
       </c>
     </row>
@@ -1509,12 +1509,12 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>无非俗累无非俗</t>
+          <t>无非俗念无非俗</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>无非俗累无非尘</t>
+          <t>无非俗念无非俗</t>
         </is>
       </c>
     </row>
@@ -1541,7 +1541,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>一声欸乃不惊飞</t>
+          <t>一轮明月不回眸</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1573,12 +1573,12 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>风和日暖鸟能鸣，一径空余云淡浮云</t>
+          <t>天寒山冷雁难归，一叶独随风起落花</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>风和日丽鸟能鸣，百鸟尽</t>
+          <t>天寒山冷雁无踪，孤雁远</t>
         </is>
       </c>
     </row>
@@ -1605,12 +1605,12 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>一帘幽梦随风白</t>
+          <t>一帘幽梦绕梅香</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>一帘幽梦随风白</t>
+          <t>一堤翠柳迎春绿</t>
         </is>
       </c>
     </row>
@@ -1637,12 +1637,12 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>花溪流水面如云</t>
+          <t>龙门破壁气如虹</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>花溪流水面如花</t>
+          <t>龙门破壁气如虹</t>
         </is>
       </c>
     </row>
@@ -1669,12 +1669,12 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>春深意淡有余情</t>
+          <t>人生意淡有余生</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>春深意淡有余香</t>
+          <t>人生意淡有余生</t>
         </is>
       </c>
     </row>
@@ -1701,12 +1701,12 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>水面佛门悬佛灯</t>
+          <t>水面佛门开佛门</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>水面佛灯照佛门</t>
+          <t>水面佛门开佛门</t>
         </is>
       </c>
     </row>
@@ -1733,12 +1733,12 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>陋室悠悠闲我心</t>
+          <t>古道悠悠闲我心</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>陋室悠悠清我心</t>
+          <t>古道悠悠清我心</t>
         </is>
       </c>
     </row>
@@ -1765,12 +1765,12 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>一点清凉始是禅</t>
+          <t>一世清贫不是缘</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>万物峥嵘总是春</t>
+          <t>一世清贫不是缘</t>
         </is>
       </c>
     </row>
@@ -1797,12 +1797,12 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>回头不必不知年</t>
+          <t>回眸不必为从此</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>回头何必又逢时</t>
+          <t>回眸未必不知音</t>
         </is>
       </c>
     </row>
@@ -1829,7 +1829,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>俯首甘为山上人</t>
+          <t>俯首甘为天下人</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -1861,12 +1861,12 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>心中难忘我为邻</t>
+          <t>心中难懂我为朋</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>心中只觉月为邻</t>
+          <t>心中未见月为邻</t>
         </is>
       </c>
     </row>
@@ -1893,7 +1893,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>无聊未必待时多</t>
+          <t>无情难免到天涯</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -1925,12 +1925,12 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>醉卧渔翁钓月舟</t>
+          <t>醉卧梅妻入梦乡</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>醉卧渔翁钓月钩</t>
+          <t>醉饮酒翁邀月色</t>
         </is>
       </c>
     </row>
@@ -1957,12 +1957,12 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>月下花前一品香</t>
+          <t>地北天南一品香</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>月下花前独占鳌</t>
+          <t>地北天南第一峰</t>
         </is>
       </c>
     </row>
@@ -1989,12 +1989,12 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>一万年华尽曙光</t>
+          <t>十万竿竹尽春风</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>十二楼台尽月光</t>
+          <t>十二楼梅尽雪香</t>
         </is>
       </c>
     </row>
@@ -2026,7 +2026,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>日月九重天</t>
+          <t>日月一壶天</t>
         </is>
       </c>
     </row>
@@ -2085,12 +2085,12 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>窗外常思不见人</t>
+          <t>座上常留不住人</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>窗下常思独立人</t>
+          <t>座上何妨再读书</t>
         </is>
       </c>
     </row>
@@ -2117,12 +2117,12 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>南海观，北海观，观观海岳而观</t>
+          <t>南海观，北海观，观观天地所新</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>南海观，北海观</t>
+          <t>南海观，北海观！观</t>
         </is>
       </c>
     </row>
@@ -2149,12 +2149,12 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>柳絮随春潮</t>
+          <t>柳浪添雅情</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>柳絮舞春光</t>
+          <t>柳浪荡春波</t>
         </is>
       </c>
     </row>
@@ -2181,12 +2181,12 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>飞花遥看万千秋</t>
+          <t>寸心不负万千人</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>飞花遥看万千秋</t>
+          <t>寸心不负万千秋</t>
         </is>
       </c>
     </row>
@@ -2213,12 +2213,12 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>浮云共渡，共千秋</t>
+          <t>浮云不去，自无言</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>浮名不朽，共千秋</t>
+          <t>浮云不去，自千秋</t>
         </is>
       </c>
     </row>
@@ -2245,7 +2245,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>半山半水半山</t>
+          <t>三山三水三山</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2277,12 +2277,12 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>清风北至，烟霞染就古今愁</t>
+          <t>清风东去，烟霞染出古今情</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>清风北至，云霞染出</t>
+          <t>清风东去，烟霞蔚起古今情</t>
         </is>
       </c>
     </row>
@@ -2309,12 +2309,12 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>旭日东山第一楼</t>
+          <t>旭日东方第一楼</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>旭日东山第一峰</t>
+          <t>旭日东方第一楼</t>
         </is>
       </c>
     </row>
@@ -2341,12 +2341,12 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>焚香以去，只因月照花香</t>
+          <t>拈花以去，只因月上人来</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>焚香以去，但凭佛</t>
+          <t>拈花以去，只因水</t>
         </is>
       </c>
     </row>
@@ -2373,12 +2373,12 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>大漠无风过一关</t>
+          <t>大地无风暖三春</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>大漠无烟锁一江</t>
+          <t>大地无风暖三春</t>
         </is>
       </c>
     </row>
@@ -2437,12 +2437,12 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>看得到心头日月，何须问此地问天涯</t>
+          <t>去无尽心头风月，不妨到此地种梅花</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>看得到心头日月，不妨问</t>
+          <t>去无尽心中日月，不妨到此日</t>
         </is>
       </c>
     </row>
@@ -2501,12 +2501,12 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>北来风雨一江春</t>
+          <t>西来风雨一江秋</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>东篱菊圃一枝秋</t>
+          <t>东篱菊桂一枝秋</t>
         </is>
       </c>
     </row>
@@ -2533,12 +2533,12 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>岭上梅花带雪香</t>
+          <t>江上渔歌带月寒</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>岭上梅花带雪香</t>
+          <t>江畔蛙声带雨凉</t>
         </is>
       </c>
     </row>
@@ -2565,12 +2565,12 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>随意往来，痴心寄情</t>
+          <t>怜我呻吟，伤心伤悲</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>随意往来，痴心寄情</t>
+          <t>怜我呻吟，凄风凄凉</t>
         </is>
       </c>
     </row>
@@ -2597,12 +2597,12 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>绿水无弦万古琴</t>
+          <t>碧水无弦万古琴</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>绿水无弦万古琴</t>
+          <t>碧水无弦万古琴</t>
         </is>
       </c>
     </row>
@@ -2629,12 +2629,12 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>月明风静醉诗情</t>
+          <t>风和日丽展诗情</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>月明星朗照诗情</t>
+          <t>风和日丽展诗情</t>
         </is>
       </c>
     </row>
@@ -2661,12 +2661,12 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>看黄鹤几个归来</t>
+          <t>看白马到此去来</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>看黄鹤几个归来</t>
+          <t>看白鹤几个归来</t>
         </is>
       </c>
     </row>
@@ -2698,7 +2698,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>临风把盏，一帘风月尽成诗</t>
+          <t>临风把盏，一帘烟月</t>
         </is>
       </c>
     </row>
@@ -2725,12 +2725,12 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>天地奇观有洞天</t>
+          <t>天地奇观有圣贤</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>天地灵光入画图</t>
+          <t>天地奇观有圣贤</t>
         </is>
       </c>
     </row>
@@ -2757,12 +2757,12 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>月光风影水中央</t>
+          <t>风光水色水中央</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>月光风影水中央</t>
+          <t>风光水色水中央</t>
         </is>
       </c>
     </row>
@@ -2789,12 +2789,12 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>风来竹影翠竹声</t>
+          <t>风来水榭淡云烟</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>风摇竹影翠竹声</t>
+          <t>风吹柳岸碧云天</t>
         </is>
       </c>
     </row>
@@ -2821,12 +2821,12 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>有余风月无余雅香</t>
+          <t>聚其风月无其雅怀</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>有余风月无余雅香</t>
+          <t>聚其风月无其雅怀</t>
         </is>
       </c>
     </row>
@@ -2853,12 +2853,12 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>观花月当头</t>
+          <t>倚山云在肩</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>观山云在肩</t>
+          <t>倚山云在肩</t>
         </is>
       </c>
     </row>
@@ -2885,12 +2885,12 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>水墨无痕不染尘</t>
+          <t>水墨无关不染尘</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>水墨无痕不染尘</t>
+          <t>水墨无关不染尘</t>
         </is>
       </c>
     </row>
@@ -2917,12 +2917,12 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>放下海边鱼</t>
+          <t>放下海边云</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>放下海边鱼</t>
+          <t>放下海边云</t>
         </is>
       </c>
     </row>
@@ -2949,12 +2949,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>禅心有道，静中不觉无常</t>
+          <t>禅心有趣，闲中自有清凉</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>禅心有道，静中自见</t>
+          <t>禅心不老，闲中总</t>
         </is>
       </c>
     </row>
@@ -2986,7 +2986,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>胸中丘壑自峥嵘</t>
+          <t>胸中丘壑竞峥嵘</t>
         </is>
       </c>
     </row>
@@ -3045,7 +3045,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>明月清风不是非</t>
+          <t>明月清风独往来</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -3077,12 +3077,12 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>花影一帘香</t>
+          <t>花影一江春</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>花影一帘香</t>
+          <t>花影一江春</t>
         </is>
       </c>
     </row>
@@ -3109,12 +3109,12 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>一帘月色入诗心</t>
+          <t>一弯月影入诗怀</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>一轮明月入诗心</t>
+          <t>一弯月色入诗囊</t>
         </is>
       </c>
     </row>
@@ -3173,12 +3173,12 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>常伴清风吟万年</t>
+          <t>常伴清风读万年</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>常伴清风吟万篇</t>
+          <t>常伴清风读万篇</t>
         </is>
       </c>
     </row>
@@ -3205,12 +3205,12 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>读成百万卷地，大智慧本是真经</t>
+          <t>心存一百事处，大悲大不是真如</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>读成百万卷地，古人</t>
+          <t>心存一百事处，妙手回</t>
         </is>
       </c>
     </row>
@@ -3237,12 +3237,12 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>人间不必是春秋</t>
+          <t>人间不必有风云</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>人间岂肯定乾坤</t>
+          <t>人间不觉无</t>
         </is>
       </c>
     </row>
@@ -3269,12 +3269,12 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>挥毫一挥水云闲</t>
+          <t>挥毫一挥日月新</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>挥毫一抹水云深</t>
+          <t>挥笔千钧日月明</t>
         </is>
       </c>
     </row>
@@ -3301,12 +3301,12 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>祥光耀乾坤</t>
+          <t>祥光耀九州</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>祥光耀乾坤</t>
+          <t>祥光耀九州</t>
         </is>
       </c>
     </row>
@@ -3333,12 +3333,12 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>无水不吟诗</t>
+          <t>无水不文章</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>无处不春秋</t>
+          <t>无处不文章</t>
         </is>
       </c>
     </row>
@@ -3365,12 +3365,12 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>山静云深鹤有声</t>
+          <t>山静云深鸟几声</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>山静云深鹤有声</t>
+          <t>山静云深鸟几声</t>
         </is>
       </c>
     </row>
@@ -3397,12 +3397,12 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>对月三分，有客无言</t>
+          <t>对月三更，有我相思</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>对月三分，对酒当歌</t>
+          <t>对月三更，对酒当歌</t>
         </is>
       </c>
     </row>
@@ -3493,12 +3493,12 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>道在静中行</t>
+          <t>心向俭中求</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>道在静中行</t>
+          <t>心向俭中求</t>
         </is>
       </c>
     </row>
@@ -3525,12 +3525,12 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>为民为本，为本为根</t>
+          <t>为政为公，为民为公</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>为民为本，为本为根</t>
+          <t>为政为公，为民为公</t>
         </is>
       </c>
     </row>
@@ -3557,12 +3557,12 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>好事无妨任去留</t>
+          <t>好事无妨任自行</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>好事须知理莫为</t>
+          <t>好事无妨任自行</t>
         </is>
       </c>
     </row>
@@ -3589,12 +3589,12 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>岁月壮胸襟</t>
+          <t>日月照乾坤</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>岁月壮胸襟</t>
+          <t>日月照乾坤</t>
         </is>
       </c>
     </row>
@@ -3621,12 +3621,12 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>妙笔生前一段情</t>
+          <t>大笔书来一夜情</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>妙笔生前一段情</t>
+          <t>大笔书来一夜情</t>
         </is>
       </c>
     </row>
@@ -3653,12 +3653,12 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>持久安康，保久安康</t>
+          <t>求实求真，求真求真</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>持久安康，保久安康</t>
+          <t>求实求真，求真求真</t>
         </is>
       </c>
     </row>
@@ -3690,7 +3690,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>风雨来时岁月新</t>
+          <t>风月何时岁月新</t>
         </is>
       </c>
     </row>
@@ -3717,12 +3717,12 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>大文章在三字为师</t>
+          <t>大文章自百代传承</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>大文章在四海为家</t>
+          <t>大文章自百代传承</t>
         </is>
       </c>
     </row>
@@ -3749,12 +3749,12 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>室无俗雅，兰舟竹影梅花</t>
+          <t>室无俗雅，松烟竹雨松烟</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>室无俗雅，梅花竹叶梅花</t>
+          <t>室无俗雅，梅香竹韵梅香</t>
         </is>
       </c>
     </row>
@@ -3781,7 +3781,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>修身常与古人争</t>
+          <t>修身常与古人同</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -3813,7 +3813,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>一身风雨到心头</t>
+          <t>一身风月在胸中</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -3845,12 +3845,12 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>不负人间名士名人</t>
+          <t>不负人间风雨多人</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>不负人间富贵贵乎</t>
+          <t>不负人间风雨多时</t>
         </is>
       </c>
     </row>
@@ -3877,12 +3877,12 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>愧无一颗心，不负良辰</t>
+          <t>愧无一心心，不负良缘</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>愧无一颗心，不昧良言</t>
+          <t>愧无一颗心，不负良缘</t>
         </is>
       </c>
     </row>
@@ -3909,12 +3909,12 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>难得春风送暖情</t>
+          <t>常接天涯觅故人</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>难得春风送暖风</t>
+          <t>常借春风送暖情</t>
         </is>
       </c>
     </row>
@@ -3941,12 +3941,12 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>雾笼岭上松</t>
+          <t>雾封岭上松</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>雾笼岭上松</t>
+          <t>雾封岭上松</t>
         </is>
       </c>
     </row>
@@ -3978,7 +3978,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>逍遥野渡自逍遥逍遥逍遥逍遥逍遥逍遥</t>
+          <t>逍遥逍遥逍遥游</t>
         </is>
       </c>
     </row>
@@ -4005,12 +4005,12 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>老鬼当先老鬼先</t>
+          <t>老鬼不出老鬼出</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>老鬼当先老鬼出</t>
+          <t>老子不来老子来、来老子来</t>
         </is>
       </c>
     </row>
@@ -4037,12 +4037,12 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>牛耕田间田</t>
+          <t>牛耕田中田</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>牛耕田间田</t>
+          <t>牛耕田中田</t>
         </is>
       </c>
     </row>
@@ -4069,12 +4069,12 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>仙踪石上觅鱼游</t>
+          <t>仙居山下觅僧敲</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>仙踪石上觅鱼游</t>
+          <t>仙居山下觅僧敲</t>
         </is>
       </c>
     </row>
@@ -4101,12 +4101,12 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>海上千层黄鹤影，月照迷人</t>
+          <t>天下千秋红叶叶，雨润滋心</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>海上无边明月色，雨洒</t>
+          <t>天下无边红叶叶？</t>
         </is>
       </c>
     </row>
@@ -4133,7 +4133,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>沉浮万里系民生</t>
+          <t>沉浮两袖系民生</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -4165,12 +4165,12 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>半卷残云半卷诗</t>
+          <t>半卷青山半卷诗</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>几缕清风几缕烟</t>
+          <t>半卷青山半卷诗</t>
         </is>
       </c>
     </row>
@@ -4197,12 +4197,12 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>吃苦吃甘吃苦菜，口如甘苦；</t>
+          <t>坐北朝南卖北斗，人从南卖；</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>吃苦吃甘吃苦菜，味因甘苦；</t>
+          <t>坐北朝南卖南瓜，身由</t>
         </is>
       </c>
     </row>
@@ -4229,12 +4229,12 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>东风万里，山中有月一轮回；</t>
+          <t>南山一水，山中有月一千年；</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>东风万里，人间遍地万万</t>
+          <t>南山一水，人间胜地五千年</t>
         </is>
       </c>
     </row>
@@ -4266,7 +4266,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>春来南国暖千家</t>
+          <t>春回南国暖千家</t>
         </is>
       </c>
     </row>
@@ -4325,12 +4325,12 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>寿有一年明日年</t>
+          <t>寿有一年此日年</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>寿有余年明日年</t>
+          <t>寿不二分明日分</t>
         </is>
       </c>
     </row>
@@ -4357,12 +4357,12 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>玉簟秋池淡相香</t>
+          <t>玉簟朱帘淡无香</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>玉簟秋池淡相宜</t>
+          <t>玉簟朱帘淡无香</t>
         </is>
       </c>
     </row>
@@ -4421,12 +4421,12 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>醉鬼迷人，不怕水云情不了</t>
+          <t>醉鬼吟诗，不负江山情未泯</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>醉鬼迷人，何惧江山情</t>
+          <t>醉鬼吟诗，不负江山心不</t>
         </is>
       </c>
     </row>
@@ -4453,12 +4453,12 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>人情淡泊尽文章</t>
+          <t>人情淡泊尽风流</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>人情淡泊即文章</t>
+          <t>人情淡泊尽风情</t>
         </is>
       </c>
     </row>
@@ -4485,12 +4485,12 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>春来柳叶绿如蓝</t>
+          <t>风吹柳叶绿如茵</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>春来柳叶绿如茵</t>
+          <t>风吹柳叶绿如茵</t>
         </is>
       </c>
     </row>
@@ -4549,12 +4549,12 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>不为人痴恋故人</t>
+          <t>不为人迷恋故人</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>不觉茶香醉美人</t>
+          <t>不觉茶香品美人</t>
         </is>
       </c>
     </row>
@@ -4581,12 +4581,12 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>不能弹琴且听</t>
+          <t>不可观花以开</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>不能弹琴且听</t>
+          <t>不可观花以开</t>
         </is>
       </c>
     </row>
@@ -4613,12 +4613,12 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>柳絮飞扬，心绪犹存碧血</t>
+          <t>杨柳垂青，心事不如碧玉</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>柳絮飘香，春色犹存</t>
+          <t>杨柳垂青，血脉长</t>
         </is>
       </c>
     </row>
@@ -4645,12 +4645,12 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>鸟鸣树更幽</t>
+          <t>蛙鸣水更幽</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>鸟鸣树更幽</t>
+          <t>蛙鸣水更幽</t>
         </is>
       </c>
     </row>
@@ -4677,12 +4677,12 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>何必随风入座？只为一世故人多</t>
+          <t>不必随风入座，只为一世故人多</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>何必随风入座？何妨明月故人多</t>
+          <t>不必随风入座，何妨今日</t>
         </is>
       </c>
     </row>
@@ -4709,12 +4709,12 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>世事有缘时</t>
+          <t>世事有情时</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>世事有缘时</t>
+          <t>世事有情时</t>
         </is>
       </c>
     </row>
@@ -4741,12 +4741,12 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>不得糊涂不用心</t>
+          <t>不解悲欢不羡人</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>不染尘埃不染尘</t>
+          <t>不解悲欢不羡人</t>
         </is>
       </c>
     </row>
@@ -4778,7 +4778,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>不少清风不少尘</t>
+          <t>不少清风不少愁</t>
         </is>
       </c>
     </row>
@@ -4837,12 +4837,12 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>寻诗思去月初明</t>
+          <t>吟诗未必月初圆</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>寻诗思去月初明</t>
+          <t>吟诗未必月初圆</t>
         </is>
       </c>
     </row>
@@ -4869,12 +4869,12 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>不堪明月几时圆</t>
+          <t>不妨明月几时圆</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>不堪明月几时圆</t>
+          <t>不妨明月几时圆</t>
         </is>
       </c>
     </row>
@@ -4901,12 +4901,12 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>新诗细品更无香</t>
+          <t>新月新闻更有香</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>新月闲谈不少年</t>
+          <t>新月新闻更有香</t>
         </is>
       </c>
     </row>
@@ -4933,12 +4933,12 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>竹外清风不染尘</t>
+          <t>竹下清风不胜寒</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>竹外清风不染尘</t>
+          <t>竹下清风不胜寒</t>
         </is>
       </c>
     </row>
@@ -4965,12 +4965,12 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>回头梦里一僧归</t>
+          <t>扪心字里一尘空</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>回头梦里一身轻</t>
+          <t>扪心字里一尘空</t>
         </is>
       </c>
     </row>
@@ -4997,12 +4997,12 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>新颖育新人</t>
+          <t>新颖展新风</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>新颖育新人</t>
+          <t>新颖展新风</t>
         </is>
       </c>
     </row>
@@ -5034,7 +5034,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>风流不负世间人</t>
+          <t>风流不负世间名</t>
         </is>
       </c>
     </row>
@@ -5061,12 +5061,12 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>遗言传孟母，归来不负杜鹃声</t>
+          <t>遗风传楚汉，归来不羡杜鹃声</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>遗言传孟母，吟来不负杜鹃</t>
+          <t>遗风传楚汉，醒来不羡杜鹃声</t>
         </is>
       </c>
     </row>
@@ -5093,12 +5093,12 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>三千万里富无穷</t>
+          <t>三千万里苦难回</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>三千万劫死难生</t>
+          <t>三千万众苦难回</t>
         </is>
       </c>
     </row>
@@ -5130,7 +5130,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>人因致富且和贫</t>
+          <t>人因致富贵和贫</t>
         </is>
       </c>
     </row>
@@ -5157,12 +5157,12 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>谁能明月照江湖</t>
+          <t>谁将明月照江湖</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>谁堪夜雨打芭蕉</t>
+          <t>谁将明月照江湖</t>
         </is>
       </c>
     </row>
@@ -5189,7 +5189,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>残红时动落花声</t>
+          <t>残红初绽落梅香</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -5221,12 +5221,12 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>风吹杨柳翠依然</t>
+          <t>风吹杨柳翠无边</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>风吹杨柳翠依稀</t>
+          <t>风吹杨柳绿无边</t>
         </is>
       </c>
     </row>
@@ -5253,12 +5253,12 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>寻幽紫燕总迎春</t>
+          <t>寻欢紫燕早迎春</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>寻幽紫燕早衔泥</t>
+          <t>寻欢紫燕早迎春</t>
         </is>
       </c>
     </row>
@@ -5317,12 +5317,12 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>青山入画，听溪边月落日飞</t>
+          <t>青山着意，听人间雨润雨来</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>青山入画，喜江中</t>
+          <t>青山着意，听人间鸟语鸟啼</t>
         </is>
       </c>
     </row>
@@ -5349,12 +5349,12 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>两眼看人人不事，事后无忧</t>
+          <t>两眼观天天不地，地上无忧</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>两眼观光光不尽，尽处皆春</t>
+          <t>两袖清风风不尽，尽外皆空</t>
         </is>
       </c>
     </row>
@@ -5381,7 +5381,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>风送秋波红遍地</t>
+          <t>风拂柳梢绿满地</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -5413,12 +5413,12 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>云遮岭上岭遮云</t>
+          <t>云遮水面水遮云</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>云遮岭上岭遮云罩云岭罩云</t>
+          <t>云遮水面水遮云</t>
         </is>
       </c>
     </row>
@@ -5445,12 +5445,12 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>一日水中游</t>
+          <t>一日月中行</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>一日水中游</t>
+          <t>一日月中行</t>
         </is>
       </c>
     </row>
@@ -5477,12 +5477,12 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>恶人不死，不知一点心情</t>
+          <t>恶人不断，难消一点心肠</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>恶人不死，难得一片心肝</t>
+          <t>恶人不断，难消万缕</t>
         </is>
       </c>
     </row>
@@ -5509,12 +5509,12 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>青山原有幸，只为月当头</t>
+          <t>青山原有幸，只为月明心</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>青山原有幸，甘为日</t>
+          <t>青山原有幸，何惧雨</t>
         </is>
       </c>
     </row>
@@ -5541,12 +5541,12 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>鱼虾戏水浪淘满湖烟雨荷风</t>
+          <t>鱼龙出水浪淘满江烟雨荷风</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>鱼虾戏水浪淘千顷稻米粮川</t>
+          <t>鱼龙出海浪淘千顷碧水青山</t>
         </is>
       </c>
     </row>
@@ -5605,12 +5605,12 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>雨花红花，雨落红花花落雨</t>
+          <t>雪梅红梅，雪映红梅梅映雪</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>雨花红花，雨落红花花落雨</t>
+          <t>雪梅红梅，雪映红梅梅映雪</t>
         </is>
       </c>
     </row>
@@ -5637,12 +5637,12 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>文通海阔浪潮生</t>
+          <t>风吹水阔月光寒</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>文通海阔浪潮平</t>
+          <t>风吹水阔月光寒</t>
         </is>
       </c>
     </row>
@@ -5669,12 +5669,12 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>不把真情作画工</t>
+          <t>不把清心作对联</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>不见高怀抱月眠</t>
+          <t>不把清心作对联</t>
         </is>
       </c>
     </row>
@@ -5701,12 +5701,12 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>愁于一夜始知心</t>
+          <t>喜逢一笑不回头</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>愁于一夜始知音</t>
+          <t>喜逢一笑不回眸</t>
         </is>
       </c>
     </row>
@@ -5733,12 +5733,12 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>玉树临风悟佛心</t>
+          <t>玉宇飞云入画屏</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>玉树临风悟佛经</t>
+          <t>玉树临风入画图</t>
         </is>
       </c>
     </row>
@@ -5765,12 +5765,12 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>风和日丽，云散自然游</t>
+          <t>天空云淡，月照自然明</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>风和日丽，云起自然</t>
+          <t>天空云淡，天地</t>
         </is>
       </c>
     </row>
@@ -5802,7 +5802,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>听雨听风梦有声</t>
+          <t>听雨听风梦有情</t>
         </is>
       </c>
     </row>
@@ -5829,12 +5829,12 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>月伴清风后夜明</t>
+          <t>月伴清风此夜凉</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>月伴清风后夜明</t>
+          <t>月伴清风此夜凉</t>
         </is>
       </c>
     </row>
@@ -5861,12 +5861,12 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>琴书在水水云天</t>
+          <t>诗书在野鹤闲云</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>琴书在水水云天</t>
+          <t>诗书在野鹤闲云</t>
         </is>
       </c>
     </row>
@@ -5893,12 +5893,12 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>心中自有大江流</t>
+          <t>心中自无限天机</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>心中自有故人情</t>
+          <t>心中自无限天机</t>
         </is>
       </c>
     </row>
@@ -5925,12 +5925,12 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>正气树高风</t>
+          <t>正气养真如</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>正气树高风</t>
+          <t>正气养真如</t>
         </is>
       </c>
     </row>
@@ -5957,12 +5957,12 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>春风吹杨柳，自在来梳妆</t>
+          <t>碧波生菡萏，自在来清池</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>春风吹杨柳！</t>
+          <t>碧波生菡萏，地道出</t>
         </is>
       </c>
     </row>

--- a/couplet/result-test.xlsx
+++ b/couplet/result-test.xlsx
@@ -421,12 +421,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>万里东风向北来</t>
+          <t>万里长河向北流</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>万里东风向北来</t>
+          <t>万里长河向北流</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>清风明月夜来兮</t>
+          <t>清风明月梦来兮</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -485,12 +485,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>落叶何妨有意人</t>
+          <t>飞白何须有意人</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>落叶何曾有爱人</t>
+          <t>飞白何须有意人</t>
         </is>
       </c>
     </row>
@@ -517,12 +517,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>梦想清风入梦怀</t>
+          <t>梦想清风入梦乡</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>梦想清风入梦怀</t>
+          <t>梦想清风入梦乡</t>
         </is>
       </c>
     </row>
@@ -554,7 +554,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>天地几多情？总关</t>
+          <t>天地几番情？尽随</t>
         </is>
       </c>
     </row>
@@ -581,12 +581,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>借酒浇愁不胜情</t>
+          <t>踏雪寻梅能无处</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>借酒浇愁难过时</t>
+          <t>踏雪寻梅不知春</t>
         </is>
       </c>
     </row>
@@ -613,12 +613,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>小二法门，诸葛亮出自开心</t>
+          <t>一片天涯，诸君梦去不回头</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>小二法门，菩提悟去不</t>
+          <t>一片天涯，扁舟归去不回头</t>
         </is>
       </c>
     </row>
@@ -645,12 +645,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>看大众即是回头</t>
+          <t>观菩萨因此登台</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>看大地即是回头</t>
+          <t>观菩提不肯回头</t>
         </is>
       </c>
     </row>
@@ -677,12 +677,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>小心照亮，不知世上几多情</t>
+          <t>小心不死，难忘世上几何愁</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>小心照亮，不谙世上几多情</t>
+          <t>小心不死，抛开世上万千愁</t>
         </is>
       </c>
     </row>
@@ -741,12 +741,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>三严五戒，实在无边</t>
+          <t>千秋万祀，实乃同源</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>千秋万法，实在无边</t>
+          <t>千秋万祀，实乃大</t>
         </is>
       </c>
     </row>
@@ -773,12 +773,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>山从云外悟来闲</t>
+          <t>风从花里绽开香</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>山从云外悟来闲</t>
+          <t>风从花下落成愁</t>
         </is>
       </c>
     </row>
@@ -805,12 +805,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>白水白山白帝城</t>
+          <t>白水白山白女儿</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>白水白山白老人</t>
+          <t>白水白山白女儿</t>
         </is>
       </c>
     </row>
@@ -837,12 +837,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>江山不改是尧天</t>
+          <t>江山共仰有尧天</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>江山不改是尧天</t>
+          <t>江河相映是尧天</t>
         </is>
       </c>
     </row>
@@ -901,12 +901,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>年年过大关</t>
+          <t>年年遇故人</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>年年遇故人</t>
+          <t>年年忆故人</t>
         </is>
       </c>
     </row>
@@ -933,12 +933,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>一千里去访梅花</t>
+          <t>一千里去访仙人</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>万千里去觅诗魂</t>
+          <t>一千里去觅诗人</t>
         </is>
       </c>
     </row>
@@ -965,12 +965,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>月下三分醉酒杯</t>
+          <t>月下三分醉古今</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>月下半弯钓水天</t>
+          <t>月下半弯冷水天</t>
         </is>
       </c>
     </row>
@@ -997,12 +997,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>大道不能行</t>
+          <t>大道岂能行</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>大道不能行</t>
+          <t>大道岂能行</t>
         </is>
       </c>
     </row>
@@ -1029,12 +1029,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>东来西往莫轻轻</t>
+          <t>东升西落莫须莫</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>东来西往自然然</t>
+          <t>东升西落自然自</t>
         </is>
       </c>
     </row>
@@ -1093,12 +1093,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>我意如春风</t>
+          <t>我梦如春风</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>我意如春风</t>
+          <t>我梦如春风</t>
         </is>
       </c>
     </row>
@@ -1125,12 +1125,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>北海闲观万里春</t>
+          <t>北海闲观万里波</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>北海闲观万卷诗</t>
+          <t>北海闲观四海春</t>
         </is>
       </c>
     </row>
@@ -1157,12 +1157,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>三江秋水无双桨，东海浪翻西海浪涛</t>
+          <t>千秋明月无双桨，东海浪滔西海浪涛</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>满园秋色无几度，东土</t>
+          <t>千山秋水无双桨，暮暮气吞朝暮苍</t>
         </is>
       </c>
     </row>
@@ -1189,12 +1189,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>闲居陋室常能安</t>
+          <t>相思明月常相思</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>闲居陋室不妨闲</t>
+          <t>相邀明月久相随</t>
         </is>
       </c>
     </row>
@@ -1221,12 +1221,12 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>淡淡水云天</t>
+          <t>漠漠驼背山</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>淡淡柳岸风</t>
+          <t>漠漠孤烟亭</t>
         </is>
       </c>
     </row>
@@ -1253,12 +1253,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>漠漠柳千条</t>
+          <t>漠漠秋千秋</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>漠漠柳千条</t>
+          <t>漠漠柳千株</t>
         </is>
       </c>
     </row>
@@ -1285,12 +1285,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>采菊北岭中</t>
+          <t>寻梅北岭边</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>采菊北岭中</t>
+          <t>寻梅北岭边</t>
         </is>
       </c>
     </row>
@@ -1317,12 +1317,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>江边碧水荡轻舟</t>
+          <t>江中碧水荡还流</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>江边碧水荡轻舟</t>
+          <t>江中碧水荡还澜</t>
         </is>
       </c>
     </row>
@@ -1349,12 +1349,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>江山天下春</t>
+          <t>江山天下通</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>江山天下春</t>
+          <t>江山天下通</t>
         </is>
       </c>
     </row>
@@ -1381,12 +1381,12 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>月缺月圆是我心</t>
+          <t>月缺月圆是客心</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>月缺月圆是我心</t>
+          <t>月缺月圆是客心</t>
         </is>
       </c>
     </row>
@@ -1413,12 +1413,12 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>今朝望月难知月，玉笛吹来天上云霄</t>
+          <t>今宵赏月常邀月，玉盏斟空天下风流</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>今宵赏月常思月，玉笛飞</t>
+          <t>今宵赏月常邀月，柳絮飘</t>
         </is>
       </c>
     </row>
@@ -1445,12 +1445,12 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>我无言，一生以外清凉，不妨风月无边来</t>
+          <t>我无言，一生以外清凉，不教人物无穷通</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>我无言，千年以外</t>
+          <t>我无言，九霄以外</t>
         </is>
       </c>
     </row>
@@ -1477,12 +1477,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>不知老子有心难</t>
+          <t>不知君子有心难</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>不知老子有心难</t>
+          <t>不教胡马度阴来</t>
         </is>
       </c>
     </row>
@@ -1509,12 +1509,12 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>无非俗念无非俗</t>
+          <t>无非俗念无非尘</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>无非俗念无非俗</t>
+          <t>无非俗念无非魔</t>
         </is>
       </c>
     </row>
@@ -1541,12 +1541,12 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>一轮明月不回眸</t>
+          <t>一轮明月不须圆</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>万家灯火欲燃烧</t>
+          <t>万家灯火已成灰</t>
         </is>
       </c>
     </row>
@@ -1573,12 +1573,12 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>天寒山冷雁难归，一叶独随风起落花</t>
+          <t>风轻云淡雁难行，一叶欲随风过泸州</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>天寒山冷雁无踪，孤雁远</t>
+          <t>风轻云淡雁无踪，一路遥</t>
         </is>
       </c>
     </row>
@@ -1605,12 +1605,12 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>一帘幽梦绕梅香</t>
+          <t>一池碧水映霞红</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>一堤翠柳迎春绿</t>
+          <t>一堤翠柳迎风绿</t>
         </is>
       </c>
     </row>
@@ -1637,12 +1637,12 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>龙门破壁气如虹</t>
+          <t>鱼池映日面如花</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>龙门破壁气如虹</t>
+          <t>鱼塘映日面如花</t>
         </is>
       </c>
     </row>
@@ -1669,12 +1669,12 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>人生意淡有余生</t>
+          <t>月圆梦好有前缘</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>人生意淡有余生</t>
+          <t>月圆梦醒有前缘</t>
         </is>
       </c>
     </row>
@@ -1701,12 +1701,12 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>水面佛门开佛门</t>
+          <t>水面佛门生佛灯</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>水面佛门开佛门</t>
+          <t>水面佛灯照佛灯</t>
         </is>
       </c>
     </row>
@@ -1733,12 +1733,12 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>古道悠悠闲我心</t>
+          <t>陋室幽幽修我心</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>古道悠悠清我心</t>
+          <t>陋室幽幽入我怀</t>
         </is>
       </c>
     </row>
@@ -1765,12 +1765,12 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>一世清贫不是缘</t>
+          <t>一点真如始是禅</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>一世清贫不是缘</t>
+          <t>万类霜天竞自由</t>
         </is>
       </c>
     </row>
@@ -1797,12 +1797,12 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>回眸不必为从此</t>
+          <t>回头不必为从此</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>回眸未必不知音</t>
+          <t>回头不必要回头</t>
         </is>
       </c>
     </row>
@@ -1829,12 +1829,12 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>俯首甘为天下人</t>
+          <t>侧耳不闻山上音</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>俯首甘为天下人</t>
+          <t>侧耳不闻山外音</t>
         </is>
       </c>
     </row>
@@ -1861,12 +1861,12 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>心中难懂我为朋</t>
+          <t>心中常念梦成真</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>心中未见月为邻</t>
+          <t>心中无奈我非鱼</t>
         </is>
       </c>
     </row>
@@ -1893,12 +1893,12 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>无情难免到天涯</t>
+          <t>无情难得到天涯</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>无情难免到天涯</t>
+          <t>无情难得到天涯</t>
         </is>
       </c>
     </row>
@@ -1925,12 +1925,12 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>醉卧梅妻入梦乡</t>
+          <t>醉卧梅妻醉月魂</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>醉饮酒翁邀月色</t>
+          <t>醉卧琴弦弹指尖</t>
         </is>
       </c>
     </row>
@@ -1957,12 +1957,12 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>地北天南一品香</t>
+          <t>海角山边一醉翁</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>地北天南第一峰</t>
+          <t>海角山边并蒂花</t>
         </is>
       </c>
     </row>
@@ -1989,12 +1989,12 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>十万竿竹尽春风</t>
+          <t>一万里云尽月光</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>十二楼梅尽雪香</t>
+          <t>十万竿荷尽夏香</t>
         </is>
       </c>
     </row>
@@ -2021,12 +2021,12 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>日月一轮秋</t>
+          <t>日月一轮钩</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>日月一壶天</t>
+          <t>日月一轮钩</t>
         </is>
       </c>
     </row>
@@ -2053,12 +2053,12 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>黄牛北海江南</t>
+          <t>黄牛北海关中</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>黄牛北海江南</t>
+          <t>黄牛北海关中</t>
         </is>
       </c>
     </row>
@@ -2085,12 +2085,12 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>座上常留不住人</t>
+          <t>座上常邀偶遇宾</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>座上何妨再读书</t>
+          <t>座上常邀偶遇宾</t>
         </is>
       </c>
     </row>
@@ -2117,12 +2117,12 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>南海观，北海观，观观天地所新</t>
+          <t>南海观，北海观，观音天下其音</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>南海观，北海观！观</t>
+          <t>南海观，北海观，喜观西</t>
         </is>
       </c>
     </row>
@@ -2149,12 +2149,12 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>柳浪添雅情</t>
+          <t>柳色含春晖</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>柳浪荡春波</t>
+          <t>柳色含春晖</t>
         </is>
       </c>
     </row>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>寸心不负万千人</t>
+          <t>寸心不负万千秋</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2213,12 +2213,12 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>浮云不去，自无言</t>
+          <t>浮名不在，只半生</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>浮云不去，自千秋</t>
+          <t>浮名不在，共千秋</t>
         </is>
       </c>
     </row>
@@ -2250,7 +2250,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>半山半水半山</t>
+          <t>三山三水三山</t>
         </is>
       </c>
     </row>
@@ -2277,12 +2277,12 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>清风东去，烟霞染出古今情</t>
+          <t>清风东去，烟霞染就古今情</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>清风东去，烟霞蔚起古今情</t>
+          <t>清风东去，松涛洗尽古今愁</t>
         </is>
       </c>
     </row>
@@ -2309,12 +2309,12 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>旭日东方第一楼</t>
+          <t>旭日蓬莱第一楼</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>旭日东方第一楼</t>
+          <t>旭日蓬莱第一峰</t>
         </is>
       </c>
     </row>
@@ -2341,12 +2341,12 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>拈花以去，只因月上人来</t>
+          <t>拈花以去，常因月上花开</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>拈花以去，只因水</t>
+          <t>拈槌以去，只因鼓响钟鸣</t>
         </is>
       </c>
     </row>
@@ -2378,7 +2378,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>大地无风暖三春</t>
+          <t>大海无波荡一舟</t>
         </is>
       </c>
     </row>
@@ -2405,12 +2405,12 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>天生万象，无欲则刚</t>
+          <t>山藏万壑，无欲则刚</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>天生万象，无欲则刚</t>
+          <t>山藏万壑，无欲则刚</t>
         </is>
       </c>
     </row>
@@ -2437,12 +2437,12 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>去无尽心头风月，不妨到此地种梅花</t>
+          <t>放得放眼中日月，何须入此地种桃花</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>去无尽心中日月，不妨到此日</t>
+          <t>放得放眼中日月，何须把</t>
         </is>
       </c>
     </row>
@@ -2469,12 +2469,12 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>一身风月在胸中</t>
+          <t>一亭风月入心头</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>一江风月入心头</t>
+          <t>一亭风月醉心头</t>
         </is>
       </c>
     </row>
@@ -2501,12 +2501,12 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>西来风雨一江秋</t>
+          <t>东临碣石万年风</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>东篱菊桂一枝秋</t>
+          <t>东临碣石万年书</t>
         </is>
       </c>
     </row>
@@ -2533,12 +2533,12 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>江上渔歌带月寒</t>
+          <t>江上花香带雨寒</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>江畔蛙声带雨凉</t>
+          <t>江畔花香带雨寒</t>
         </is>
       </c>
     </row>
@@ -2565,12 +2565,12 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>怜我呻吟，伤心伤悲</t>
+          <t>怜我相思，伤心伤心</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>怜我呻吟，凄风凄凉</t>
+          <t>怜我相思，伤心伤怀</t>
         </is>
       </c>
     </row>
@@ -2629,12 +2629,12 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>风和日丽展诗情</t>
+          <t>风和日丽醉诗情</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>风和日丽展诗情</t>
+          <t>风和日丽醉诗情</t>
         </is>
       </c>
     </row>
@@ -2661,12 +2661,12 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>看白马到此去来</t>
+          <t>看白鹤未来往来</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>看白鹤几个归来</t>
+          <t>看白鹤未归去来</t>
         </is>
       </c>
     </row>
@@ -2693,12 +2693,12 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>临风把盏，一帘风月尽成诗</t>
+          <t>临风把酒，一壶风月尽成诗</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>临风把盏，一帘烟月</t>
+          <t>临风把酒，一帘风月总关情</t>
         </is>
       </c>
     </row>
@@ -2730,7 +2730,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>天地奇观有圣贤</t>
+          <t>天地灵气自天然</t>
         </is>
       </c>
     </row>
@@ -2757,12 +2757,12 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>风光水色水中央</t>
+          <t>风声月色水中央</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>风光水色水中央</t>
+          <t>风声月色水中央</t>
         </is>
       </c>
     </row>
@@ -2789,12 +2789,12 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>风来水榭淡云烟</t>
+          <t>风来竹影绿松声</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>风吹柳岸碧云天</t>
+          <t>风来竹翠绿松声</t>
         </is>
       </c>
     </row>
@@ -2821,12 +2821,12 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>聚其风月无其雅怀</t>
+          <t>有其风月不其俗情</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>聚其风月无其雅怀</t>
+          <t>有其风月不其雅怀</t>
         </is>
       </c>
     </row>
@@ -2853,12 +2853,12 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>倚山云在肩</t>
+          <t>对山花于心</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>倚山云在肩</t>
+          <t>对山花于心</t>
         </is>
       </c>
     </row>
@@ -2885,12 +2885,12 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>水墨无关不染尘</t>
+          <t>月影难移好动情</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>水墨无关不染尘</t>
+          <t>月影难移不动情</t>
         </is>
       </c>
     </row>
@@ -2917,12 +2917,12 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>放下海边云</t>
+          <t>放牧海边云</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>放下海边云</t>
+          <t>放牧海边云</t>
         </is>
       </c>
     </row>
@@ -2949,12 +2949,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>禅心有趣，闲中自有清凉</t>
+          <t>禅心有道，静中自有清凉</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>禅心不老，闲中总</t>
+          <t>禅心有道，空中每</t>
         </is>
       </c>
     </row>
@@ -2986,7 +2986,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>胸中丘壑竞峥嵘</t>
+          <t>胸中丘壑蕴峥嵘</t>
         </is>
       </c>
     </row>
@@ -3045,12 +3045,12 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>明月清风独往来</t>
+          <t>碧水青山任纵横</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>明月清风独往来</t>
+          <t>碧水青山任纵横</t>
         </is>
       </c>
     </row>
@@ -3077,12 +3077,12 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>花影一江春</t>
+          <t>花影一帘香</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>花影一江春</t>
+          <t>花影一帘香</t>
         </is>
       </c>
     </row>
@@ -3109,12 +3109,12 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>一弯月影入诗怀</t>
+          <t>一帘月色入诗怀</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>一弯月色入诗囊</t>
+          <t>一轮明月入诗怀</t>
         </is>
       </c>
     </row>
@@ -3141,12 +3141,12 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>闭户纳清风</t>
+          <t>把酒问青天</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>闭户纳清风</t>
+          <t>把酒问青天</t>
         </is>
       </c>
     </row>
@@ -3173,12 +3173,12 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>常伴清风读万年</t>
+          <t>常伴清风醉一壶</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>常伴清风读万篇</t>
+          <t>常伴清风醉一壶</t>
         </is>
       </c>
     </row>
@@ -3205,12 +3205,12 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>心存一百事处，大悲大不是真如</t>
+          <t>梦回十八月处，大悲大自是禅心</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>心存一百事处，妙手回</t>
+          <t>梦回十万里外，此山水俱是禅机</t>
         </is>
       </c>
     </row>
@@ -3237,12 +3237,12 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>人间不必有风云</t>
+          <t>人间不必是风云</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>人间不觉无</t>
+          <t>人间岂可没</t>
         </is>
       </c>
     </row>
@@ -3269,12 +3269,12 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>挥毫一挥日月新</t>
+          <t>挥毫一挥古今狂</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>挥笔千钧日月明</t>
+          <t>挥毫一纸古今狂</t>
         </is>
       </c>
     </row>
@@ -3301,7 +3301,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>祥光耀九州</t>
+          <t>祥光照九州</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -3338,7 +3338,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>无处不文章</t>
+          <t>无处不飞扬</t>
         </is>
       </c>
     </row>
@@ -3365,12 +3365,12 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>山静云深鸟几声</t>
+          <t>风静云闲月一轮</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>山静云深鸟几声</t>
+          <t>风静云闲月一轮</t>
         </is>
       </c>
     </row>
@@ -3397,12 +3397,12 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>对月三更，有我相思</t>
+          <t>对月三联，有我同欢</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>对月三更，对酒当歌</t>
+          <t>对月三联，对酒当歌</t>
         </is>
       </c>
     </row>
@@ -3434,7 +3434,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>明月无心不染尘</t>
+          <t>明月无心可照人</t>
         </is>
       </c>
     </row>
@@ -3466,7 +3466,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>有佳人去似临江</t>
+          <t>有佳人去不思春</t>
         </is>
       </c>
     </row>
@@ -3493,12 +3493,12 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>心向俭中求</t>
+          <t>心自静中生</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>心向俭中求</t>
+          <t>心自静中生</t>
         </is>
       </c>
     </row>
@@ -3525,12 +3525,12 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>为政为公，为民为公</t>
+          <t>处世无奇，不亦无奇</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>为政为公，为民为公</t>
+          <t>处世无奇，自然无奇</t>
         </is>
       </c>
     </row>
@@ -3557,12 +3557,12 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>好事无妨任自行</t>
+          <t>好事无妨且自闲</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>好事无妨任自行</t>
+          <t>好事无妨且自闲</t>
         </is>
       </c>
     </row>
@@ -3594,7 +3594,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>日月照乾坤</t>
+          <t>日月焕光华</t>
         </is>
       </c>
     </row>
@@ -3621,12 +3621,12 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>大笔书来一夜情</t>
+          <t>美酒斟中一盏灯</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>大笔书来一夜情</t>
+          <t>美酒斟中一盏灯</t>
         </is>
       </c>
     </row>
@@ -3653,12 +3653,12 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>求实求真，求真求真</t>
+          <t>以外为尊，为外为尊</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>求实求真，求真求真</t>
+          <t>以外为尊，以外为尊</t>
         </is>
       </c>
     </row>
@@ -3685,12 +3685,12 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>风雨来时岁月新</t>
+          <t>风月何时梦幻新</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>风月何时岁月新</t>
+          <t>风月何时梦境新</t>
         </is>
       </c>
     </row>
@@ -3717,12 +3717,12 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>大文章自百代传承</t>
+          <t>大文章自三字成全</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>大文章自百代传承</t>
+          <t>大文章自三字成全</t>
         </is>
       </c>
     </row>
@@ -3749,12 +3749,12 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>室无俗雅，松烟竹雨松烟</t>
+          <t>室无俗虑，松烟竹雨松烟</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>室无俗雅，梅香竹韵梅香</t>
+          <t>室无俗虑，松烟竹雨松涛</t>
         </is>
       </c>
     </row>
@@ -3781,12 +3781,12 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
+          <t>修身常伴古今同</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
           <t>修身常与古人同</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>修身常与古人争</t>
         </is>
       </c>
     </row>
@@ -3813,12 +3813,12 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>一身风月在胸中</t>
+          <t>一亭风月到心头</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>一江风月到心头</t>
+          <t>一亭风月到心头</t>
         </is>
       </c>
     </row>
@@ -3845,12 +3845,12 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>不负人间风雨多人</t>
+          <t>长在人间道德之乎</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>不负人间风雨多时</t>
+          <t>长在人间道德之乎</t>
         </is>
       </c>
     </row>
@@ -3877,12 +3877,12 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>愧无一心心，不负良缘</t>
+          <t>欣看一枝花，尽是良缘</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>愧无一颗心，不负良缘</t>
+          <t>欣看一枝花，好结良缘</t>
         </is>
       </c>
     </row>
@@ -3909,12 +3909,12 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>常接天涯觅故人</t>
+          <t>常伴春风入梦乡</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>常借春风送暖情</t>
+          <t>常伴春风入梦乡</t>
         </is>
       </c>
     </row>
@@ -3941,12 +3941,12 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>雾封岭上松</t>
+          <t>风流陌上桑</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>雾封岭上松</t>
+          <t>雾罩岭上云</t>
         </is>
       </c>
     </row>
@@ -3978,7 +3978,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>逍遥逍遥逍遥游</t>
+          <t>逍遥野渡自逍遥</t>
         </is>
       </c>
     </row>
@@ -4005,12 +4005,12 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>老鬼不出老鬼出</t>
+          <t>老鬼难逃老鬼逃</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>老子不来老子来、来老子来</t>
+          <t>老鬼难逃老鬼逃</t>
         </is>
       </c>
     </row>
@@ -4037,12 +4037,12 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>牛耕田中田</t>
+          <t>牛啃岭中皮</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>牛耕田中田</t>
+          <t>牛啃岭中皮</t>
         </is>
       </c>
     </row>
@@ -4069,12 +4069,12 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>仙居山下觅僧敲</t>
+          <t>禅心石上悟禅机</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>仙居山下觅僧敲</t>
+          <t>禅心石上悟禅机</t>
         </is>
       </c>
     </row>
@@ -4101,12 +4101,12 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>天下千秋红叶叶，雨润滋心</t>
+          <t>水上千秋黄鹤影，月照禅心</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>天下无边红叶叶？</t>
+          <t>水上千竿青竹叶，雨打芭蕉</t>
         </is>
       </c>
     </row>
@@ -4133,7 +4133,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>沉浮两袖系民生</t>
+          <t>沉浮万里系民生</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -4165,12 +4165,12 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>半卷青山半卷诗</t>
+          <t>半卷残诗半卷诗</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>半卷青山半卷诗</t>
+          <t>半卷残诗半卷风</t>
         </is>
       </c>
     </row>
@@ -4197,12 +4197,12 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>坐北朝南卖北斗，人从南卖；</t>
+          <t>坐北朝南卖南瓜，心从南卖；</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>坐北朝南卖南瓜，身由</t>
+          <t>坐北朝南卖南瓜，瓜分北炒；</t>
         </is>
       </c>
     </row>
@@ -4229,12 +4229,12 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>南山一水，山中有月一千年；</t>
+          <t>南山一水，山中有月一半弯；</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>南山一水，人间胜地五千年</t>
+          <t>东风一叶，枝头匝地三</t>
         </is>
       </c>
     </row>
@@ -4261,12 +4261,12 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>春来西部暖千家</t>
+          <t>风来西部惠千家</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>春回南国暖千家</t>
+          <t>风来南国暖千家</t>
         </is>
       </c>
     </row>
@@ -4325,12 +4325,12 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>寿有一年此日年</t>
+          <t>寿有一年明日年</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>寿不二分明日分</t>
+          <t>寿有千年古岁年</t>
         </is>
       </c>
     </row>
@@ -4357,12 +4357,12 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>玉簟朱帘淡无香</t>
+          <t>玉枕松床静相思</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>玉簟朱帘淡无香</t>
+          <t>玉枕松床静相思</t>
         </is>
       </c>
     </row>
@@ -4394,7 +4394,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>清风明月，可怜天地梦难圆</t>
+          <t>清风明月，可怜风月</t>
         </is>
       </c>
     </row>
@@ -4421,12 +4421,12 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>醉鬼吟诗，不负江山情未泯</t>
+          <t>醉鬼伤神，难得春秋情不了</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>醉鬼吟诗，不负江山心不</t>
+          <t>醉鬼伤神，何惧江湖恨</t>
         </is>
       </c>
     </row>
@@ -4458,7 +4458,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>人情淡泊尽风情</t>
+          <t>人情淡泊尽风流</t>
         </is>
       </c>
     </row>
@@ -4485,12 +4485,12 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>风吹柳叶绿如茵</t>
+          <t>风来柳絮绿如烟</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>风吹柳叶绿如茵</t>
+          <t>风吹柳絮绿如茵</t>
         </is>
       </c>
     </row>
@@ -4517,7 +4517,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>新年再续一生缘</t>
+          <t>新年再上一层楼</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -4549,12 +4549,12 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>不为人迷恋故人</t>
+          <t>不为人痴醉美人</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>不觉茶香品美人</t>
+          <t>不为花开放彩鸢</t>
         </is>
       </c>
     </row>
@@ -4581,12 +4581,12 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>不可观花以开</t>
+          <t>不可弹琴以娱</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>不可观花以开</t>
+          <t>不能弹琴以娱</t>
         </is>
       </c>
     </row>
@@ -4613,12 +4613,12 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>杨柳垂青，心事不如碧玉</t>
+          <t>柳絮飘香，春色犹存翡翠</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>杨柳垂青，血脉长</t>
+          <t>柳絮飘香，春梦难</t>
         </is>
       </c>
     </row>
@@ -4645,12 +4645,12 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>蛙鸣水更幽</t>
+          <t>鱼游水更深</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>蛙鸣水更幽</t>
+          <t>鱼游水更深</t>
         </is>
       </c>
     </row>
@@ -4677,12 +4677,12 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>不必随风入座，只为一世故人多</t>
+          <t>何必随风入梦，不妨一醉故人多</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>不必随风入座，何妨今日</t>
+          <t>何必随风入梦，且为</t>
         </is>
       </c>
     </row>
@@ -4709,12 +4709,12 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>世事有情时</t>
+          <t>世事有缘时</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>世事有情时</t>
+          <t>世事有缘时</t>
         </is>
       </c>
     </row>
@@ -4741,12 +4741,12 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>不解悲欢不羡人</t>
+          <t>不解烦忧莫问谁</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>不解悲欢不羡人</t>
+          <t>不解烦忧总有情</t>
         </is>
       </c>
     </row>
@@ -4773,12 +4773,12 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>不少清风不少情</t>
+          <t>不少清风不少愁</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>不少清风不少愁</t>
+          <t>不尽柔情不尽情</t>
         </is>
       </c>
     </row>
@@ -4810,7 +4810,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>月色盈眸入夜霜</t>
+          <t>月色盈眸入夜风</t>
         </is>
       </c>
     </row>
@@ -4837,12 +4837,12 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>吟诗未必月初圆</t>
+          <t>寻诗思去月初圆</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>吟诗未必月初圆</t>
+          <t>寻诗思去月初圆</t>
         </is>
       </c>
     </row>
@@ -4869,12 +4869,12 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>不妨明月几时圆</t>
+          <t>不知明月几时圆</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>不妨明月几时圆</t>
+          <t>不知明月几时圆</t>
         </is>
       </c>
     </row>
@@ -4901,12 +4901,12 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>新月新闻更有香</t>
+          <t>新诗细品更有香</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>新月新闻更有香</t>
+          <t>新词妙语不少情</t>
         </is>
       </c>
     </row>
@@ -4933,12 +4933,12 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>竹下清风不胜寒</t>
+          <t>竹下清风不在人</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>竹下清风不胜寒</t>
+          <t>竹下清风不胜愁</t>
         </is>
       </c>
     </row>
@@ -4965,12 +4965,12 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>扪心字里一尘空</t>
+          <t>回头梦里一生空</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>扪心字里一尘空</t>
+          <t>回头梦里一身轻</t>
         </is>
       </c>
     </row>
@@ -4997,12 +4997,12 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>新颖展新风</t>
+          <t>新颖悟禅机</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>新颖展新风</t>
+          <t>新颖悟禅机</t>
         </is>
       </c>
     </row>
@@ -5029,12 +5029,12 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>风流不负世间情</t>
+          <t>风流不在眼前尘</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>风流不负世间名</t>
+          <t>风流不在眼前尘</t>
         </is>
       </c>
     </row>
@@ -5061,12 +5061,12 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>遗风传楚汉，归来不羡杜鹃声</t>
+          <t>开怀思李杜，归来不羡杜鹃魂</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>遗风传楚汉，醒来不羡杜鹃声</t>
+          <t>开怀思李杜，吟来不羡杜鹃魂</t>
         </is>
       </c>
     </row>
@@ -5093,12 +5093,12 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>三千万里苦难回</t>
+          <t>三千万里富无穷</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>三千万众苦难回</t>
+          <t>三千万里富无穷</t>
         </is>
       </c>
     </row>
@@ -5125,12 +5125,12 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>人因致富不同贫</t>
+          <t>人因致富不须贫</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>人因致富贵和贫</t>
+          <t>人因致富且和贫</t>
         </is>
       </c>
     </row>
@@ -5157,12 +5157,12 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>谁将明月照江湖</t>
+          <t>谁将夜雨落梅花</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>谁将明月照江湖</t>
+          <t>谁将夜雨落梅花</t>
         </is>
       </c>
     </row>
@@ -5189,12 +5189,12 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>残红初绽落梅香</t>
+          <t>新红初绽艳阳天</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>残红初绽落梅花</t>
+          <t>新红初绽艳阳天</t>
         </is>
       </c>
     </row>
@@ -5221,12 +5221,12 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>风吹杨柳翠无边</t>
+          <t>风梳柳叶绿无边</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>风吹杨柳绿无边</t>
+          <t>风梳柳叶绿无痕</t>
         </is>
       </c>
     </row>
@@ -5253,12 +5253,12 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>寻欢紫燕早迎春</t>
+          <t>含情紫燕总衔春</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>寻欢紫燕早迎春</t>
+          <t>含情紫燕早衔泥</t>
         </is>
       </c>
     </row>
@@ -5285,12 +5285,12 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>桃腮正映艳阳天</t>
+          <t>桃腮正照艳阳天</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>桃腮正映艳阳天</t>
+          <t>桃腮已醉艳阳天</t>
         </is>
       </c>
     </row>
@@ -5317,12 +5317,12 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>青山着意，听人间雨润雨来</t>
+          <t>青山无恙，听风中雨落雨飞</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>青山着意，听人间鸟语鸟啼</t>
+          <t>青山无恙，喜人间蝶舞蝶飞</t>
         </is>
       </c>
     </row>
@@ -5349,12 +5349,12 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>两眼观天天不地，地上无忧</t>
+          <t>两眼看山山不尽，尽处皆空</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>两袖清风风不尽，尽外皆空</t>
+          <t>两眼观天天不尽，尽处皆空</t>
         </is>
       </c>
     </row>
@@ -5381,12 +5381,12 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>风拂柳梢绿满地</t>
+          <t>风送秋波红遍地</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>风送秋波红遍地</t>
+          <t>风过泸州带酒香</t>
         </is>
       </c>
     </row>
@@ -5413,12 +5413,12 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>云遮水面水遮云</t>
+          <t>云浮水面水浮云</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>云遮水面水遮云</t>
+          <t>云浮水面水浮云</t>
         </is>
       </c>
     </row>
@@ -5477,12 +5477,12 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>恶人不断，难消一点心肠</t>
+          <t>恶人不死，难消一点心情</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>恶人不断，难消万缕</t>
+          <t>恶人不死，难消一片心肠</t>
         </is>
       </c>
     </row>
@@ -5509,12 +5509,12 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>青山原有幸，只为月明心</t>
+          <t>青山原有意，只为月当头</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>青山原有幸，何惧雨</t>
+          <t>青山原有意，且为雪</t>
         </is>
       </c>
     </row>
@@ -5541,12 +5541,12 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>鱼龙出水浪淘满江烟雨荷风</t>
+          <t>鸳鸯戏水浪淘千顷碧水蓝天</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>鱼龙出海浪淘千顷碧水青山</t>
+          <t>鸳鸯戏水岸夹千条柳叶荷枝</t>
         </is>
       </c>
     </row>
@@ -5605,12 +5605,12 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>雪梅红梅，雪映红梅梅映雪</t>
+          <t>水花红花，水映红花花映水</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>雪梅红梅，雪映红梅梅映雪</t>
+          <t>水花红花，水映红花花映水</t>
         </is>
       </c>
     </row>
@@ -5637,12 +5637,12 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>风吹水阔月光寒</t>
+          <t>诗吟水阔月光寒</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>风吹水阔月光寒</t>
+          <t>诗吟水阔月光寒</t>
         </is>
       </c>
     </row>
@@ -5669,12 +5669,12 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>不把清心作对联</t>
+          <t>不让佳人作酒精</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>不把清心作对联</t>
+          <t>不让佳人入梦香</t>
         </is>
       </c>
     </row>
@@ -5701,12 +5701,12 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>喜逢一笑不回头</t>
+          <t>愁于何处不回头</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>喜逢一笑不回眸</t>
+          <t>愁于何处不回头</t>
         </is>
       </c>
     </row>
@@ -5733,12 +5733,12 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>玉宇飞云入画屏</t>
+          <t>碧水流云入画屏</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>玉树临风入画图</t>
+          <t>碧水流云入画图</t>
         </is>
       </c>
     </row>
@@ -5765,12 +5765,12 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>天空云淡，月照自然明</t>
+          <t>风清月朗，云散不妨心</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>天空云淡，天地</t>
+          <t>风清月朗，人品自</t>
         </is>
       </c>
     </row>
@@ -5802,7 +5802,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>听雨听风梦有情</t>
+          <t>听雨听风梦有声</t>
         </is>
       </c>
     </row>
@@ -5829,12 +5829,12 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>月伴清风此夜凉</t>
+          <t>秋伴寒梅后世香</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>月伴清风此夜凉</t>
+          <t>秋伴寒霜后日寒</t>
         </is>
       </c>
     </row>
@@ -5861,12 +5861,12 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>诗书在野鹤闲云</t>
+          <t>琴书在水水清音</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>诗书在野鹤闲云</t>
+          <t>琴弦在水水清音</t>
         </is>
       </c>
     </row>
@@ -5893,12 +5893,12 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>心中自无限天机</t>
+          <t>心中自有故人情</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>心中自无限天机</t>
+          <t>心中自有故人情</t>
         </is>
       </c>
     </row>
@@ -5930,7 +5930,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>正气养真如</t>
+          <t>正道见真如</t>
         </is>
       </c>
     </row>
@@ -5957,12 +5957,12 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>碧波生菡萏，自在来清池</t>
+          <t>高山藏宝玉，自在来雕琢</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>碧波生菡萏，地道出</t>
+          <t>高山埋芍药，自然不</t>
         </is>
       </c>
     </row>

--- a/couplet/result-test.xlsx
+++ b/couplet/result-test.xlsx
@@ -421,12 +421,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>万里长河向北流</t>
+          <t>万里江山为北斗</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>万里长河向北流</t>
+          <t>两岸桃花向东流</t>
         </is>
       </c>
     </row>
@@ -453,12 +453,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>清风明月梦来兮</t>
+          <t>飞花飞絮夏来乎</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>清风明月夜来哉</t>
+          <t>飞花飞絮夏来乎</t>
         </is>
       </c>
     </row>
@@ -485,12 +485,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>飞白何须有意人</t>
+          <t>流水犹如有意人</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>飞白何须有意人</t>
+          <t>流水犹如有意人</t>
         </is>
       </c>
     </row>
@@ -517,12 +517,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>梦想清风入梦乡</t>
+          <t>窗有清风入画屏</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>梦想清风入梦乡</t>
+          <t>窗有清风入画屏</t>
         </is>
       </c>
     </row>
@@ -549,12 +549,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>天地几番情，尽随风雨里</t>
+          <t>风雨有情人，不知心话里</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>天地几番情？尽随</t>
+          <t>风雨几番风，总相思</t>
         </is>
       </c>
     </row>
@@ -581,12 +581,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>踏雪寻梅能无处</t>
+          <t>踏雪寻梅不无尘</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>踏雪寻梅不知春</t>
+          <t>踏雪寻梅自无尘</t>
         </is>
       </c>
     </row>
@@ -613,12 +613,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>一片天涯，诸君梦去不回头</t>
+          <t>一片冰心，一片冰心不染尘</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>一片天涯，扁舟归去不回头</t>
+          <t>一片冰心，不教</t>
         </is>
       </c>
     </row>
@@ -645,12 +645,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>观菩萨因此登台</t>
+          <t>知人事不可安然</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>观菩提不肯回头</t>
+          <t>知人事不可安然</t>
         </is>
       </c>
     </row>
@@ -677,12 +677,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>小心不死，难忘世上几何愁</t>
+          <t>小心不改，不知世上少多情</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>小心不死，抛开世上万千愁</t>
+          <t>小心不改，无非世上少多情</t>
         </is>
       </c>
     </row>
@@ -709,12 +709,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>半壶酒里醉乾坤</t>
+          <t>三分月色入诗词</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>半壶酒里醉乾坤</t>
+          <t>三杯酒后品人生</t>
         </is>
       </c>
     </row>
@@ -741,12 +741,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>千秋万祀，实乃同源</t>
+          <t>一心一意，自有真心</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>千秋万祀，实乃大</t>
+          <t>一心一意，自有真情</t>
         </is>
       </c>
     </row>
@@ -773,12 +773,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>风从花里绽开香</t>
+          <t>风随水上起来闲</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>风从花下落成愁</t>
+          <t>风随水上起来闲</t>
         </is>
       </c>
     </row>
@@ -805,12 +805,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>白水白山白女儿</t>
+          <t>白雪白梅白玉人</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>白水白山白女儿</t>
+          <t>白雪白梅白玉人</t>
         </is>
       </c>
     </row>
@@ -837,12 +837,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>江山共仰有尧天</t>
+          <t>神州崛起尽鸿图</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>江河相映是尧天</t>
+          <t>神州崛起赖尧天</t>
         </is>
       </c>
     </row>
@@ -869,12 +869,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>一轮明月自南来</t>
+          <t>一轮明月向东流</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>一轮明月自南来</t>
+          <t>一轮明月向东升</t>
         </is>
       </c>
     </row>
@@ -901,12 +901,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>年年遇故人</t>
+          <t>时时入梦乡</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>年年忆故人</t>
+          <t>时时过往人</t>
         </is>
       </c>
     </row>
@@ -933,12 +933,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>一千里去访仙人</t>
+          <t>一千年后问天翁</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>一千里去觅诗人</t>
+          <t>五千</t>
         </is>
       </c>
     </row>
@@ -965,12 +965,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>月下三分醉古今</t>
+          <t>月下三更醉酒杯</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>月下半弯冷水天</t>
+          <t>月下三分淡泊风</t>
         </is>
       </c>
     </row>
@@ -997,12 +997,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>大道岂能行</t>
+          <t>大道不能行</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>大道岂能行</t>
+          <t>大道不能行</t>
         </is>
       </c>
     </row>
@@ -1029,12 +1029,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>东升西落莫须莫</t>
+          <t>东西南北莫非非</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>东升西落自然自</t>
+          <t>东西南北莫非非</t>
         </is>
       </c>
     </row>
@@ -1061,12 +1061,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>知己无非泣晚风</t>
+          <t>知己何如知己人</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>知己无非泣晚风</t>
+          <t>知己无非知己人</t>
         </is>
       </c>
     </row>
@@ -1093,12 +1093,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>我梦如春风</t>
+          <t>我意如春风</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>我梦如春风</t>
+          <t>我意如春风</t>
         </is>
       </c>
     </row>
@@ -1125,12 +1125,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>北海闲观万里波</t>
+          <t>北斗闲观万里云</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>北海闲观四海春</t>
+          <t>北阙闲吟几句诗</t>
         </is>
       </c>
     </row>
@@ -1157,12 +1157,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>千秋明月无双桨，东海浪滔西海浪涛</t>
+          <t>千秋明月无双影，北斗星辉北斗寒窗</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>千山秋水无双桨，暮暮气吞朝暮苍</t>
+          <t>满江碧水无一片，秋波</t>
         </is>
       </c>
     </row>
@@ -1189,12 +1189,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>相思明月常相思</t>
+          <t>相逢大事总相宜</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>相邀明月久相随</t>
+          <t>相逢大事总相宜</t>
         </is>
       </c>
     </row>
@@ -1221,12 +1221,12 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>漠漠驼背山</t>
+          <t>淡淡竹林林</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>漠漠孤烟亭</t>
+          <t>淡淡竹林间</t>
         </is>
       </c>
     </row>
@@ -1253,12 +1253,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>漠漠秋千秋</t>
+          <t>处处柳千丝</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>漠漠柳千株</t>
+          <t>处处柳千丝</t>
         </is>
       </c>
     </row>
@@ -1285,12 +1285,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>寻梅北岭边</t>
+          <t>吟诗北斗间</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>寻梅北岭边</t>
+          <t>吟诗北斗间</t>
         </is>
       </c>
     </row>
@@ -1317,12 +1317,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>江中碧水荡还流</t>
+          <t>山中白鹤舞长天</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>江中碧水荡还澜</t>
+          <t>山中明月照无声</t>
         </is>
       </c>
     </row>
@@ -1349,12 +1349,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>江山天下通</t>
+          <t>江山笔下生</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>江山天下通</t>
+          <t>江山笔下生</t>
         </is>
       </c>
     </row>
@@ -1381,12 +1381,12 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>月缺月圆是客心</t>
+          <t>月落花开是故人</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>月缺月圆是客心</t>
+          <t>月落花开是故人</t>
         </is>
       </c>
     </row>
@@ -1413,12 +1413,12 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>今宵赏月常邀月，玉盏斟空天下风流</t>
+          <t>今朝问月何妨月？笔墨铺开画里画图</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>今宵赏月常邀月，柳絮飘</t>
+          <t>今朝问月何妨月？笔墨铺开画里画图</t>
         </is>
       </c>
     </row>
@@ -1445,12 +1445,12 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>我无言，一生以外清凉，不教人物无穷通</t>
+          <t>我能知，一人之后有为，不知世事不知非</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>我无言，九霄以外</t>
+          <t>我能知，一生之</t>
         </is>
       </c>
     </row>
@@ -1477,12 +1477,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>不知君子有心难</t>
+          <t>何如老子放心宽</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>不教胡马度阴来</t>
+          <t>何妨老子放心行</t>
         </is>
       </c>
     </row>
@@ -1509,12 +1509,12 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>无非俗念无非尘</t>
+          <t>何须玉骨不须梅</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>无非俗念无非魔</t>
+          <t>何如云水不如云</t>
         </is>
       </c>
     </row>
@@ -1541,12 +1541,12 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>一轮明月不须圆</t>
+          <t>一轮明月不相关</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>万家灯火已成灰</t>
+          <t>一壶风月任浮沉</t>
         </is>
       </c>
     </row>
@@ -1573,12 +1573,12 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>风轻云淡雁难行，一叶欲随风过泸州</t>
+          <t>秋寒秋冷雁无踪，一径长留月影临窗</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>风轻云淡雁无踪，一路遥</t>
+          <t>秋寒秋冷雁无踪，万里空</t>
         </is>
       </c>
     </row>
@@ -1605,12 +1605,12 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>一池碧水映霞红</t>
+          <t>一江碧水映山红</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>一堤翠柳迎风绿</t>
+          <t>一江碧水映山红</t>
         </is>
       </c>
     </row>
@@ -1637,12 +1637,12 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>鱼池映日面如花</t>
+          <t>花溪流水韵如诗</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>鱼塘映日面如花</t>
+          <t>花溪流水韵如诗</t>
         </is>
       </c>
     </row>
@@ -1669,12 +1669,12 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>月圆梦好有前缘</t>
+          <t>月圆花好有高人</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>月圆梦醒有前缘</t>
+          <t>月圆花好有高人</t>
         </is>
       </c>
     </row>
@@ -1701,12 +1701,12 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>水面佛门生佛灯</t>
+          <t>水面莲花开佛门</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>水面佛灯照佛灯</t>
+          <t>水面莲花入佛门</t>
         </is>
       </c>
     </row>
@@ -1733,12 +1733,12 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>陋室幽幽修我心</t>
+          <t>陋室清幽清我心</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>陋室幽幽入我怀</t>
+          <t>陋室幽幽清我心</t>
         </is>
       </c>
     </row>
@@ -1765,12 +1765,12 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>一点真如始是禅</t>
+          <t>一片清廉始是廉</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>万类霜天竞自由</t>
+          <t>一世清闲不是禅</t>
         </is>
       </c>
     </row>
@@ -1797,12 +1797,12 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>回头不必为从此</t>
+          <t>回头不见是非常</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>回头不必要回头</t>
+          <t>回眸不见是何人</t>
         </is>
       </c>
     </row>
@@ -1829,12 +1829,12 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>侧耳不闻山上音</t>
+          <t>大肚能容天上天</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>侧耳不闻山外音</t>
+          <t>大肚能容天上天</t>
         </is>
       </c>
     </row>
@@ -1861,12 +1861,12 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>心中常念梦成真</t>
+          <t>人间不觉梦如仙</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>心中无奈我非鱼</t>
+          <t>人间不觉梦如仙</t>
         </is>
       </c>
     </row>
@@ -1893,12 +1893,12 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>无情难得到天涯</t>
+          <t>无情不改过年多</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>无情难得到天涯</t>
+          <t>无私不畏是天高</t>
         </is>
       </c>
     </row>
@@ -1925,12 +1925,12 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>醉卧梅妻醉月魂</t>
+          <t>醉卧渔翁钓钓鱼</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>醉卧琴弦弹指尖</t>
+          <t>醉卧渔翁钓钓鱼</t>
         </is>
       </c>
     </row>
@@ -1957,12 +1957,12 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>海角山边一醉翁</t>
+          <t>月下风中一醉人</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>海角山边并蒂花</t>
+          <t>月下风中共醉人</t>
         </is>
       </c>
     </row>
@@ -1989,12 +1989,12 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>一万里云尽月光</t>
+          <t>一片云霞尽夕阳</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>十万竿荷尽夏香</t>
+          <t>十二楼台尽月光</t>
         </is>
       </c>
     </row>
@@ -2021,12 +2021,12 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>日月一轮钩</t>
+          <t>风雨一帘风</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>日月一轮钩</t>
+          <t>风雨两行诗</t>
         </is>
       </c>
     </row>
@@ -2053,12 +2053,12 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>黄牛北海关中</t>
+          <t>青牛西子关中</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>黄牛北海关中</t>
+          <t>青山白雪山中</t>
         </is>
       </c>
     </row>
@@ -2085,12 +2085,12 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>座上常邀偶遇宾</t>
+          <t>院内还须不见人</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>座上常邀偶遇宾</t>
+          <t>院里方知不见人</t>
         </is>
       </c>
     </row>
@@ -2117,12 +2117,12 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>南海观，北海观，观音天下其音</t>
+          <t>南海观，北海观，观来天地所观</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>南海观，北海观，喜观西</t>
+          <t>南海观，北海观，悟空天道</t>
         </is>
       </c>
     </row>
@@ -2149,12 +2149,12 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>柳色含春晖</t>
+          <t>柳絮舞春风</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>柳色含春晖</t>
+          <t>柳雨润春光</t>
         </is>
       </c>
     </row>
@@ -2181,12 +2181,12 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>寸心不负万千秋</t>
+          <t>挥毫再写九千篇</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>寸心不负万千秋</t>
+          <t>挥毫再写九千篇</t>
         </is>
       </c>
     </row>
@@ -2213,12 +2213,12 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>浮名不在，只半生</t>
+          <t>随风共起，且三更</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>浮名不在，共千秋</t>
+          <t>随风共起，两千年</t>
         </is>
       </c>
     </row>
@@ -2245,12 +2245,12 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>三山三水三山</t>
+          <t>三山五岳三山</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>三山三水三山</t>
+          <t>千山万水千山</t>
         </is>
       </c>
     </row>
@@ -2277,12 +2277,12 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>清风东去，烟霞染就古今情</t>
+          <t>清风西去，风云散尽古今愁</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>清风东去，松涛洗尽古今愁</t>
+          <t>清风西去，江山铺就</t>
         </is>
       </c>
     </row>
@@ -2309,12 +2309,12 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>旭日蓬莱第一楼</t>
+          <t>瑞雪琼楼第一家</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>旭日蓬莱第一峰</t>
+          <t>瑞气神州第一家</t>
         </is>
       </c>
     </row>
@@ -2341,12 +2341,12 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>拈花以去，常因月上花开</t>
+          <t>乘舟而去，无非云起云飞</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>拈槌以去，只因鼓响钟鸣</t>
+          <t>乘舟而去，无妨月</t>
         </is>
       </c>
     </row>
@@ -2373,12 +2373,12 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>大地无风暖三春</t>
+          <t>大地无私暖万家</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>大海无波荡一舟</t>
+          <t>大地无私暖万家</t>
         </is>
       </c>
     </row>
@@ -2405,12 +2405,12 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>山藏万壑，无欲则刚</t>
+          <t>山居一水，无欲无私</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>山藏万壑，无欲则刚</t>
+          <t>天生万象，无欲则刚</t>
         </is>
       </c>
     </row>
@@ -2437,12 +2437,12 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>放得放眼中日月，何须入此地种桃花</t>
+          <t>死不负心中岁月，何妨问此日有诗仙</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>放得放眼中日月，何须把</t>
+          <t>死不负心中岁月，何须问此日</t>
         </is>
       </c>
     </row>
@@ -2469,12 +2469,12 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>一亭风月入心头</t>
+          <t>一轮日月在胸中</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>一亭风月醉心头</t>
+          <t>一轮日月在胸中</t>
         </is>
       </c>
     </row>
@@ -2501,12 +2501,12 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>东临碣石万年风</t>
+          <t>南来风月一轮秋</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>东临碣石万年书</t>
+          <t>西湖风月一江秋</t>
         </is>
       </c>
     </row>
@@ -2533,12 +2533,12 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>江上花香带雨寒</t>
+          <t>天际花香伴月明</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>江畔花香带雨寒</t>
+          <t>天外桃花带露香</t>
         </is>
       </c>
     </row>
@@ -2565,12 +2565,12 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>怜我相思，伤心伤心</t>
+          <t>为国悲欢，伤心痛哭</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>怜我相思，伤心伤怀</t>
+          <t>为我相思，倾心相亲</t>
         </is>
       </c>
     </row>
@@ -2597,12 +2597,12 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>碧水无弦万古琴</t>
+          <t>碧水无声万古诗</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>碧水无弦万古琴</t>
+          <t>碧水无声万古诗</t>
         </is>
       </c>
     </row>
@@ -2629,12 +2629,12 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>风和日丽醉诗情</t>
+          <t>风和日丽展诗情</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>风和日丽醉诗情</t>
+          <t>风和日丽展诗情</t>
         </is>
       </c>
     </row>
@@ -2661,12 +2661,12 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>看白鹤未来往来</t>
+          <t>看白鹿为我放来</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>看白鹤未归去来</t>
+          <t>看白鹤为我归来</t>
         </is>
       </c>
     </row>
@@ -2693,12 +2693,12 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>临风把酒，一壶风月尽成诗</t>
+          <t>临风把盏，一轮明月共吟诗</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>临风把酒，一帘风月总关情</t>
+          <t>临风把盏，一轮明月共吟诗</t>
         </is>
       </c>
     </row>
@@ -2725,12 +2725,12 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>天地奇观有圣贤</t>
+          <t>天地大观有圣贤</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>天地灵气自天然</t>
+          <t>天地奇观是圣贤</t>
         </is>
       </c>
     </row>
@@ -2757,12 +2757,12 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>风声月色水中央</t>
+          <t>风声鸟语水中央</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>风声月色水中央</t>
+          <t>风声鸟语水中央</t>
         </is>
       </c>
     </row>
@@ -2789,12 +2789,12 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>风来竹影绿松声</t>
+          <t>风来水起白云天</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>风来竹翠绿松声</t>
+          <t>风吹柳岸绿云天</t>
         </is>
       </c>
     </row>
@@ -2821,12 +2821,12 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>有其风月不其俗情</t>
+          <t>看来岁月无非故人</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>有其风月不其雅怀</t>
+          <t>看来岁月无非故人</t>
         </is>
       </c>
     </row>
@@ -2853,12 +2853,12 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>对山花于心</t>
+          <t>临风花满枝</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>对山花于心</t>
+          <t>临风花满枝</t>
         </is>
       </c>
     </row>
@@ -2885,12 +2885,12 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>月影难移好动情</t>
+          <t>月镜无关不染尘</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>月影难移不动情</t>
+          <t>月镜无关好照人</t>
         </is>
       </c>
     </row>
@@ -2917,12 +2917,12 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>放牧海边云</t>
+          <t>打破水中鸥</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>放牧海边云</t>
+          <t>打破水中鸥</t>
         </is>
       </c>
     </row>
@@ -2949,12 +2949,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>禅心有道，静中自有清凉</t>
+          <t>禅心有处，空中不见无为</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>禅心有道，空中每</t>
+          <t>禅心不染？</t>
         </is>
       </c>
     </row>
@@ -2981,12 +2981,12 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>胸中丘壑蕴峥嵘</t>
+          <t>心中岁月任逍遥</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>胸中丘壑蕴峥嵘</t>
+          <t>心中岁月竞风流</t>
         </is>
       </c>
     </row>
@@ -3013,12 +3013,12 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>金戈铁马精神</t>
+          <t>金山玉树精神</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>金戈铁马精神</t>
+          <t>金山玉树精神</t>
         </is>
       </c>
     </row>
@@ -3045,12 +3045,12 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>碧水青山任纵横</t>
+          <t>明月清风自在来</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>碧水青山任纵横</t>
+          <t>明月清风自在行</t>
         </is>
       </c>
     </row>
@@ -3077,12 +3077,12 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>花影一帘香</t>
+          <t>风韵一江春</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>花影一帘香</t>
+          <t>风韵一江春</t>
         </is>
       </c>
     </row>
@@ -3109,12 +3109,12 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>一帘月色入诗怀</t>
+          <t>一轮明月入诗笺</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>一轮明月入诗怀</t>
+          <t>一轮明月入诗笺</t>
         </is>
       </c>
     </row>
@@ -3141,12 +3141,12 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>把酒问青天</t>
+          <t>入室淡清风</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>把酒问青天</t>
+          <t>入室淡清风</t>
         </is>
       </c>
     </row>
@@ -3173,12 +3173,12 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>常伴清风醉一壶</t>
+          <t>常伴清风醉几人</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>常伴清风醉一壶</t>
+          <t>常伴清风醉几人</t>
         </is>
       </c>
     </row>
@@ -3205,12 +3205,12 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>梦回十八月处，大悲大自是禅心</t>
+          <t>死于三千里外，大道人皆是圣人</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>梦回十万里外，此山水俱是禅机</t>
+          <t>死于三千里外，古往今来是</t>
         </is>
       </c>
     </row>
@@ -3237,12 +3237,12 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>人间不必是风云</t>
+          <t>人间不可是风流</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>人间岂可没</t>
+          <t>人间只有</t>
         </is>
       </c>
     </row>
@@ -3269,12 +3269,12 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>挥毫一挥古今狂</t>
+          <t>放歌一曲岁月长</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>挥毫一纸古今狂</t>
+          <t>放歌一曲岁月长</t>
         </is>
       </c>
     </row>
@@ -3301,7 +3301,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>祥光照九州</t>
+          <t>祥光耀九州</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -3333,12 +3333,12 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>无水不文章</t>
+          <t>无地不春风</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>无处不飞扬</t>
+          <t>无地不春风</t>
         </is>
       </c>
     </row>
@@ -3365,12 +3365,12 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>风静云闲月一轮</t>
+          <t>风软云开月一轮</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>风静云闲月一轮</t>
+          <t>风软云飞鸟有声</t>
         </is>
       </c>
     </row>
@@ -3397,12 +3397,12 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>对月三联，有我同欢</t>
+          <t>对月三吟，有意相思</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>对月三联，对酒当歌</t>
+          <t>对月三吟，对月吟诗</t>
         </is>
       </c>
     </row>
@@ -3429,12 +3429,12 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
+          <t>明月无情不染尘</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
           <t>明月无心不染尘</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>明月无心可照人</t>
         </is>
       </c>
     </row>
@@ -3461,12 +3461,12 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>有佳人去似临风</t>
+          <t>无闲人去似闲云</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>有佳人去不思春</t>
+          <t>无闲人去似闲云</t>
         </is>
       </c>
     </row>
@@ -3493,12 +3493,12 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>心自静中生</t>
+          <t>德自远方来</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>心自静中生</t>
+          <t>德自远方来</t>
         </is>
       </c>
     </row>
@@ -3525,12 +3525,12 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>处世无奇，不亦无奇</t>
+          <t>为人以善，为人以仁</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>处世无奇，自然无奇</t>
+          <t>为人为善，为人为仁</t>
         </is>
       </c>
     </row>
@@ -3557,12 +3557,12 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>好事无妨且自闲</t>
+          <t>佳句无聊话不说</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>好事无妨且自闲</t>
+          <t>佳句常吟思不眠</t>
         </is>
       </c>
     </row>
@@ -3594,7 +3594,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>日月焕光华</t>
+          <t>日月照乾坤</t>
         </is>
       </c>
     </row>
@@ -3621,12 +3621,12 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>美酒斟中一盏灯</t>
+          <t>新月来时一夜风</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>美酒斟中一盏灯</t>
+          <t>新月来时一夜秋</t>
         </is>
       </c>
     </row>
@@ -3653,12 +3653,12 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>以外为尊，为外为尊</t>
+          <t>心中有情，心中有情</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>以外为尊，以外为尊</t>
+          <t>心中有情，心中有情</t>
         </is>
       </c>
     </row>
@@ -3685,12 +3685,12 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>风月何时梦幻新</t>
+          <t>气节无边翰墨香</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>风月何时梦境新</t>
+          <t>气节无边翰墨香</t>
         </is>
       </c>
     </row>
@@ -3717,12 +3717,12 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>大文章自三字成全</t>
+          <t>大道德于万世为人</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>大文章自三字成全</t>
+          <t>大道德于万世为人，万世为人</t>
         </is>
       </c>
     </row>
@@ -3749,12 +3749,12 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>室无俗虑，松烟竹雨松烟</t>
+          <t>门无俗俗，松风竹雨松风</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>室无俗虑，松烟竹雨松涛</t>
+          <t>门无俗俗，松风竹雨松风</t>
         </is>
       </c>
     </row>
@@ -3781,12 +3781,12 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>修身常伴古今同</t>
+          <t>为人莫与俗尘同</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>修身常与古人同</t>
+          <t>为人莫与俗尘同</t>
         </is>
       </c>
     </row>
@@ -3813,12 +3813,12 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>一亭风月到心头</t>
+          <t>一身风骨在胸中</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>一亭风月到心头</t>
+          <t>一轮日月在心头</t>
         </is>
       </c>
     </row>
@@ -3845,12 +3845,12 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>长在人间道德之乎</t>
+          <t>常在人间品德高人</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>长在人间道德之乎</t>
+          <t>常在人间品德高才</t>
         </is>
       </c>
     </row>
@@ -3877,12 +3877,12 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>欣看一枝花，尽是良缘</t>
+          <t>喜无一片言，不负良师</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>欣看一枝花，好结良缘</t>
+          <t>喜无一片言，总是良师</t>
         </is>
       </c>
     </row>
@@ -3909,12 +3909,12 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>常伴春风入梦乡</t>
+          <t>不负春风送故人</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>常伴春风入梦乡</t>
+          <t>不负春风送故人</t>
         </is>
       </c>
     </row>
@@ -3941,12 +3941,12 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>风流陌上桑</t>
+          <t>风吹塞北梅</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>雾罩岭上云</t>
+          <t>风吹塞北梅</t>
         </is>
       </c>
     </row>
@@ -3978,7 +3978,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>逍遥野渡自逍遥</t>
+          <t>逍遥故里自逍遥</t>
         </is>
       </c>
     </row>
@@ -4005,12 +4005,12 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>老鬼难逃老鬼逃</t>
+          <t>大道无非大道行</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>老鬼难逃老鬼逃</t>
+          <t>大道无非大道行</t>
         </is>
       </c>
     </row>
@@ -4037,12 +4037,12 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>牛啃岭中皮</t>
+          <t>鸡鸣岭上春</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>牛啃岭中皮</t>
+          <t>鸡鸣岭上春</t>
         </is>
       </c>
     </row>
@@ -4069,12 +4069,12 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>禅心石上悟禅机</t>
+          <t>僧敲山上听钟敲</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>禅心石上悟禅机</t>
+          <t>僧敲山上听钟鸣</t>
         </is>
       </c>
     </row>
@@ -4101,12 +4101,12 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>水上千秋黄鹤影，月照禅心</t>
+          <t>世上千重红杏果，果结缘人</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>水上千竿青竹叶，雨打芭蕉</t>
+          <t>世上千层红叶叶，雨洗尘心</t>
         </is>
       </c>
     </row>
@@ -4133,12 +4133,12 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>沉浮万里系民生</t>
+          <t>风流万里是江山</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>沉浮万里镇乾坤</t>
+          <t>风流万里荡乾坤</t>
         </is>
       </c>
     </row>
@@ -4165,12 +4165,12 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>半卷残诗半卷诗</t>
+          <t>几度春风几度秋</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>半卷残诗半卷风</t>
+          <t>两袖清风两袖风</t>
         </is>
       </c>
     </row>
@@ -4197,12 +4197,12 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>坐北朝南卖南瓜，心从南卖；</t>
+          <t>望北望南望北斗，心向北望乎</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>坐北朝南卖南瓜，瓜分北炒；</t>
+          <t>望北望南望北斗，眼望东</t>
         </is>
       </c>
     </row>
@@ -4229,12 +4229,12 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>南山一水，山中有月一半弯；</t>
+          <t>南山一水，山中有水一千年</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>东风一叶，枝头匝地三</t>
+          <t>东风一马，马蹄踏雪九</t>
         </is>
       </c>
     </row>
@@ -4261,12 +4261,12 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>风来西部惠千家</t>
+          <t>风吹西子吹九州</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>风来南国暖千家</t>
+          <t>风吹南海纳千祥</t>
         </is>
       </c>
     </row>
@@ -4293,12 +4293,12 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>无欲无求</t>
+          <t>无以无为</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>无欲无求</t>
+          <t>无以无为</t>
         </is>
       </c>
     </row>
@@ -4325,12 +4325,12 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>寿有一年明日年</t>
+          <t>寿有双全此日来</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>寿有千年古岁年</t>
+          <t>寿有双全此日来</t>
         </is>
       </c>
     </row>
@@ -4357,12 +4357,12 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>玉枕松床静相思</t>
+          <t>花径花溪淡无尘</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>玉枕松床静相思</t>
+          <t>花径花溪淡无尘</t>
         </is>
       </c>
     </row>
@@ -4389,12 +4389,12 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>清风明月，可怜天地梦难圆</t>
+          <t>清风明月，不知岁月梦无穷</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>清风明月，可怜风月</t>
+          <t>清风明月，可怜天地梦无穷</t>
         </is>
       </c>
     </row>
@@ -4421,12 +4421,12 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>醉鬼伤神，难得春秋情不了</t>
+          <t>老子老夫，不怕风云情不同</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>醉鬼伤神，何惧江湖恨</t>
+          <t>老鬼老鬼，怎奈风云情不</t>
         </is>
       </c>
     </row>
@@ -4453,12 +4453,12 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>人情淡泊尽风流</t>
+          <t>人生淡泊尽风流</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>人情淡泊尽风流</t>
+          <t>人生淡泊自逍遥</t>
         </is>
       </c>
     </row>
@@ -4485,12 +4485,12 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>风来柳絮绿如烟</t>
+          <t>风吹柳絮绿如烟</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>风吹柳絮绿如茵</t>
+          <t>风吹柳絮绿如烟</t>
         </is>
       </c>
     </row>
@@ -4517,7 +4517,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>新年再上一层楼</t>
+          <t>新年再续一年新</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -4549,12 +4549,12 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>不为人痴醉美人</t>
+          <t>不为诗吟醉故人</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>不为花开放彩鸢</t>
+          <t>不与梅开傲雪梅</t>
         </is>
       </c>
     </row>
@@ -4581,12 +4581,12 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>不可弹琴以娱</t>
+          <t>不能知人以行</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>不能弹琴以娱</t>
+          <t>不能知人可知</t>
         </is>
       </c>
     </row>
@@ -4613,12 +4613,12 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>柳絮飘香，春色犹存翡翠</t>
+          <t>杨柳含烟，春色犹如翡翠</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>柳絮飘香，春梦难</t>
+          <t>杨柳含烟，情魄</t>
         </is>
       </c>
     </row>
@@ -4645,12 +4645,12 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>鱼游水更深</t>
+          <t>鸟鸣水犹幽</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>鱼游水更深</t>
+          <t>鸟鸣水犹幽</t>
         </is>
       </c>
     </row>
@@ -4677,12 +4677,12 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>何必随风入梦，不妨一醉故人多</t>
+          <t>为我放心为国，为谁不愧做人多</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>何必随风入梦，且为</t>
+          <t>为我放心为国，当然何必</t>
         </is>
       </c>
     </row>
@@ -4709,12 +4709,12 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>世事有缘时</t>
+          <t>世事有无时</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>世事有缘时</t>
+          <t>世事有无时</t>
         </is>
       </c>
     </row>
@@ -4741,12 +4741,12 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>不解烦忧莫问谁</t>
+          <t>莫负浮名莫负人</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>不解烦忧总有情</t>
+          <t>莫负浮名莫负人</t>
         </is>
       </c>
     </row>
@@ -4773,12 +4773,12 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>不少清风不少愁</t>
+          <t>不负清心不负心</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>不尽柔情不尽情</t>
+          <t>不负清心不负心</t>
         </is>
       </c>
     </row>
@@ -4805,12 +4805,12 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>月色盈眸入夜风</t>
+          <t>月色撩人入夜风</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>月色盈眸入夜风</t>
+          <t>月色撩人满地霜</t>
         </is>
       </c>
     </row>
@@ -4837,12 +4837,12 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>寻诗思去月初圆</t>
+          <t>临风欲去月犹寒</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>寻诗思去月初圆</t>
+          <t>临风欲去月犹明</t>
         </is>
       </c>
     </row>
@@ -4869,12 +4869,12 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>不知明月几时圆</t>
+          <t>还将明月一轮圆</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>不知明月几时圆</t>
+          <t>还将明月一轮圆</t>
         </is>
       </c>
     </row>
@@ -4901,12 +4901,12 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>新诗细品更有香</t>
+          <t>新诗新赋不胜诗</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>新词妙语不少情</t>
+          <t>新诗新赋不胜诗</t>
         </is>
       </c>
     </row>
@@ -4933,12 +4933,12 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>竹下清风不在人</t>
+          <t>竹下清风不似初</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>竹下清风不胜愁</t>
+          <t>竹下清风自在兹</t>
         </is>
       </c>
     </row>
@@ -4965,12 +4965,12 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>回头梦里一生空</t>
+          <t>开心路上一人来</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>回头梦里一身轻</t>
+          <t>开心路上百花开</t>
         </is>
       </c>
     </row>
@@ -4997,12 +4997,12 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>新颖悟禅机</t>
+          <t>大肚纳新天</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>新颖悟禅机</t>
+          <t>大肚纳新天</t>
         </is>
       </c>
     </row>
@@ -5029,12 +5029,12 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>风流不在眼前尘</t>
+          <t>风流不是世间人</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>风流不在眼前尘</t>
+          <t>风流不是世间人</t>
         </is>
       </c>
     </row>
@@ -5061,12 +5061,12 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>开怀思李杜，归来不羡杜鹃魂</t>
+          <t>知音思故里，归来不是凤凰声</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>开怀思李杜，吟来不羡杜鹃魂</t>
+          <t>知音思故里，归来已是凤凰声</t>
         </is>
       </c>
     </row>
@@ -5093,12 +5093,12 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>三千万里富无穷</t>
+          <t>三千万里尽无穷</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>三千万里富无穷</t>
+          <t>三千万事死难休</t>
         </is>
       </c>
     </row>
@@ -5125,12 +5125,12 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>人因致富不须贫</t>
+          <t>人因知己不知贫</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>人因致富且和贫</t>
+          <t>人因知己不知贫</t>
         </is>
       </c>
     </row>
@@ -5157,12 +5157,12 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>谁将夜雨落梅花</t>
+          <t>谁将春雨润桃花</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>谁将夜雨落梅花</t>
+          <t>谁将春雨润桃花</t>
         </is>
       </c>
     </row>
@@ -5189,12 +5189,12 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>新红初绽艳阳天</t>
+          <t>春风初度落花声</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>新红初绽艳阳天</t>
+          <t>春风初起落花声</t>
         </is>
       </c>
     </row>
@@ -5221,12 +5221,12 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>风梳柳叶绿无边</t>
+          <t>风吹柳絮绿如丝</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>风梳柳叶绿无痕</t>
+          <t>风吹柳叶绿更新</t>
         </is>
       </c>
     </row>
@@ -5253,12 +5253,12 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>含情紫燕总衔春</t>
+          <t>知心白鹤早知音</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>含情紫燕早衔泥</t>
+          <t>知心白鹤不知年</t>
         </is>
       </c>
     </row>
@@ -5285,12 +5285,12 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>桃腮正照艳阳天</t>
+          <t>梅心不染白云天</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>桃腮已醉艳阳天</t>
+          <t>梅心不染白云天</t>
         </is>
       </c>
     </row>
@@ -5317,12 +5317,12 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>青山无恙，听风中雨落雨飞</t>
+          <t>青山作伴，看天边云卷云霞</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>青山无恙，喜人间蝶舞蝶飞</t>
+          <t>青山作伴，观世中</t>
         </is>
       </c>
     </row>
@@ -5349,12 +5349,12 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>两眼看山山不尽，尽处皆空</t>
+          <t>两袖清风情不尽，淡处无尘</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>两眼观天天不尽，尽处皆空</t>
+          <t>两袖清风情不尽，淡处无尘</t>
         </is>
       </c>
     </row>
@@ -5381,12 +5381,12 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>风送秋波红遍地</t>
+          <t>风送柳花绿满园</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>风过泸州带酒香</t>
+          <t>风送柳花绿满天</t>
         </is>
       </c>
     </row>
@@ -5413,12 +5413,12 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>云浮水面水浮云</t>
+          <t>风吹柳岸柳摇风</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>云浮水面水浮云</t>
+          <t>风吹柳岸柳摇风</t>
         </is>
       </c>
     </row>
@@ -5445,12 +5445,12 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>一日月中行</t>
+          <t>一夜月中圆</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>一日月中行</t>
+          <t>八卦山中游</t>
         </is>
       </c>
     </row>
@@ -5477,12 +5477,12 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>恶人不死，难消一点心情</t>
+          <t>此人不死，不知一片心情</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>恶人不死，难消一片心肠</t>
+          <t>此人不死，难得一片心声</t>
         </is>
       </c>
     </row>
@@ -5509,12 +5509,12 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>青山原有意，只为月当头</t>
+          <t>青山原有幸，不为水流年</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>青山原有意，且为雪</t>
+          <t>青山原有幸，不与日</t>
         </is>
       </c>
     </row>
@@ -5541,12 +5541,12 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>鸳鸯戏水浪淘千顷碧水蓝天</t>
+          <t>凤凰鸣晓日，三春雨杏桃花</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>鸳鸯戏水岸夹千条柳叶荷枝</t>
+          <t>凤凰朝凤阙，四时风雨风云</t>
         </is>
       </c>
     </row>
@@ -5573,12 +5573,12 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>不负一生缘</t>
+          <t>莫负一生人</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>不负一生缘</t>
+          <t>莫负一生心</t>
         </is>
       </c>
     </row>
@@ -5605,12 +5605,12 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>水花红花，水映红花花映水</t>
+          <t>水晶碧荷，水映红荷荷映荷</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>水花红花，水映红花花映水</t>
+          <t>水晶碧荷，水映红莲荷映荷</t>
         </is>
       </c>
     </row>
@@ -5637,12 +5637,12 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>诗吟水阔月光寒</t>
+          <t>书山路远画图新</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>诗吟水阔月光寒</t>
+          <t>书山路远画图新</t>
         </is>
       </c>
     </row>
@@ -5669,12 +5669,12 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>不让佳人作酒精</t>
+          <t>不把清心作酒狂</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>不让佳人入梦香</t>
+          <t>不把清心作酒狂</t>
         </is>
       </c>
     </row>
@@ -5701,12 +5701,12 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>愁于何处不回头</t>
+          <t>愁来一夜总伤心</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>愁于何处不回头</t>
+          <t>愁来一夜更伤心</t>
         </is>
       </c>
     </row>
@@ -5733,12 +5733,12 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>碧水流云入画屏</t>
+          <t>玉宇飞云入画屏</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>碧水流云入画图</t>
+          <t>玉宇飞云入画屏</t>
         </is>
       </c>
     </row>
@@ -5765,12 +5765,12 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>风清月朗，云散不妨心</t>
+          <t>山幽水秀，水静自然清</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>风清月朗，人品自</t>
+          <t>山幽水秀，水静自然幽</t>
         </is>
       </c>
     </row>
@@ -5797,12 +5797,12 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>听雨听风梦有情</t>
+          <t>对月吟诗意有情</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>听雨听风梦有声</t>
+          <t>对月吟诗意有情</t>
         </is>
       </c>
     </row>
@@ -5829,12 +5829,12 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>秋伴寒梅后世香</t>
+          <t>秋与清风一夜凉</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>秋伴寒霜后日寒</t>
+          <t>秋与清风一夜凉</t>
         </is>
       </c>
     </row>
@@ -5861,12 +5861,12 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>琴书在水水清音</t>
+          <t>诗词在耳水流云</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>琴弦在水水清音</t>
+          <t>诗书在笔墨生花</t>
         </is>
       </c>
     </row>
@@ -5893,12 +5893,12 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>心中自有故人情</t>
+          <t>书中写就少年书</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>心中自有故人情</t>
+          <t>书中写就大文章</t>
         </is>
       </c>
     </row>
@@ -5925,12 +5925,12 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>正气养真如</t>
+          <t>大道出真如</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>正道见真如</t>
+          <t>大道出真情</t>
         </is>
       </c>
     </row>
@@ -5957,12 +5957,12 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>高山藏宝玉，自在来雕琢</t>
+          <t>春风吹柳絮，春到此风流</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>高山埋芍药，自然不</t>
+          <t>春风吹柳絮，月自是</t>
         </is>
       </c>
     </row>
